--- a/tests/artifact/script/Account.xlsx
+++ b/tests/artifact/script/Account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7070" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6910" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="797">
   <si>
     <t>target</t>
   </si>
@@ -2411,14 +2411,14 @@
     <t>${api.baseUrl}accounts/spreadsheet?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
   </si>
   <si>
-    <t>actualReturnCode=${response}.returnCode
+    <t xml:space="preserve">actualReturnCode=${response}.returnCode
 actualResponseTime=${response}.elapsedTime
 actualContentType=${response}.headers.[Content-Type]
 responseBody=${response}.body
 expectedReturnCode=200
 expectedResponseTime=4000
-expectedContentType=application/json
-schema=${schema.path}\AccountsSpreadsheet.txt</t>
+expectedContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.sheet
+</t>
   </si>
   <si>
     <t>Set headers</t>
@@ -2491,8 +2491,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -2581,20 +2581,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -2603,42 +2589,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2674,6 +2629,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -2690,7 +2653,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2704,8 +2667,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2718,8 +2682,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2746,13 +2746,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2770,13 +2854,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2788,145 +2920,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2971,6 +2971,54 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3003,47 +3051,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3058,22 +3067,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3082,134 +3085,131 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3254,14 +3254,14 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3413,52 +3413,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6451,8 +6451,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -26263,10 +26263,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -26588,7 +26588,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="12" s="10" customFormat="1" ht="28" spans="1:15">
       <c r="A12" s="18" t="s">
         <v>777</v>
       </c>
@@ -26671,22 +26671,20 @@
       <c r="N14" s="22"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="15" s="10" customFormat="1" ht="141" customHeight="1" spans="1:15">
       <c r="A15" s="18"/>
-      <c r="B15" s="24" t="s">
-        <v>768</v>
-      </c>
+      <c r="B15" s="24"/>
       <c r="C15" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>769</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>770</v>
+        <v>771</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>779</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
@@ -26698,20 +26696,22 @@
       <c r="N15" s="22"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" s="10" customFormat="1" ht="141" customHeight="1" spans="1:15">
+    <row r="16" s="10" customFormat="1" ht="40" customHeight="1" spans="1:15">
       <c r="A16" s="18"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="24" t="s">
+        <v>773</v>
+      </c>
       <c r="C16" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>447</v>
+        <v>49</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>771</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>779</v>
+        <v>774</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>775</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
@@ -26723,23 +26723,21 @@
       <c r="N16" s="22"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" s="10" customFormat="1" ht="40" customHeight="1" spans="1:15">
+    <row r="17" s="10" customFormat="1" ht="123" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="24" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>49</v>
+        <v>107</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>774</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>775</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
@@ -26750,22 +26748,14 @@
       <c r="N17" s="22"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" s="10" customFormat="1" ht="123" customHeight="1" spans="1:15">
+    <row r="18" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="18"/>
-      <c r="B18" s="24" t="s">
-        <v>776</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>756</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="29"/>
@@ -27132,23 +27122,6 @@
       <c r="N39" s="22"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="21"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -27156,7 +27129,7 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N5:N40">
+  <conditionalFormatting sqref="N5:N39">
     <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -27179,10 +27152,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C7:C8 C14:C18 C19:C40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C11 C12 C13 C14 C7:C8 C15:C17 C18:C39">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D7:D8 D14:D18 D19:D40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D9 D10 D11 D12 D13 D14 D7:D8 D15:D17 D18:D39">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -27196,8 +27169,8 @@
   <sheetPr/>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
     </sheetView>

--- a/tests/artifact/script/Account.xlsx
+++ b/tests/artifact/script/Account.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="831">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="832">
   <si>
     <t>target</t>
   </si>
@@ -2553,6 +2553,9 @@
         "openingbal": ""
     }
 }</t>
+  </si>
+  <si>
+    <t>Negative- Accountname, groupcode,openingbal)</t>
   </si>
   <si>
     <t>Negative (Accountname) - Requirement Controller - POST https://api-dev.gnukhata.org/accounts</t>
@@ -2649,7 +2652,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2660,13 +2663,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2696,25 +2692,6 @@
       <sz val="11"/>
       <color theme="10"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3264,198 +3241,214 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3467,175 +3460,119 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6725,14 +6662,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="41"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="42"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -6746,12 +6683,12 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="41"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -6763,7 +6700,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -6798,10 +6735,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -6815,7 +6752,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="5" s="54" customFormat="1" ht="32" customHeight="1" spans="1:16384">
+    <row r="5" s="44" customFormat="1" ht="32" customHeight="1" spans="1:16384">
       <c r="A5" s="20" t="s">
         <v>747</v>
       </c>
@@ -6831,7 +6768,7 @@
       <c r="E5" s="30" t="s">
         <v>749</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="32" t="s">
         <v>750</v>
       </c>
       <c r="G5" s="30" t="s">
@@ -23227,7 +23164,7 @@
       <c r="E6" s="30" t="s">
         <v>752</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="32" t="s">
         <v>753</v>
       </c>
       <c r="G6" s="30"/>
@@ -23252,7 +23189,7 @@
       <c r="E7" s="30" t="s">
         <v>754</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="32" t="s">
         <v>755</v>
       </c>
       <c r="G7" s="30" t="s">
@@ -23279,7 +23216,7 @@
       <c r="E8" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F8" s="32" t="s">
         <v>753</v>
       </c>
       <c r="G8" s="30"/>
@@ -23308,73 +23245,73 @@
       <c r="N9" s="24"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" s="55" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="68"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="67"/>
-    </row>
-    <row r="11" s="55" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A11" s="56"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="66"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="67"/>
-    </row>
-    <row r="12" s="55" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="56"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="66"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="67"/>
-    </row>
-    <row r="13" s="55" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A13" s="56"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="66"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="67"/>
+    <row r="10" s="45" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A10" s="46"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="57"/>
+    </row>
+    <row r="11" s="45" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A11" s="46"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="56"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="57"/>
+    </row>
+    <row r="12" s="45" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A12" s="46"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="57"/>
+    </row>
+    <row r="13" s="45" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A13" s="46"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="56"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="58"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="57"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="20"/>
@@ -23497,7 +23434,7 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="20"/>
-      <c r="B21" s="65"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -26538,14 +26475,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="41"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="42"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="38" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -26561,12 +26498,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="41"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -26578,7 +26515,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -26613,10 +26550,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -26676,7 +26613,7 @@
       <c r="F6" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="42"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -26752,7 +26689,7 @@
       <c r="E9" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F9" s="32" t="s">
         <v>772</v>
       </c>
       <c r="G9" s="27"/>
@@ -26860,7 +26797,7 @@
       <c r="E13" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F13" s="32" t="s">
         <v>778</v>
       </c>
       <c r="G13" s="30"/>
@@ -26905,7 +26842,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="52"/>
+      <c r="G15" s="42"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
@@ -27336,14 +27273,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="41"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="42"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -27359,12 +27296,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="41"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -27376,7 +27313,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -27411,10 +27348,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -27635,7 +27572,7 @@
       <c r="E12" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="32" t="s">
         <v>796</v>
       </c>
       <c r="G12" s="27"/>
@@ -27689,7 +27626,7 @@
       <c r="E14" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="F14" s="53"/>
+      <c r="F14" s="43"/>
       <c r="G14" s="30"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -27754,9 +27691,6 @@
     <row r="18" ht="172" customHeight="1" spans="1:15">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
       <c r="F18" s="28"/>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -27774,7 +27708,6 @@
       <c r="C19" s="26"/>
       <c r="D19" s="27"/>
       <c r="E19" s="28"/>
-      <c r="F19" s="8"/>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
@@ -29837,8 +29770,8 @@
   <sheetPr/>
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B5" workbookViewId="0">
-      <selection activeCell="B8" sqref="$A8:$XFD8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -29881,14 +29814,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="41"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="42"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="38" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -29904,12 +29837,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="41"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -29921,7 +29854,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -29956,10 +29889,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -29992,7 +29925,7 @@
       <c r="F5" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="42"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -30127,7 +30060,7 @@
       <c r="F10" s="28" t="s">
         <v>802</v>
       </c>
-      <c r="G10" s="52"/>
+      <c r="G10" s="42"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="28"/>
@@ -30208,7 +30141,7 @@
       <c r="F13" s="28" t="s">
         <v>802</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="42"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="28"/>
@@ -30584,10 +30517,10 @@
   <sheetPr/>
   <dimension ref="A1:O159"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -30630,14 +30563,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="41"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="42"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -30653,12 +30586,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="41"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
-      <c r="N2" s="44"/>
-      <c r="O2" s="44"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -30670,7 +30603,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="45"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -30705,10 +30638,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="46" t="s">
+      <c r="J4" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="47"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -31104,32 +31037,34 @@
       <c r="N18" s="24"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" s="4" customFormat="1" ht="28" spans="1:15">
-      <c r="A19" s="32"/>
-      <c r="B19" s="33" t="s">
+    <row r="19" s="4" customFormat="1" ht="56" spans="1:15">
+      <c r="A19" s="20" t="s">
         <v>810</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="21" t="s">
+        <v>811</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="D19" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E19" s="35" t="s">
-        <v>811</v>
-      </c>
-      <c r="F19" s="36" t="s">
+      <c r="E19" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="F19" s="32" t="s">
         <v>774</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="49"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="49"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="23"/>
     </row>
     <row r="20" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A20" s="20"/>
@@ -31141,10 +31076,10 @@
         <v>465</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="F20" s="38" t="s">
         <v>813</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>814</v>
       </c>
       <c r="G20" s="30"/>
       <c r="H20" s="27"/>
@@ -31162,14 +31097,14 @@
       <c r="C21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="F21" s="38" t="s">
         <v>815</v>
+      </c>
+      <c r="F21" s="32" t="s">
+        <v>816</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="27"/>
@@ -31187,14 +31122,14 @@
       <c r="C22" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>816</v>
-      </c>
-      <c r="F22" s="38" t="s">
         <v>817</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>818</v>
       </c>
       <c r="G22" s="30"/>
       <c r="H22" s="27"/>
@@ -31221,7 +31156,7 @@
         <v>789</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -31239,14 +31174,14 @@
       <c r="C24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>792</v>
       </c>
       <c r="F24" s="28" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G24" s="30"/>
       <c r="H24" s="27"/>
@@ -31264,7 +31199,7 @@
       <c r="C25" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="33" t="s">
         <v>356</v>
       </c>
       <c r="E25" s="30" t="s">
@@ -31343,14 +31278,14 @@
       <c r="C28" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="40" t="s">
+      <c r="D28" s="34" t="s">
         <v>302</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F28" s="27" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -31363,31 +31298,31 @@
       <c r="O28" s="23"/>
     </row>
     <row r="29" s="4" customFormat="1" ht="28" spans="1:15">
-      <c r="A29" s="32"/>
-      <c r="B29" s="33" t="s">
-        <v>821</v>
-      </c>
-      <c r="C29" s="34" t="s">
+      <c r="A29" s="20"/>
+      <c r="B29" s="21" t="s">
+        <v>822</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E29" s="35" t="s">
-        <v>811</v>
-      </c>
-      <c r="F29" s="36" t="s">
+      <c r="E29" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="F29" s="32" t="s">
         <v>774</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="49"/>
-      <c r="L29" s="50"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="50"/>
-      <c r="O29" s="49"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="23"/>
     </row>
     <row r="30" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A30" s="20"/>
@@ -31399,10 +31334,10 @@
         <v>465</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="F30" s="38" t="s">
         <v>813</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>814</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="27"/>
@@ -31420,14 +31355,14 @@
       <c r="C31" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>822</v>
+        <v>815</v>
+      </c>
+      <c r="F31" s="32" t="s">
+        <v>823</v>
       </c>
       <c r="G31" s="30"/>
       <c r="H31" s="27"/>
@@ -31445,14 +31380,14 @@
       <c r="C32" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>823</v>
-      </c>
-      <c r="F32" s="38" t="s">
         <v>824</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>825</v>
       </c>
       <c r="G32" s="30"/>
       <c r="H32" s="27"/>
@@ -31479,7 +31414,7 @@
         <v>789</v>
       </c>
       <c r="F33" s="30" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -31497,14 +31432,14 @@
       <c r="C34" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E34" s="30" t="s">
         <v>792</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="G34" s="30"/>
       <c r="H34" s="27"/>
@@ -31522,7 +31457,7 @@
       <c r="C35" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="33" t="s">
         <v>356</v>
       </c>
       <c r="E35" s="30" t="s">
@@ -31601,14 +31536,14 @@
       <c r="C38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="40" t="s">
+      <c r="D38" s="34" t="s">
         <v>302</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F38" s="27" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -31621,31 +31556,31 @@
       <c r="O38" s="23"/>
     </row>
     <row r="39" s="4" customFormat="1" ht="28" spans="1:15">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33" t="s">
-        <v>826</v>
-      </c>
-      <c r="C39" s="34" t="s">
+      <c r="A39" s="20"/>
+      <c r="B39" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="C39" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="35" t="s">
+      <c r="D39" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E39" s="35" t="s">
-        <v>811</v>
-      </c>
-      <c r="F39" s="36" t="s">
+      <c r="E39" s="30" t="s">
+        <v>812</v>
+      </c>
+      <c r="F39" s="32" t="s">
         <v>774</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="49"/>
-      <c r="L39" s="50"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="50"/>
-      <c r="O39" s="49"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="23"/>
     </row>
     <row r="40" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A40" s="20"/>
@@ -31657,10 +31592,10 @@
         <v>465</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="F40" s="38" t="s">
         <v>813</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>814</v>
       </c>
       <c r="G40" s="30"/>
       <c r="H40" s="27"/>
@@ -31678,14 +31613,14 @@
       <c r="C41" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="33" t="s">
         <v>49</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>814</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>827</v>
+        <v>815</v>
+      </c>
+      <c r="F41" s="32" t="s">
+        <v>828</v>
       </c>
       <c r="G41" s="30"/>
       <c r="H41" s="27"/>
@@ -31703,14 +31638,14 @@
       <c r="C42" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="F42" s="38" t="s">
         <v>829</v>
+      </c>
+      <c r="F42" s="32" t="s">
+        <v>830</v>
       </c>
       <c r="G42" s="30"/>
       <c r="H42" s="27"/>
@@ -31737,7 +31672,7 @@
         <v>789</v>
       </c>
       <c r="F43" s="30" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -31755,14 +31690,14 @@
       <c r="C44" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="39" t="s">
+      <c r="D44" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E44" s="30" t="s">
         <v>792</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="G44" s="30"/>
       <c r="H44" s="27"/>
@@ -31780,7 +31715,7 @@
       <c r="C45" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="33" t="s">
         <v>356</v>
       </c>
       <c r="E45" s="30" t="s">
@@ -31859,14 +31794,14 @@
       <c r="C48" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="34" t="s">
         <v>302</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F48" s="27" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G48" s="27"/>
       <c r="H48" s="27"/>

--- a/tests/artifact/script/Account.xlsx
+++ b/tests/artifact/script/Account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1289" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="851">
   <si>
     <t>target</t>
   </si>
@@ -2340,7 +2340,7 @@
     <t>gktoken</t>
   </si>
   <si>
-    <t>Postive and Negtive API's of Get Request  in Account Module</t>
+    <t>Postive API's of Get Request  in Account Module</t>
   </si>
   <si>
     <t>your name</t>
@@ -2423,7 +2423,7 @@
     <t>Clear the Header</t>
   </si>
   <si>
-    <t>Postive and Negtive API's of POST Request  in Account Module</t>
+    <t>Postive API's of POST Request  in Account Module</t>
   </si>
   <si>
     <t>Set headers</t>
@@ -2491,6 +2491,9 @@
     <t>Clear the headers</t>
   </si>
   <si>
+    <t>Negtive API's of Get Request  in Account Module</t>
+  </si>
+  <si>
     <t>Negative - accounts (Unauthorized )</t>
   </si>
   <si>
@@ -2507,7 +2510,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>Negative - accounts (Account instead of Accounts)</t>
+    <t>Negative - accounts (Invalid token)</t>
+  </si>
+  <si>
+    <t>Set the Wrong Authorisation headers</t>
+  </si>
+  <si>
+    <t>${gktoken}${invflag}</t>
+  </si>
+  <si>
+    <t>Negative - accounts (Invalid token and Invalid endpoint)</t>
   </si>
   <si>
     <t>${api.baseUrl}account</t>
@@ -2523,13 +2535,13 @@
 schema=null</t>
   </si>
   <si>
-    <t>Negative - accounts (POST Req)</t>
-  </si>
-  <si>
-    <t>Negative - accounts/Spreadsheet</t>
-  </si>
-  <si>
-    <t>${api.baseUrl}accounts/spreadsheet?fystart=&amp;fyend=&amp;orgname=&amp;orgtype=</t>
+    <t>Negative - accounts (Valid Token and Invalid endpoint)</t>
+  </si>
+  <si>
+    <t>Negative - accounts (Invalid (POST) Req)</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Unauthorized )</t>
   </si>
   <si>
     <t>actualReturnCode=${response}.returnCode
@@ -2542,6 +2554,40 @@
 schema=null</t>
   </si>
   <si>
+    <t>Negative - accounts/Spreadsheet(Invalid token)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actualReturnCode=${response}.returnCode
+actualResponseTime=${response}.elapsedTime
+actualContentType=${response}.headers.[Content-Type]
+responseBody=${response}.body
+expectedReturnCode=200
+expectedResponseTime=4000
+expectedContentType=application/json
+</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Invalid token and Invalid endpoint)</t>
+  </si>
+  <si>
+    <t>${api.baseUrl}account/spreadsheet?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet (Invalid (POST) Req)</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Vali token and Invalid endpoint )</t>
+  </si>
+  <si>
+    <t>Negtive API's of POST Request  in Account Module</t>
+  </si>
+  <si>
+    <t>Negative - accounts(Invalid token)</t>
+  </si>
+  <si>
+    <t>Negative - accounts(Invalid token and Invalid endpoint)</t>
+  </si>
+  <si>
     <t>Negative - accounts (Verifying Mandatory fields )</t>
   </si>
   <si>
@@ -2555,16 +2601,25 @@
 }</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Negative - accounts (Invalid GET Request )</t>
+  </si>
+  <si>
+    <t>Negative - accounts(Valid token and Invalid endpoint)</t>
+  </si>
+  <si>
     <t>Negative- Accountname, groupcode,openingbal)</t>
   </si>
   <si>
-    <t>Negative (Accountname) - Requirement Controller - POST https://api-dev.gnukhata.org/accounts</t>
+    <t>Negative (Accountname) - POST https://api-dev.gnukhata.org/accounts</t>
   </si>
   <si>
     <t>counter</t>
   </si>
   <si>
-    <t>8</t>
+    <t>9</t>
   </si>
   <si>
     <t>-1</t>
@@ -2574,6 +2629,9 @@
   </si>
   <si>
     <t>$(array|length|${negative.accountname})</t>
+  </si>
+  <si>
+    <t>Save the Account name</t>
   </si>
   <si>
     <t>account.name</t>
@@ -2598,10 +2656,13 @@
     <t>1</t>
   </si>
   <si>
-    <t>Negative (groupcode) - Requirement Controller - POST https://api-dev.gnukhata.org/accounts</t>
+    <t>Negative (groupcode) - POST https://api-dev.gnukhata.org/accounts</t>
   </si>
   <si>
     <t>$(array|length|${negative.groupcode})</t>
+  </si>
+  <si>
+    <t>save the groupcode</t>
   </si>
   <si>
     <t>group.code</t>
@@ -2620,10 +2681,13 @@
 }</t>
   </si>
   <si>
-    <t>Negative (openingbal) - Requirement Controller - POST https://api-dev.gnukhata.org/accounts</t>
+    <t>Negative (openingbal) - POST https://api-dev.gnukhata.org/accounts</t>
   </si>
   <si>
     <t>$(array|length|${negative.openingbal})</t>
+  </si>
+  <si>
+    <t>save the opening bal</t>
   </si>
   <si>
     <t>opening.bal</t>
@@ -26431,8 +26495,8 @@
   <sheetPr/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -26810,7 +26874,7 @@
       <c r="N13" s="24"/>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="123" customHeight="1" spans="1:15">
+    <row r="14" s="2" customFormat="1" ht="45" customHeight="1" spans="1:15">
       <c r="A14" s="20"/>
       <c r="B14" s="31" t="s">
         <v>779</v>
@@ -27227,10 +27291,10 @@
   <sheetPr/>
   <dimension ref="A1:O136"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -29768,10 +29832,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -29825,7 +29889,7 @@
     </row>
     <row r="2" s="2" customFormat="1" ht="38" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
-        <v>757</v>
+        <v>798</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -29908,7 +29972,7 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="39" customHeight="1" spans="1:15">
       <c r="A5" s="20" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>762</v>
@@ -30002,7 +30066,7 @@
         <v>771</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -30026,7 +30090,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>775</v>
@@ -30041,26 +30105,26 @@
       <c r="N9" s="24"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="39" customHeight="1" spans="1:15">
+    <row r="10" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A10" s="20" t="s">
-        <v>801</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C10" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F10" s="28" t="s">
         <v>802</v>
       </c>
-      <c r="G10" s="42"/>
+      <c r="B10" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="G10" s="27"/>
       <c r="H10" s="27"/>
       <c r="I10" s="27"/>
       <c r="J10" s="28"/>
@@ -30070,24 +30134,23 @@
       <c r="N10" s="24"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A11" s="20"/>
-      <c r="B11" s="31" t="s">
-        <v>765</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E11" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30" t="s">
-        <v>767</v>
-      </c>
+    <row r="11" s="2" customFormat="1" ht="39" customHeight="1" spans="2:15">
+      <c r="B11" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="G11" s="42"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -30097,22 +30160,24 @@
       <c r="N11" s="24"/>
       <c r="O11" s="23"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="12" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
+      <c r="B12" s="31" t="s">
+        <v>765</v>
+      </c>
       <c r="C12" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>803</v>
-      </c>
-      <c r="G12" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H12" s="27"/>
       <c r="I12" s="27"/>
       <c r="J12" s="28"/>
@@ -30122,26 +30187,24 @@
       <c r="N12" s="24"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="39" customHeight="1" spans="1:15">
-      <c r="A13" s="20" t="s">
-        <v>804</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C13" s="26" t="s">
+    <row r="13" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+      <c r="A13" s="20"/>
+      <c r="B13" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E13" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>802</v>
-      </c>
-      <c r="G13" s="42"/>
+      <c r="E13" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="G13" s="30"/>
       <c r="H13" s="27"/>
       <c r="I13" s="27"/>
       <c r="J13" s="28"/>
@@ -30151,24 +30214,22 @@
       <c r="N13" s="24"/>
       <c r="O13" s="23"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+    <row r="14" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A14" s="20"/>
-      <c r="B14" s="31" t="s">
-        <v>794</v>
-      </c>
+      <c r="B14" s="21"/>
       <c r="C14" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D14" s="30" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30" t="s">
-        <v>767</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="F14" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="G14" s="27"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="28"/>
@@ -30178,20 +30239,22 @@
       <c r="N14" s="24"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="15" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A15" s="20"/>
-      <c r="B15" s="21"/>
+      <c r="B15" s="31" t="s">
+        <v>773</v>
+      </c>
       <c r="C15" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="30" t="s">
-        <v>447</v>
+        <v>49</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F15" s="28" t="s">
-        <v>803</v>
+        <v>801</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>775</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -30203,7 +30266,7 @@
       <c r="N15" s="24"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="35" customHeight="1" spans="1:15">
+    <row r="16" s="2" customFormat="1" ht="42" spans="1:15">
       <c r="A16" s="20" t="s">
         <v>805</v>
       </c>
@@ -30222,7 +30285,7 @@
       <c r="F16" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="42"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="28"/>
@@ -30232,7 +30295,7 @@
       <c r="N16" s="24"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="17" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A17" s="20"/>
       <c r="B17" s="31" t="s">
         <v>765</v>
@@ -30259,9 +30322,9 @@
       <c r="N17" s="24"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+    <row r="18" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A18" s="20"/>
-      <c r="B18" s="31"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="29" t="s">
         <v>5</v>
       </c>
@@ -30274,7 +30337,7 @@
       <c r="F18" s="28" t="s">
         <v>807</v>
       </c>
-      <c r="G18" s="30"/>
+      <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
@@ -30284,14 +30347,22 @@
       <c r="N18" s="24"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="19" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="B19" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
@@ -30301,13 +30372,25 @@
       <c r="N19" s="24"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
+    <row r="20" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A20" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>761</v>
+      </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
@@ -30318,14 +30401,23 @@
       <c r="N20" s="24"/>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
+    <row r="21" s="2" customFormat="1" ht="39" customHeight="1" spans="2:15">
+      <c r="B21" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F21" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="G21" s="42"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
@@ -30335,14 +30427,24 @@
       <c r="N21" s="24"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="22" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
+      <c r="B22" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
@@ -30352,13 +30454,21 @@
       <c r="N22" s="24"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="23" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
+      <c r="C23" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>807</v>
+      </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
@@ -30369,14 +30479,26 @@
       <c r="N23" s="24"/>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
+    <row r="24" s="2" customFormat="1" ht="39" customHeight="1" spans="1:15">
+      <c r="A24" s="20" t="s">
+        <v>809</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="G24" s="42"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
@@ -30386,14 +30508,24 @@
       <c r="N24" s="24"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="25" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
+      <c r="B25" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E25" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="28"/>
@@ -30403,13 +30535,21 @@
       <c r="N25" s="24"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="26" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
+      <c r="C26" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>800</v>
+      </c>
       <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
@@ -30420,14 +30560,22 @@
       <c r="N26" s="24"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="27" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
+      <c r="B27" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
@@ -30437,6 +30585,504 @@
       <c r="N27" s="24"/>
       <c r="O27" s="23"/>
     </row>
+    <row r="28" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A28" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="23"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A29" s="20"/>
+      <c r="B29" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="23"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+      <c r="A30" s="20"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F30" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="G30" s="30"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="23"/>
+    </row>
+    <row r="31" ht="42" spans="1:6">
+      <c r="A31" s="20" t="s">
+        <v>812</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="35" customHeight="1" spans="2:15">
+      <c r="B32" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="23"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A33" s="20"/>
+      <c r="B33" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C33" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E33" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H33" s="27"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="23"/>
+    </row>
+    <row r="34" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E34" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="G34" s="30"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="23"/>
+    </row>
+    <row r="35" s="2" customFormat="1" ht="56" spans="1:15">
+      <c r="A35" s="20" t="s">
+        <v>814</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="23"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C36" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="23"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+      <c r="A37" s="20"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F37" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="G37" s="30"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="23"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="23"/>
+    </row>
+    <row r="38" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="23"/>
+    </row>
+    <row r="39" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A39" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="B39" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="C39" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F39" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="23"/>
+    </row>
+    <row r="40" s="2" customFormat="1" ht="39" customHeight="1" spans="2:15">
+      <c r="B40" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C40" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="G40" s="42"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="23"/>
+    </row>
+    <row r="41" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+      <c r="A41" s="20"/>
+      <c r="B41" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H41" s="27"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="23"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="23"/>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A42" s="20"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="G42" s="27"/>
+      <c r="H42" s="27"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="28"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="24"/>
+      <c r="O42" s="23"/>
+    </row>
+    <row r="43" s="2" customFormat="1" ht="56" spans="1:15">
+      <c r="A43" s="20" t="s">
+        <v>817</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C43" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>815</v>
+      </c>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="28"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="23"/>
+    </row>
+    <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C44" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E44" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="23"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="23"/>
+    </row>
+    <row r="45" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+      <c r="A45" s="20"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E45" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F45" s="32" t="s">
+        <v>813</v>
+      </c>
+      <c r="G45" s="30"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="23"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A46" s="20"/>
+      <c r="B46" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C46" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -30444,66 +31090,176 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N10:N12">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N15">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N27">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N19">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N38">
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N39">
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N15">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N18">
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21:N23">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N24:N26">
+    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N32:N34">
+    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N32,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N32,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N32,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N40:N42">
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N43:N45">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N43,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N43,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N43,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N4">
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N9 N16:N18">
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N5:N10 N28:N30">
+    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N35:N37 N46">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C6:C7 C19:C27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C10 C11 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C6:C7 C12:C13">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D6:D7 D19:D27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D6:D7 D12:D13">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -30515,12 +31271,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O159"/>
+  <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -30574,7 +31330,7 @@
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
-        <v>780</v>
+        <v>818</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -30657,7 +31413,7 @@
     </row>
     <row r="5" s="2" customFormat="1" ht="34" customHeight="1" spans="1:15">
       <c r="A5" s="20" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>784</v>
@@ -30834,7 +31590,7 @@
         <v>771</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -30858,7 +31614,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>775</v>
@@ -30873,51 +31629,51 @@
       <c r="N12" s="24"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="42" spans="1:15">
+    <row r="13" s="3" customFormat="1" ht="42" spans="1:15">
       <c r="A13" s="20" t="s">
-        <v>808</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>784</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="23"/>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
+        <v>819</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E13" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>804</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="34" customHeight="1" spans="1:15">
       <c r="A14" s="20"/>
       <c r="B14" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C14" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C14" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="27" t="s">
         <v>471</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>809</v>
+        <v>764</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -30929,26 +31685,24 @@
       <c r="N14" s="24"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="15" s="3" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A15" s="20"/>
-      <c r="B15" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="C15" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>767</v>
-      </c>
+      <c r="B15" s="21" t="s">
+        <v>785</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>786</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>787</v>
+      </c>
+      <c r="G15" s="27"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
@@ -30958,10 +31712,10 @@
       <c r="N15" s="24"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="16" s="3" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A16" s="20"/>
-      <c r="B16" s="31" t="s">
-        <v>768</v>
+      <c r="B16" s="21" t="s">
+        <v>788</v>
       </c>
       <c r="C16" s="29" t="s">
         <v>5</v>
@@ -30970,10 +31724,10 @@
         <v>471</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>769</v>
+        <v>789</v>
       </c>
       <c r="F16" s="30" t="s">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
@@ -30985,20 +31739,22 @@
       <c r="N16" s="24"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
+    <row r="17" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A17" s="20"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="29" t="s">
+      <c r="B17" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E17" s="30" t="s">
-        <v>771</v>
+      <c r="D17" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>792</v>
       </c>
       <c r="F17" s="28" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -31010,24 +31766,26 @@
       <c r="N17" s="24"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="18" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="20"/>
       <c r="B18" s="31" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="C18" s="26" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G18" s="30"/>
+        <v>356</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
@@ -31037,12 +31795,10 @@
       <c r="N18" s="24"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" s="4" customFormat="1" ht="56" spans="1:15">
-      <c r="A19" s="20" t="s">
-        <v>810</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>811</v>
+    <row r="19" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A19" s="20"/>
+      <c r="B19" s="31" t="s">
+        <v>768</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>5</v>
@@ -31051,12 +31807,12 @@
         <v>471</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="F19" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G19" s="30"/>
+        <v>769</v>
+      </c>
+      <c r="F19" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="G19" s="27"/>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
@@ -31066,22 +31822,22 @@
       <c r="N19" s="24"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="20" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="F20" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="G20" s="30"/>
+        <v>771</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
@@ -31091,20 +31847,22 @@
       <c r="N20" s="24"/>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="21" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="29" t="s">
+      <c r="B21" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="F21" s="32" t="s">
-        <v>816</v>
+      <c r="E21" s="27" t="s">
+        <v>801</v>
+      </c>
+      <c r="F21" s="27" t="s">
+        <v>775</v>
       </c>
       <c r="G21" s="30"/>
       <c r="H21" s="27"/>
@@ -31116,22 +31874,26 @@
       <c r="N21" s="24"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" customFormat="1" ht="20" customHeight="1" spans="1:15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="29" t="s">
+    <row r="22" s="2" customFormat="1" ht="56" spans="1:15">
+      <c r="A22" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="E22" s="30" t="s">
-        <v>817</v>
-      </c>
-      <c r="F22" s="32" t="s">
-        <v>818</v>
-      </c>
-      <c r="G22" s="30"/>
+      <c r="E22" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
@@ -31141,22 +31903,22 @@
       <c r="N22" s="24"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="23" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A23" s="20"/>
       <c r="B23" s="21" t="s">
-        <v>788</v>
-      </c>
-      <c r="C23" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="C23" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E23" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>819</v>
+      <c r="E23" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>793</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -31168,22 +31930,26 @@
       <c r="N23" s="24"/>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" customFormat="1" ht="116" spans="1:15">
+    <row r="24" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="20"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E24" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>820</v>
-      </c>
-      <c r="G24" s="30"/>
+      <c r="B24" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C24" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
@@ -31193,25 +31959,23 @@
       <c r="N24" s="24"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="25" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
       <c r="C25" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="33" t="s">
-        <v>356</v>
+        <v>5</v>
+      </c>
+      <c r="D25" s="30" t="s">
+        <v>447</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F25" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H25" s="30"/>
+        <v>771</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>807</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="28"/>
       <c r="K25" s="23"/>
@@ -31220,22 +31984,22 @@
       <c r="N25" s="24"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="26" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="31" t="s">
+        <v>779</v>
+      </c>
       <c r="C26" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>799</v>
-      </c>
-      <c r="G26" s="27"/>
+        <v>756</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="28"/>
@@ -31245,47 +32009,50 @@
       <c r="N26" s="24"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="28" spans="1:15">
-      <c r="A27" s="20"/>
+    <row r="27" s="3" customFormat="1" ht="42" spans="1:15">
+      <c r="A27" s="20" t="s">
+        <v>821</v>
+      </c>
       <c r="B27" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C27" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="10"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="2:15">
+      <c r="B28" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="F27" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="23"/>
-    </row>
-    <row r="28" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>821</v>
+      <c r="D28" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>764</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -31297,24 +32064,24 @@
       <c r="N28" s="24"/>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" s="4" customFormat="1" ht="28" spans="1:15">
+    <row r="29" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A29" s="20"/>
       <c r="B29" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F29" s="28" t="s">
         <v>822</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="F29" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G29" s="30"/>
+      <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="28"/>
@@ -31324,22 +32091,26 @@
       <c r="N29" s="24"/>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="30" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="F30" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="G30" s="30"/>
+      <c r="B30" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="28"/>
@@ -31349,22 +32120,24 @@
       <c r="N30" s="24"/>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="31" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A31" s="20"/>
-      <c r="B31" s="21"/>
+      <c r="B31" s="31" t="s">
+        <v>768</v>
+      </c>
       <c r="C31" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>49</v>
+      <c r="D31" s="30" t="s">
+        <v>471</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="F31" s="32" t="s">
-        <v>823</v>
-      </c>
-      <c r="G31" s="30"/>
+        <v>769</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="G31" s="27"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="28"/>
@@ -31374,22 +32147,22 @@
       <c r="N31" s="24"/>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="32" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
       <c r="C32" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="33" t="s">
-        <v>471</v>
+      <c r="D32" s="30" t="s">
+        <v>447</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="F32" s="32" t="s">
-        <v>825</v>
-      </c>
-      <c r="G32" s="30"/>
+        <v>771</v>
+      </c>
+      <c r="F32" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="G32" s="27"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
@@ -31399,24 +32172,24 @@
       <c r="N32" s="24"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="33" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A33" s="20"/>
-      <c r="B33" s="21" t="s">
-        <v>788</v>
-      </c>
-      <c r="C33" s="29" t="s">
+      <c r="B33" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E33" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F33" s="30" t="s">
-        <v>819</v>
-      </c>
-      <c r="G33" s="27"/>
+      <c r="D33" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G33" s="30"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="28"/>
@@ -31426,22 +32199,26 @@
       <c r="N33" s="24"/>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" customFormat="1" ht="116" spans="1:15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="29" t="s">
+    <row r="34" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A34" s="20" t="s">
+        <v>824</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="E34" s="30" t="s">
-        <v>792</v>
+      <c r="E34" s="8" t="s">
+        <v>763</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>826</v>
-      </c>
-      <c r="G34" s="30"/>
+        <v>764</v>
+      </c>
+      <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="28"/>
@@ -31451,25 +32228,25 @@
       <c r="N34" s="24"/>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="35" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A35" s="20"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="E35" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="G35" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H35" s="30"/>
+      <c r="B35" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="28"/>
       <c r="K35" s="23"/>
@@ -31478,22 +32255,26 @@
       <c r="N35" s="24"/>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="36" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>799</v>
-      </c>
-      <c r="G36" s="27"/>
+      <c r="B36" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
@@ -31503,24 +32284,24 @@
       <c r="N36" s="24"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="37" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A37" s="20"/>
       <c r="B37" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C37" s="26" t="s">
+        <v>768</v>
+      </c>
+      <c r="C37" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G37" s="30"/>
+      <c r="D37" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="28"/>
@@ -31530,20 +32311,20 @@
       <c r="N37" s="24"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="38" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A38" s="20"/>
       <c r="B38" s="21"/>
-      <c r="C38" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="F38" s="27" t="s">
-        <v>821</v>
+      <c r="C38" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>800</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -31555,22 +32336,22 @@
       <c r="N38" s="24"/>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" s="4" customFormat="1" ht="28" spans="1:15">
+    <row r="39" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A39" s="20"/>
-      <c r="B39" s="21" t="s">
-        <v>827</v>
-      </c>
-      <c r="C39" s="29" t="s">
+      <c r="B39" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E39" s="30" t="s">
-        <v>812</v>
-      </c>
-      <c r="F39" s="32" t="s">
-        <v>774</v>
+      <c r="D39" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E39" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="F39" s="27" t="s">
+        <v>775</v>
       </c>
       <c r="G39" s="30"/>
       <c r="H39" s="27"/>
@@ -31582,22 +32363,26 @@
       <c r="N39" s="24"/>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" customFormat="1" ht="20" customHeight="1" spans="1:15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="29" t="s">
+    <row r="40" s="2" customFormat="1" ht="56" spans="1:15">
+      <c r="A40" s="20" t="s">
+        <v>825</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>465</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>813</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>814</v>
-      </c>
-      <c r="G40" s="30"/>
+      <c r="D40" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>806</v>
+      </c>
+      <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="28"/>
@@ -31607,22 +32392,24 @@
       <c r="N40" s="24"/>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="41" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="29" t="s">
+      <c r="B41" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C41" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>815</v>
-      </c>
-      <c r="F41" s="32" t="s">
-        <v>828</v>
-      </c>
-      <c r="G41" s="30"/>
+      <c r="D41" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="28"/>
@@ -31632,22 +32419,26 @@
       <c r="N41" s="24"/>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="42" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D42" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E42" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="F42" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="G42" s="30"/>
+      <c r="B42" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G42" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="28"/>
@@ -31657,22 +32448,20 @@
       <c r="N42" s="24"/>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="43" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A43" s="20"/>
-      <c r="B43" s="21" t="s">
-        <v>788</v>
-      </c>
+      <c r="B43" s="21"/>
       <c r="C43" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F43" s="30" t="s">
-        <v>819</v>
+        <v>771</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>807</v>
       </c>
       <c r="G43" s="27"/>
       <c r="H43" s="27"/>
@@ -31684,21 +32473,19 @@
       <c r="N43" s="24"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" customFormat="1" ht="116" spans="1:15">
+    <row r="44" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A44" s="20"/>
-      <c r="B44" s="6"/>
+      <c r="B44" s="31"/>
       <c r="C44" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="33" t="s">
-        <v>471</v>
+      <c r="D44" s="30" t="s">
+        <v>397</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>831</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="F44" s="30"/>
       <c r="G44" s="30"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -31709,49 +32496,40 @@
       <c r="N44" s="24"/>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="33" t="s">
-        <v>356</v>
+    <row r="45" ht="56" spans="1:6">
+      <c r="A45" s="20" t="s">
+        <v>826</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>827</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>471</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="G45" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="23"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
+        <v>763</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" ht="15.5" spans="3:15">
       <c r="C46" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D46" s="30" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E46" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>799</v>
-      </c>
-      <c r="G46" s="27"/>
+        <v>828</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G46" s="30"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="28"/>
@@ -31761,22 +32539,20 @@
       <c r="N46" s="24"/>
       <c r="O46" s="23"/>
     </row>
-    <row r="47" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="47" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A47" s="20"/>
-      <c r="B47" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C47" s="26" t="s">
+      <c r="B47" s="21"/>
+      <c r="C47" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E47" s="27" t="s">
-        <v>800</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>775</v>
+      <c r="D47" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>830</v>
       </c>
       <c r="G47" s="30"/>
       <c r="H47" s="27"/>
@@ -31788,22 +32564,22 @@
       <c r="N47" s="24"/>
       <c r="O47" s="23"/>
     </row>
-    <row r="48" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="48" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A48" s="20"/>
       <c r="B48" s="21"/>
-      <c r="C48" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" s="27" t="s">
-        <v>812</v>
-      </c>
-      <c r="F48" s="27" t="s">
-        <v>821</v>
-      </c>
-      <c r="G48" s="27"/>
+      <c r="C48" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>832</v>
+      </c>
+      <c r="G48" s="30"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
       <c r="J48" s="28"/>
@@ -31813,14 +32589,24 @@
       <c r="N48" s="24"/>
       <c r="O48" s="23"/>
     </row>
-    <row r="49" ht="23" customHeight="1" spans="1:15">
+    <row r="49" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A49" s="20"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
+      <c r="B49" s="21" t="s">
+        <v>833</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>834</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>835</v>
+      </c>
+      <c r="G49" s="30"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="28"/>
@@ -31830,13 +32616,23 @@
       <c r="N49" s="24"/>
       <c r="O49" s="23"/>
     </row>
-    <row r="50" ht="23" customHeight="1" spans="1:15">
+    <row r="50" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
+      <c r="B50" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="C50" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
       <c r="I50" s="27"/>
@@ -31847,14 +32643,24 @@
       <c r="N50" s="24"/>
       <c r="O50" s="23"/>
     </row>
-    <row r="51" ht="23" customHeight="1" spans="1:15">
+    <row r="51" customFormat="1" ht="116" spans="1:15">
       <c r="A51" s="20"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
+      <c r="B51" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>837</v>
+      </c>
+      <c r="G51" s="30"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="28"/>
@@ -31864,15 +32670,27 @@
       <c r="N51" s="24"/>
       <c r="O51" s="23"/>
     </row>
-    <row r="52" ht="23" customHeight="1" spans="1:15">
+    <row r="52" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="20"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+      <c r="B52" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H52" s="30"/>
       <c r="I52" s="27"/>
       <c r="J52" s="28"/>
       <c r="K52" s="23"/>
@@ -31881,13 +32699,23 @@
       <c r="N52" s="24"/>
       <c r="O52" s="23"/>
     </row>
-    <row r="53" ht="23" customHeight="1" spans="1:15">
+    <row r="53" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
+      <c r="B53" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="C53" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>770</v>
+      </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
       <c r="I53" s="27"/>
@@ -31898,13 +32726,21 @@
       <c r="N53" s="24"/>
       <c r="O53" s="23"/>
     </row>
-    <row r="54" ht="23" customHeight="1" spans="1:15">
+    <row r="54" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A54" s="20"/>
       <c r="B54" s="21"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
+      <c r="C54" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>800</v>
+      </c>
       <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
@@ -31915,14 +32751,24 @@
       <c r="N54" s="24"/>
       <c r="O54" s="23"/>
     </row>
-    <row r="55" ht="23" customHeight="1" spans="1:15">
+    <row r="55" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
+      <c r="B55" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C55" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G55" s="30"/>
       <c r="H55" s="27"/>
       <c r="I55" s="27"/>
       <c r="J55" s="28"/>
@@ -31932,13 +32778,21 @@
       <c r="N55" s="24"/>
       <c r="O55" s="23"/>
     </row>
-    <row r="56" ht="23" customHeight="1" spans="1:15">
+    <row r="56" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A56" s="20"/>
       <c r="B56" s="21"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
+      <c r="C56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>838</v>
+      </c>
       <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
@@ -31949,14 +32803,24 @@
       <c r="N56" s="24"/>
       <c r="O56" s="23"/>
     </row>
-    <row r="57" ht="23" customHeight="1" spans="1:15">
+    <row r="57" s="4" customFormat="1" ht="28" spans="1:15">
       <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
+      <c r="B57" s="21" t="s">
+        <v>839</v>
+      </c>
+      <c r="C57" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="F57" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G57" s="30"/>
       <c r="H57" s="27"/>
       <c r="I57" s="27"/>
       <c r="J57" s="28"/>
@@ -31966,14 +32830,22 @@
       <c r="N57" s="24"/>
       <c r="O57" s="23"/>
     </row>
-    <row r="58" ht="23" customHeight="1" spans="1:15">
+    <row r="58" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
+      <c r="C58" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="F58" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="G58" s="30"/>
       <c r="H58" s="27"/>
       <c r="I58" s="27"/>
       <c r="J58" s="28"/>
@@ -31983,14 +32855,22 @@
       <c r="N58" s="24"/>
       <c r="O58" s="23"/>
     </row>
-    <row r="59" ht="23" customHeight="1" spans="1:15">
+    <row r="59" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
+      <c r="C59" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="F59" s="32" t="s">
+        <v>840</v>
+      </c>
+      <c r="G59" s="30"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
       <c r="J59" s="28"/>
@@ -32000,14 +32880,24 @@
       <c r="N59" s="24"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" ht="23" customHeight="1" spans="1:15">
+    <row r="60" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A60" s="20"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
+      <c r="B60" s="21" t="s">
+        <v>841</v>
+      </c>
+      <c r="C60" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E60" s="30" t="s">
+        <v>842</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>843</v>
+      </c>
+      <c r="G60" s="30"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
       <c r="J60" s="28"/>
@@ -32017,13 +32907,23 @@
       <c r="N60" s="24"/>
       <c r="O60" s="23"/>
     </row>
-    <row r="61" ht="23" customHeight="1" spans="1:15">
+    <row r="61" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A61" s="20"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
+      <c r="B61" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="C61" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E61" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
@@ -32034,14 +32934,24 @@
       <c r="N61" s="24"/>
       <c r="O61" s="23"/>
     </row>
-    <row r="62" ht="23" customHeight="1" spans="1:15">
+    <row r="62" customFormat="1" ht="116" spans="1:15">
       <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
+      <c r="B62" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>844</v>
+      </c>
+      <c r="G62" s="30"/>
       <c r="H62" s="27"/>
       <c r="I62" s="27"/>
       <c r="J62" s="28"/>
@@ -32051,15 +32961,27 @@
       <c r="N62" s="24"/>
       <c r="O62" s="23"/>
     </row>
-    <row r="63" ht="23" customHeight="1" spans="1:15">
+    <row r="63" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="20"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
+      <c r="B63" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F63" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H63" s="30"/>
       <c r="I63" s="27"/>
       <c r="J63" s="28"/>
       <c r="K63" s="23"/>
@@ -32068,13 +32990,23 @@
       <c r="N63" s="24"/>
       <c r="O63" s="23"/>
     </row>
-    <row r="64" ht="23" customHeight="1" spans="1:15">
+    <row r="64" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
+      <c r="B64" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>770</v>
+      </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
@@ -32085,13 +33017,21 @@
       <c r="N64" s="24"/>
       <c r="O64" s="23"/>
     </row>
-    <row r="65" ht="23" customHeight="1" spans="1:15">
+    <row r="65" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
+      <c r="C65" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>800</v>
+      </c>
       <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
@@ -32102,14 +33042,24 @@
       <c r="N65" s="24"/>
       <c r="O65" s="23"/>
     </row>
-    <row r="66" ht="23" customHeight="1" spans="1:15">
+    <row r="66" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
+      <c r="B66" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G66" s="30"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
       <c r="J66" s="28"/>
@@ -32119,13 +33069,21 @@
       <c r="N66" s="24"/>
       <c r="O66" s="23"/>
     </row>
-    <row r="67" ht="23" customHeight="1" spans="1:15">
+    <row r="67" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
+      <c r="C67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>838</v>
+      </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
@@ -32136,14 +33094,24 @@
       <c r="N67" s="24"/>
       <c r="O67" s="23"/>
     </row>
-    <row r="68" ht="23" customHeight="1" spans="1:15">
+    <row r="68" s="4" customFormat="1" ht="28" spans="1:15">
       <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
+      <c r="B68" s="21" t="s">
+        <v>845</v>
+      </c>
+      <c r="C68" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E68" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G68" s="30"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
       <c r="J68" s="28"/>
@@ -32153,14 +33121,22 @@
       <c r="N68" s="24"/>
       <c r="O68" s="23"/>
     </row>
-    <row r="69" ht="23" customHeight="1" spans="1:15">
+    <row r="69" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
+      <c r="C69" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="E69" s="30" t="s">
+        <v>829</v>
+      </c>
+      <c r="F69" s="32" t="s">
+        <v>830</v>
+      </c>
+      <c r="G69" s="30"/>
       <c r="H69" s="27"/>
       <c r="I69" s="27"/>
       <c r="J69" s="28"/>
@@ -32170,14 +33146,22 @@
       <c r="N69" s="24"/>
       <c r="O69" s="23"/>
     </row>
-    <row r="70" ht="23" customHeight="1" spans="1:15">
+    <row r="70" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
+      <c r="C70" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="F70" s="32" t="s">
+        <v>846</v>
+      </c>
+      <c r="G70" s="30"/>
       <c r="H70" s="27"/>
       <c r="I70" s="27"/>
       <c r="J70" s="28"/>
@@ -32187,14 +33171,24 @@
       <c r="N70" s="24"/>
       <c r="O70" s="23"/>
     </row>
-    <row r="71" ht="23" customHeight="1" spans="1:15">
+    <row r="71" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A71" s="20"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
+      <c r="B71" s="21" t="s">
+        <v>847</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>848</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>849</v>
+      </c>
+      <c r="G71" s="30"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
       <c r="J71" s="28"/>
@@ -32204,13 +33198,23 @@
       <c r="N71" s="24"/>
       <c r="O71" s="23"/>
     </row>
-    <row r="72" ht="23" customHeight="1" spans="1:15">
+    <row r="72" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A72" s="20"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
+      <c r="B72" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>836</v>
+      </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
@@ -32221,14 +33225,24 @@
       <c r="N72" s="24"/>
       <c r="O72" s="23"/>
     </row>
-    <row r="73" ht="23" customHeight="1" spans="1:15">
+    <row r="73" customFormat="1" ht="116" spans="1:15">
       <c r="A73" s="20"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
+      <c r="B73" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C73" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="G73" s="30"/>
       <c r="H73" s="27"/>
       <c r="I73" s="27"/>
       <c r="J73" s="28"/>
@@ -32238,15 +33252,27 @@
       <c r="N73" s="24"/>
       <c r="O73" s="23"/>
     </row>
-    <row r="74" ht="23" customHeight="1" spans="1:15">
+    <row r="74" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
+      <c r="B74" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C74" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H74" s="30"/>
       <c r="I74" s="27"/>
       <c r="J74" s="28"/>
       <c r="K74" s="23"/>
@@ -32255,13 +33281,23 @@
       <c r="N74" s="24"/>
       <c r="O74" s="23"/>
     </row>
-    <row r="75" ht="23" customHeight="1" spans="1:15">
+    <row r="75" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
+      <c r="B75" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>770</v>
+      </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
@@ -32272,13 +33308,21 @@
       <c r="N75" s="24"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76" ht="23" customHeight="1" spans="1:15">
+    <row r="76" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A76" s="20"/>
       <c r="B76" s="21"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
+      <c r="C76" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>800</v>
+      </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
@@ -32289,14 +33333,24 @@
       <c r="N76" s="24"/>
       <c r="O76" s="23"/>
     </row>
-    <row r="77" ht="23" customHeight="1" spans="1:15">
+    <row r="77" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
+      <c r="B77" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>823</v>
+      </c>
+      <c r="F77" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G77" s="30"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
       <c r="J77" s="28"/>
@@ -32306,13 +33360,21 @@
       <c r="N77" s="24"/>
       <c r="O77" s="23"/>
     </row>
-    <row r="78" ht="23" customHeight="1" spans="1:15">
+    <row r="78" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
+      <c r="C78" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>838</v>
+      </c>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
@@ -32323,14 +33385,22 @@
       <c r="N78" s="24"/>
       <c r="O78" s="23"/>
     </row>
-    <row r="79" ht="23" customHeight="1" spans="1:15">
+    <row r="79" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
+      <c r="B79" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C79" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
       <c r="J79" s="28"/>
@@ -33700,6 +34770,363 @@
       <c r="N159" s="24"/>
       <c r="O159" s="23"/>
     </row>
+    <row r="160" ht="23" customHeight="1" spans="1:15">
+      <c r="A160" s="20"/>
+      <c r="B160" s="21"/>
+      <c r="C160" s="26"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
+      <c r="G160" s="27"/>
+      <c r="H160" s="27"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="28"/>
+      <c r="K160" s="23"/>
+      <c r="L160" s="24"/>
+      <c r="M160" s="22"/>
+      <c r="N160" s="24"/>
+      <c r="O160" s="23"/>
+    </row>
+    <row r="161" ht="23" customHeight="1" spans="1:15">
+      <c r="A161" s="20"/>
+      <c r="B161" s="21"/>
+      <c r="C161" s="26"/>
+      <c r="D161" s="27"/>
+      <c r="E161" s="27"/>
+      <c r="F161" s="27"/>
+      <c r="G161" s="27"/>
+      <c r="H161" s="27"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="28"/>
+      <c r="K161" s="23"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="22"/>
+      <c r="N161" s="24"/>
+      <c r="O161" s="23"/>
+    </row>
+    <row r="162" ht="23" customHeight="1" spans="1:15">
+      <c r="A162" s="20"/>
+      <c r="B162" s="21"/>
+      <c r="C162" s="26"/>
+      <c r="D162" s="27"/>
+      <c r="E162" s="27"/>
+      <c r="F162" s="27"/>
+      <c r="G162" s="27"/>
+      <c r="H162" s="27"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="28"/>
+      <c r="K162" s="23"/>
+      <c r="L162" s="24"/>
+      <c r="M162" s="22"/>
+      <c r="N162" s="24"/>
+      <c r="O162" s="23"/>
+    </row>
+    <row r="163" ht="23" customHeight="1" spans="1:15">
+      <c r="A163" s="20"/>
+      <c r="B163" s="21"/>
+      <c r="C163" s="26"/>
+      <c r="D163" s="27"/>
+      <c r="E163" s="27"/>
+      <c r="F163" s="27"/>
+      <c r="G163" s="27"/>
+      <c r="H163" s="27"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="28"/>
+      <c r="K163" s="23"/>
+      <c r="L163" s="24"/>
+      <c r="M163" s="22"/>
+      <c r="N163" s="24"/>
+      <c r="O163" s="23"/>
+    </row>
+    <row r="164" ht="23" customHeight="1" spans="1:15">
+      <c r="A164" s="20"/>
+      <c r="B164" s="21"/>
+      <c r="C164" s="26"/>
+      <c r="D164" s="27"/>
+      <c r="E164" s="27"/>
+      <c r="F164" s="27"/>
+      <c r="G164" s="27"/>
+      <c r="H164" s="27"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="28"/>
+      <c r="K164" s="23"/>
+      <c r="L164" s="24"/>
+      <c r="M164" s="22"/>
+      <c r="N164" s="24"/>
+      <c r="O164" s="23"/>
+    </row>
+    <row r="165" ht="23" customHeight="1" spans="1:15">
+      <c r="A165" s="20"/>
+      <c r="B165" s="21"/>
+      <c r="C165" s="26"/>
+      <c r="D165" s="27"/>
+      <c r="E165" s="27"/>
+      <c r="F165" s="27"/>
+      <c r="G165" s="27"/>
+      <c r="H165" s="27"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="28"/>
+      <c r="K165" s="23"/>
+      <c r="L165" s="24"/>
+      <c r="M165" s="22"/>
+      <c r="N165" s="24"/>
+      <c r="O165" s="23"/>
+    </row>
+    <row r="166" ht="23" customHeight="1" spans="1:15">
+      <c r="A166" s="20"/>
+      <c r="B166" s="21"/>
+      <c r="C166" s="26"/>
+      <c r="D166" s="27"/>
+      <c r="E166" s="27"/>
+      <c r="F166" s="27"/>
+      <c r="G166" s="27"/>
+      <c r="H166" s="27"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="28"/>
+      <c r="K166" s="23"/>
+      <c r="L166" s="24"/>
+      <c r="M166" s="22"/>
+      <c r="N166" s="24"/>
+      <c r="O166" s="23"/>
+    </row>
+    <row r="167" ht="23" customHeight="1" spans="1:15">
+      <c r="A167" s="20"/>
+      <c r="B167" s="21"/>
+      <c r="C167" s="26"/>
+      <c r="D167" s="27"/>
+      <c r="E167" s="27"/>
+      <c r="F167" s="27"/>
+      <c r="G167" s="27"/>
+      <c r="H167" s="27"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="28"/>
+      <c r="K167" s="23"/>
+      <c r="L167" s="24"/>
+      <c r="M167" s="22"/>
+      <c r="N167" s="24"/>
+      <c r="O167" s="23"/>
+    </row>
+    <row r="168" ht="23" customHeight="1" spans="1:15">
+      <c r="A168" s="20"/>
+      <c r="B168" s="21"/>
+      <c r="C168" s="26"/>
+      <c r="D168" s="27"/>
+      <c r="E168" s="27"/>
+      <c r="F168" s="27"/>
+      <c r="G168" s="27"/>
+      <c r="H168" s="27"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="28"/>
+      <c r="K168" s="23"/>
+      <c r="L168" s="24"/>
+      <c r="M168" s="22"/>
+      <c r="N168" s="24"/>
+      <c r="O168" s="23"/>
+    </row>
+    <row r="169" ht="23" customHeight="1" spans="1:15">
+      <c r="A169" s="20"/>
+      <c r="B169" s="21"/>
+      <c r="C169" s="26"/>
+      <c r="D169" s="27"/>
+      <c r="E169" s="27"/>
+      <c r="F169" s="27"/>
+      <c r="G169" s="27"/>
+      <c r="H169" s="27"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="28"/>
+      <c r="K169" s="23"/>
+      <c r="L169" s="24"/>
+      <c r="M169" s="22"/>
+      <c r="N169" s="24"/>
+      <c r="O169" s="23"/>
+    </row>
+    <row r="170" ht="23" customHeight="1" spans="1:15">
+      <c r="A170" s="20"/>
+      <c r="B170" s="21"/>
+      <c r="C170" s="26"/>
+      <c r="D170" s="27"/>
+      <c r="E170" s="27"/>
+      <c r="F170" s="27"/>
+      <c r="G170" s="27"/>
+      <c r="H170" s="27"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="28"/>
+      <c r="K170" s="23"/>
+      <c r="L170" s="24"/>
+      <c r="M170" s="22"/>
+      <c r="N170" s="24"/>
+      <c r="O170" s="23"/>
+    </row>
+    <row r="171" ht="23" customHeight="1" spans="1:15">
+      <c r="A171" s="20"/>
+      <c r="B171" s="21"/>
+      <c r="C171" s="26"/>
+      <c r="D171" s="27"/>
+      <c r="E171" s="27"/>
+      <c r="F171" s="27"/>
+      <c r="G171" s="27"/>
+      <c r="H171" s="27"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="28"/>
+      <c r="K171" s="23"/>
+      <c r="L171" s="24"/>
+      <c r="M171" s="22"/>
+      <c r="N171" s="24"/>
+      <c r="O171" s="23"/>
+    </row>
+    <row r="172" ht="23" customHeight="1" spans="1:15">
+      <c r="A172" s="20"/>
+      <c r="B172" s="21"/>
+      <c r="C172" s="26"/>
+      <c r="D172" s="27"/>
+      <c r="E172" s="27"/>
+      <c r="F172" s="27"/>
+      <c r="G172" s="27"/>
+      <c r="H172" s="27"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="28"/>
+      <c r="K172" s="23"/>
+      <c r="L172" s="24"/>
+      <c r="M172" s="22"/>
+      <c r="N172" s="24"/>
+      <c r="O172" s="23"/>
+    </row>
+    <row r="173" ht="23" customHeight="1" spans="1:15">
+      <c r="A173" s="20"/>
+      <c r="B173" s="21"/>
+      <c r="C173" s="26"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="28"/>
+      <c r="K173" s="23"/>
+      <c r="L173" s="24"/>
+      <c r="M173" s="22"/>
+      <c r="N173" s="24"/>
+      <c r="O173" s="23"/>
+    </row>
+    <row r="174" ht="23" customHeight="1" spans="1:15">
+      <c r="A174" s="20"/>
+      <c r="B174" s="21"/>
+      <c r="C174" s="26"/>
+      <c r="D174" s="27"/>
+      <c r="E174" s="27"/>
+      <c r="F174" s="27"/>
+      <c r="G174" s="27"/>
+      <c r="H174" s="27"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="28"/>
+      <c r="K174" s="23"/>
+      <c r="L174" s="24"/>
+      <c r="M174" s="22"/>
+      <c r="N174" s="24"/>
+      <c r="O174" s="23"/>
+    </row>
+    <row r="175" ht="23" customHeight="1" spans="1:15">
+      <c r="A175" s="20"/>
+      <c r="B175" s="21"/>
+      <c r="C175" s="26"/>
+      <c r="D175" s="27"/>
+      <c r="E175" s="27"/>
+      <c r="F175" s="27"/>
+      <c r="G175" s="27"/>
+      <c r="H175" s="27"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="28"/>
+      <c r="K175" s="23"/>
+      <c r="L175" s="24"/>
+      <c r="M175" s="22"/>
+      <c r="N175" s="24"/>
+      <c r="O175" s="23"/>
+    </row>
+    <row r="176" ht="23" customHeight="1" spans="1:15">
+      <c r="A176" s="20"/>
+      <c r="B176" s="21"/>
+      <c r="C176" s="26"/>
+      <c r="D176" s="27"/>
+      <c r="E176" s="27"/>
+      <c r="F176" s="27"/>
+      <c r="G176" s="27"/>
+      <c r="H176" s="27"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="28"/>
+      <c r="K176" s="23"/>
+      <c r="L176" s="24"/>
+      <c r="M176" s="22"/>
+      <c r="N176" s="24"/>
+      <c r="O176" s="23"/>
+    </row>
+    <row r="177" ht="23" customHeight="1" spans="1:15">
+      <c r="A177" s="20"/>
+      <c r="B177" s="21"/>
+      <c r="C177" s="26"/>
+      <c r="D177" s="27"/>
+      <c r="E177" s="27"/>
+      <c r="F177" s="27"/>
+      <c r="G177" s="27"/>
+      <c r="H177" s="27"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="28"/>
+      <c r="K177" s="23"/>
+      <c r="L177" s="24"/>
+      <c r="M177" s="22"/>
+      <c r="N177" s="24"/>
+      <c r="O177" s="23"/>
+    </row>
+    <row r="178" ht="23" customHeight="1" spans="1:15">
+      <c r="A178" s="20"/>
+      <c r="B178" s="21"/>
+      <c r="C178" s="26"/>
+      <c r="D178" s="27"/>
+      <c r="E178" s="27"/>
+      <c r="F178" s="27"/>
+      <c r="G178" s="27"/>
+      <c r="H178" s="27"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="28"/>
+      <c r="K178" s="23"/>
+      <c r="L178" s="24"/>
+      <c r="M178" s="22"/>
+      <c r="N178" s="24"/>
+      <c r="O178" s="23"/>
+    </row>
+    <row r="179" ht="23" customHeight="1" spans="1:15">
+      <c r="A179" s="20"/>
+      <c r="B179" s="21"/>
+      <c r="C179" s="26"/>
+      <c r="D179" s="27"/>
+      <c r="E179" s="27"/>
+      <c r="F179" s="27"/>
+      <c r="G179" s="27"/>
+      <c r="H179" s="27"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="28"/>
+      <c r="K179" s="23"/>
+      <c r="L179" s="24"/>
+      <c r="M179" s="22"/>
+      <c r="N179" s="24"/>
+      <c r="O179" s="23"/>
+    </row>
+    <row r="180" ht="23" customHeight="1" spans="1:15">
+      <c r="A180" s="20"/>
+      <c r="B180" s="21"/>
+      <c r="C180" s="26"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
+      <c r="G180" s="27"/>
+      <c r="H180" s="27"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="28"/>
+      <c r="K180" s="23"/>
+      <c r="L180" s="24"/>
+      <c r="M180" s="22"/>
+      <c r="N180" s="24"/>
+      <c r="O180" s="23"/>
+    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -33709,216 +35136,368 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
+  <conditionalFormatting sqref="N22">
+    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N26,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N26,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N26,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N40">
     <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53">
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N54">
+    <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N55">
+    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N55,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N55,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N55,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N61">
+    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N64">
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N65">
+    <cfRule type="beginsWith" dxfId="0" priority="64" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="66" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N66">
+    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N75">
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N76">
+    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N76,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N76,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N76,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N77">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N77,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N77,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N77,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N12">
+    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:N21">
+    <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23:N25">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N26,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N29:N33">
+    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N26,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N26,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27">
+  <conditionalFormatting sqref="N35:N39">
+    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41:N43">
     <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N41,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N41,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N41,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N81:N180">
+    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N36">
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N36,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N36,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N36,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N37">
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N37,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N37,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N37,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N43">
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N43,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N43,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N43,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N46">
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N47">
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N47,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N47,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N47,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N12">
-    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14:N18">
-    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N60:N159">
-    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N4 N49:N59">
-    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N1 N3:N4 N80">
+    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19:N22 N24:N25 N28">
-    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N44 N79">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29:N32 N34:N35 N38">
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N46:N49 N51:N52 N56">
+    <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N39:N42 N44:N45 N48">
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N57:N60 N62:N63 N67">
+    <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N68:N71 N73:N74 N78">
+    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C10 C11 C12 C13 C15 C16 C17 C18 C22 C23 C24 C25 C26 C27 C28 C32 C33 C34 C35 C36 C37 C38 C42 C43 C44 C45 C46 C47 C48 C19:C21 C29:C31 C39:C41 C49:C159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C10 C11 C12 C13 C14 C15 C16 C18 C19 C20 C21 C22 C24 C25 C26 C27 C28 C30 C31 C32 C33 C34 C36 C37 C38 C39 C40 C42 C43 C44 C46 C49 C50 C51 C52 C53 C54 C55 C56 C60 C61 C62 C63 C64 C65 C66 C67 C71 C72 C73 C74 C75 C76 C77 C78 C79 C47:C48 C57:C59 C68:C70 C80:C180">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D9 D10 D11 D12 D13 D15 D16 D17 D18 D22 D23 D24 D25 D26 D27 D28 D32 D33 D34 D35 D36 D37 D38 D42 D43 D44 D45 D46 D47 D48 D19:D21 D29:D31 D39:D41 D49:D159">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D9 D10 D11 D12 D13 D14 D15 D16 D18 D19 D20 D21 D22 D24 D25 D26 D27 D28 D30 D31 D32 D33 D34 D36 D37 D38 D39 D40 D42 D43 D44 D46 D49 D50 D51 D52 D53 D54 D55 D56 D60 D61 D62 D63 D64 D65 D66 D67 D71 D72 D73 D74 D75 D76 D77 D78 D79 D47:D48 D57:D59 D68:D70 D80:D180">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
     <hyperlink ref="E9" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F13" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E15" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F28" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E30" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F14" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E18" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F40" r:id="rId1" display="${api.baseUrl}account" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E42" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F22" r:id="rId1" display="${api.baseUrl}account" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E24" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F45" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F34" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E36" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/tests/artifact/script/Account.xlsx
+++ b/tests/artifact/script/Account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2945,7 +2945,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2961,6 +2961,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.0499893185216834"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3309,7 +3315,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3333,16 +3339,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3351,89 +3357,89 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3577,8 +3583,41 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6816,7 +6855,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="5" s="44" customFormat="1" ht="32" customHeight="1" spans="1:16384">
+    <row r="5" s="53" customFormat="1" ht="32" customHeight="1" spans="1:16384">
       <c r="A5" s="20" t="s">
         <v>747</v>
       </c>
@@ -23309,73 +23348,73 @@
       <c r="N9" s="24"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" s="45" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="57"/>
-    </row>
-    <row r="11" s="45" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="57"/>
-    </row>
-    <row r="12" s="45" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="57"/>
-    </row>
-    <row r="13" s="45" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="57"/>
+    <row r="10" s="54" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="66"/>
+    </row>
+    <row r="11" s="54" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A11" s="55"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="66"/>
+    </row>
+    <row r="12" s="54" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A12" s="55"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="66"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="68"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="66"/>
+    </row>
+    <row r="13" s="54" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A13" s="55"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="66"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="20"/>
@@ -23498,7 +23537,7 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="20"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -26495,8 +26534,8 @@
   <sheetPr/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="$A11:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -26677,7 +26716,7 @@
       <c r="F6" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -26906,7 +26945,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="42"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
@@ -27690,7 +27729,7 @@
       <c r="E14" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="30"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -29834,8 +29873,8 @@
   <sheetPr/>
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -29989,7 +30028,7 @@
       <c r="F5" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -30150,7 +30189,7 @@
       <c r="F11" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="G11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -30285,7 +30324,7 @@
       <c r="F16" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="G16" s="42"/>
+      <c r="G16" s="43"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="28"/>
@@ -30372,34 +30411,34 @@
       <c r="N19" s="24"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="42" spans="1:15">
-      <c r="A20" s="20" t="s">
+    <row r="20" s="42" customFormat="1" ht="42" spans="1:15">
+      <c r="A20" s="44" t="s">
         <v>808</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="45" t="s">
         <v>803</v>
       </c>
-      <c r="C20" s="29" t="s">
+      <c r="C20" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="47" t="s">
         <v>263</v>
       </c>
-      <c r="E20" s="30" t="s">
+      <c r="E20" s="47" t="s">
         <v>756</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="47" t="s">
         <v>761</v>
       </c>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="51"/>
+      <c r="N20" s="50"/>
+      <c r="O20" s="49"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="39" customHeight="1" spans="2:15">
       <c r="B21" s="21" t="s">
@@ -30417,7 +30456,7 @@
       <c r="F21" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="G21" s="42"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
@@ -30498,7 +30537,7 @@
       <c r="F24" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="G24" s="42"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
@@ -30915,7 +30954,7 @@
       <c r="F40" s="28" t="s">
         <v>777</v>
       </c>
-      <c r="G40" s="42"/>
+      <c r="G40" s="43"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="28"/>
@@ -31273,10 +31312,10 @@
   <sheetPr/>
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
+      <selection pane="bottomLeft" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>

--- a/tests/artifact/script/Account.xlsx
+++ b/tests/artifact/script/Account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1588" uniqueCount="851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="886">
   <si>
     <t>target</t>
   </si>
@@ -2510,7 +2510,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Negative - accounts (Invalid token)</t>
+    <t>Negative - accounts (Valid token with extra value)</t>
   </si>
   <si>
     <t>Set the Wrong Authorisation headers</t>
@@ -2519,7 +2519,19 @@
     <t>${gktoken}${invflag}</t>
   </si>
   <si>
-    <t>Negative - accounts (Invalid token and Invalid endpoint)</t>
+    <t>Negative - accounts (Wrong token and valid endpoint)</t>
+  </si>
+  <si>
+    <t>Set the gkusertoken Authorisation headers</t>
+  </si>
+  <si>
+    <t>${gkusertoken}</t>
+  </si>
+  <si>
+    <t>Negative - accounts (Valid Token and Invalid endpoint)</t>
+  </si>
+  <si>
+    <t>Set the  Authorisation headers</t>
   </si>
   <si>
     <t>${api.baseUrl}account</t>
@@ -2535,9 +2547,6 @@
 schema=null</t>
   </si>
   <si>
-    <t>Negative - accounts (Valid Token and Invalid endpoint)</t>
-  </si>
-  <si>
     <t>Negative - accounts (Invalid (POST) Req)</t>
   </si>
   <si>
@@ -2554,7 +2563,7 @@
 schema=null</t>
   </si>
   <si>
-    <t>Negative - accounts/Spreadsheet(Invalid token)</t>
+    <t>Negative - accounts/Spreadsheet(Valid token with extra value)</t>
   </si>
   <si>
     <t xml:space="preserve">actualReturnCode=${response}.returnCode
@@ -2567,25 +2576,125 @@
 </t>
   </si>
   <si>
-    <t>Negative - accounts/Spreadsheet(Invalid token and Invalid endpoint)</t>
-  </si>
-  <si>
-    <t>${api.baseUrl}account/spreadsheet?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
+    <t>Negative - accounts/Spreadsheet(Wrong token with valid endpoint and parameters)</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Valid token with Invalid endpoint and valid parameters)</t>
+  </si>
+  <si>
+    <t>${api.baseUrl}account/spreadsheets?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and Invalid parameters )</t>
+  </si>
+  <si>
+    <t>${api.baseUrl}account/spreadsheet?fystart=${openingbal}&amp;fyend=${openingbal}&amp;orgname=${groupcode}&amp;orgtype=${groupcode}</t>
   </si>
   <si>
     <t>Negative - accounts/Spreadsheet (Invalid (POST) Req)</t>
   </si>
   <si>
-    <t>Negative - accounts/Spreadsheet(Vali token and Invalid endpoint )</t>
+    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid fystart)</t>
+  </si>
+  <si>
+    <t>Negative (fystart) -  Get https://api-dev.gnukhata.org/accounts/Spreadsheet</t>
+  </si>
+  <si>
+    <t>counter</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>${counter}</t>
+  </si>
+  <si>
+    <t>$(array|length|${Negative.fystart})</t>
+  </si>
+  <si>
+    <t>And we can able to save the fystart value</t>
+  </si>
+  <si>
+    <t>fy.start</t>
+  </si>
+  <si>
+    <t>$(array|item|${Negative.fystart}|${counter})</t>
+  </si>
+  <si>
+    <t>${api.baseUrl}account/spreadsheet?fystart=${fy.start}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
+  </si>
+  <si>
+    <t>actualReturnCode=${response}.returnCode
+actualResponseTime=${response}.elapsedTime
+actualContentType=${response}.headers.[Content-Type]
+responseBody=${response}.body
+expectedReturnCode=200
+expectedResponseTime=3000
+expectedContentType=application/json
+schema=null</t>
+  </si>
+  <si>
+    <t>increment the counter value 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid fyend)</t>
+  </si>
+  <si>
+    <t>Negative (fyend) -  Get https://api-dev.gnukhata.org/accounts/Spreadsheet</t>
+  </si>
+  <si>
+    <t>And we can able to save the fyend value</t>
+  </si>
+  <si>
+    <t>${api.baseUrl}account/spreadsheet?fystart=${fystart}&amp;fyend=${fy.start}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid orgname)</t>
+  </si>
+  <si>
+    <t>Negative (orgname) -  Get https://api-dev.gnukhata.org/accounts/Spreadsheet</t>
+  </si>
+  <si>
+    <t>$(array|length|${Negative.org})</t>
+  </si>
+  <si>
+    <t>And we can able to save the orgname value</t>
+  </si>
+  <si>
+    <t>org.name</t>
+  </si>
+  <si>
+    <t>$(array|item|${Negative.org}|${counter})</t>
+  </si>
+  <si>
+    <t>${api.baseUrl}account/spreadsheet?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${org.name}&amp;orgtype=${orgtype}</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid orgtype)</t>
+  </si>
+  <si>
+    <t>Negative (orgtype) -  Get https://api-dev.gnukhata.org/accounts/Spreadsheet</t>
+  </si>
+  <si>
+    <t>And we can able to save the orgtype value</t>
+  </si>
+  <si>
+    <t>${api.baseUrl}account/spreadsheet?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${org.name}</t>
   </si>
   <si>
     <t>Negtive API's of POST Request  in Account Module</t>
   </si>
   <si>
-    <t>Negative - accounts(Invalid token)</t>
-  </si>
-  <si>
-    <t>Negative - accounts(Invalid token and Invalid endpoint)</t>
+    <t>Negative - accounts(Valid token with extra value)</t>
+  </si>
+  <si>
+    <t>Negative - accounts(Wrong token with valid endpoint and parameters)</t>
   </si>
   <si>
     <t>Negative - accounts (Verifying Mandatory fields )</t>
@@ -2604,28 +2713,35 @@
     <t>3</t>
   </si>
   <si>
-    <t>Negative - accounts (Invalid GET Request )</t>
-  </si>
-  <si>
-    <t>Negative - accounts(Valid token and Invalid endpoint)</t>
-  </si>
-  <si>
-    <t>Negative- Accountname, groupcode,openingbal)</t>
+    <t>Negative - accounts (Invalid PUT Request )</t>
+  </si>
+  <si>
+    <t>I will get the response using PUT Method</t>
+  </si>
+  <si>
+    <t>Negative - accounts(Valid token with Invalid endpoint and valid parameters)</t>
+  </si>
+  <si>
+    <t>Negative - accounts (Valid token with Valid endpoint and invalid parameters )</t>
+  </si>
+  <si>
+    <t>{
+    "origin":"${randomOrigin}",
+    "gkdata":{
+        "accountname": ${invalid.details},
+        "groupcode": "${orgtype}",
+        "openingbal": ${invalid.details}
+    }
+}</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid Accountname)</t>
   </si>
   <si>
     <t>Negative (Accountname) - POST https://api-dev.gnukhata.org/accounts</t>
   </si>
   <si>
-    <t>counter</t>
-  </si>
-  <si>
     <t>9</t>
-  </si>
-  <si>
-    <t>-1</t>
-  </si>
-  <si>
-    <t>${counter}</t>
   </si>
   <si>
     <t>$(array|length|${negative.accountname})</t>
@@ -2653,7 +2769,7 @@
 }</t>
   </si>
   <si>
-    <t>1</t>
+    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid groupcode)</t>
   </si>
   <si>
     <t>Negative (groupcode) - POST https://api-dev.gnukhata.org/accounts</t>
@@ -2679,6 +2795,9 @@
         "openingbal": "${openingbal}"
     }
 }</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid openingbal)</t>
   </si>
   <si>
     <t>Negative (openingbal) - POST https://api-dev.gnukhata.org/accounts</t>
@@ -2769,6 +2888,14 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -2776,19 +2903,11 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
@@ -3547,10 +3666,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3577,8 +3692,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3587,58 +3723,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -6681,8 +6800,8 @@
   <sheetPr/>
   <dimension ref="A1:XFD193"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6726,14 +6845,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="36"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -6747,12 +6866,12 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="35"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -6764,7 +6883,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -6799,10 +6918,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -6816,7 +6935,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="5" s="44" customFormat="1" ht="32" customHeight="1" spans="1:16384">
+    <row r="5" s="49" customFormat="1" ht="32" customHeight="1" spans="1:16384">
       <c r="A5" s="20" t="s">
         <v>747</v>
       </c>
@@ -23309,73 +23428,73 @@
       <c r="N9" s="24"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" s="45" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="57"/>
-    </row>
-    <row r="11" s="45" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A11" s="46"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="56"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="57"/>
-    </row>
-    <row r="12" s="45" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A12" s="46"/>
-      <c r="B12" s="47"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="58"/>
-      <c r="O12" s="57"/>
-    </row>
-    <row r="13" s="45" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A13" s="46"/>
-      <c r="B13" s="47"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="56"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="57"/>
+    <row r="10" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="45"/>
+    </row>
+    <row r="11" s="42" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="46"/>
+      <c r="O11" s="45"/>
+    </row>
+    <row r="12" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="46"/>
+      <c r="O12" s="45"/>
+    </row>
+    <row r="13" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="58"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="45"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="20"/>
@@ -23498,7 +23617,7 @@
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="20"/>
-      <c r="B21" s="55"/>
+      <c r="B21" s="59"/>
       <c r="C21" s="26"/>
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
@@ -26495,7 +26614,7 @@
   <sheetPr/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
@@ -26539,14 +26658,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="36"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="38" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -26562,12 +26681,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -26579,7 +26698,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -26614,10 +26733,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -26677,7 +26796,7 @@
       <c r="F6" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="G6" s="42"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="27"/>
       <c r="I6" s="27"/>
       <c r="J6" s="28"/>
@@ -26906,7 +27025,7 @@
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="28"/>
-      <c r="G15" s="42"/>
+      <c r="G15" s="43"/>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
       <c r="J15" s="28"/>
@@ -27337,14 +27456,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="36"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -27360,12 +27479,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -27377,7 +27496,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -27412,10 +27531,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -27690,7 +27809,7 @@
       <c r="E14" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="F14" s="43"/>
+      <c r="F14" s="48"/>
       <c r="G14" s="30"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
@@ -29832,10 +29951,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -29845,7 +29964,7 @@
     <col min="3" max="3" width="10.8333333333333" style="7" customWidth="1"/>
     <col min="4" max="4" width="30.8333333333333" style="8" customWidth="1"/>
     <col min="5" max="5" width="46.175" style="8" customWidth="1"/>
-    <col min="6" max="6" width="53.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="105.583333333333" style="8" customWidth="1"/>
     <col min="7" max="9" width="20" style="8" customWidth="1"/>
     <col min="10" max="10" width="20" style="9" customWidth="1"/>
     <col min="11" max="11" width="1.66666666666667" style="10" customWidth="1"/>
@@ -29878,14 +29997,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="36"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="38" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -29901,12 +30020,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -29918,7 +30037,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -29953,10 +30072,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -29989,7 +30108,7 @@
       <c r="F5" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="G5" s="42"/>
+      <c r="G5" s="43"/>
       <c r="H5" s="27"/>
       <c r="I5" s="27"/>
       <c r="J5" s="28"/>
@@ -30105,7 +30224,7 @@
       <c r="N9" s="24"/>
       <c r="O9" s="23"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="28" spans="1:15">
+    <row r="10" s="2" customFormat="1" ht="42" spans="1:15">
       <c r="A10" s="20" t="s">
         <v>802</v>
       </c>
@@ -30150,7 +30269,7 @@
       <c r="F11" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="G11" s="42"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -30266,26 +30385,22 @@
       <c r="N15" s="24"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="42" spans="1:15">
-      <c r="A16" s="20" t="s">
-        <v>805</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C16" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F16" s="28" t="s">
-        <v>806</v>
-      </c>
-      <c r="G16" s="42"/>
+    <row r="16" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A16" s="20"/>
+      <c r="B16" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="28"/>
@@ -30295,24 +30410,26 @@
       <c r="N16" s="24"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A17" s="20"/>
+    <row r="17" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A17" s="20" t="s">
+        <v>805</v>
+      </c>
       <c r="B17" s="31" t="s">
-        <v>765</v>
+        <v>806</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D17" s="30" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30" t="s">
-        <v>767</v>
-      </c>
+        <v>752</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="G17" s="27"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
@@ -30322,20 +30439,21 @@
       <c r="N17" s="24"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="29" t="s">
+    <row r="18" s="2" customFormat="1" spans="2:15">
+      <c r="B18" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E18" s="30" t="s">
-        <v>771</v>
+      <c r="D18" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>763</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>807</v>
+        <v>764</v>
       </c>
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
@@ -30347,22 +30465,24 @@
       <c r="N18" s="24"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+    <row r="19" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A19" s="20"/>
       <c r="B19" s="31" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
+      <c r="G19" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H19" s="27"/>
       <c r="I19" s="27"/>
       <c r="J19" s="28"/>
@@ -30372,26 +30492,24 @@
       <c r="N19" s="24"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="42" spans="1:15">
-      <c r="A20" s="20" t="s">
-        <v>808</v>
-      </c>
+    <row r="20" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+      <c r="A20" s="20"/>
       <c r="B20" s="31" t="s">
-        <v>803</v>
+        <v>768</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="F20" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="G20" s="27"/>
+        <v>770</v>
+      </c>
+      <c r="G20" s="30"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
@@ -30401,23 +30519,22 @@
       <c r="N20" s="24"/>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="39" customHeight="1" spans="2:15">
-      <c r="B21" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C21" s="26" t="s">
+    <row r="21" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A21" s="20"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>763</v>
+      <c r="D21" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>771</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>806</v>
-      </c>
-      <c r="G21" s="42"/>
+        <v>800</v>
+      </c>
+      <c r="G21" s="27"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
@@ -30427,24 +30544,24 @@
       <c r="N21" s="24"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+    <row r="22" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A22" s="20"/>
       <c r="B22" s="31" t="s">
-        <v>765</v>
+        <v>773</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>197</v>
+        <v>49</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30" t="s">
-        <v>767</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
@@ -30454,22 +30571,22 @@
       <c r="N22" s="24"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="23" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A23" s="20"/>
-      <c r="B23" s="21"/>
+      <c r="B23" s="31" t="s">
+        <v>779</v>
+      </c>
       <c r="C23" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>807</v>
-      </c>
-      <c r="G23" s="27"/>
+        <v>752</v>
+      </c>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
@@ -30479,26 +30596,26 @@
       <c r="N23" s="24"/>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="39" customHeight="1" spans="1:15">
+    <row r="24" s="2" customFormat="1" ht="42" spans="1:15">
       <c r="A24" s="20" t="s">
+        <v>808</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>809</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G24" s="42"/>
+      <c r="C24" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E24" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F24" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
@@ -30508,24 +30625,23 @@
       <c r="N24" s="24"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D25" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30" t="s">
-        <v>767</v>
-      </c>
+    <row r="25" s="2" customFormat="1" ht="39" customHeight="1" spans="2:15">
+      <c r="B25" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="G25" s="43"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="28"/>
@@ -30535,22 +30651,24 @@
       <c r="N25" s="24"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="26" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
+      <c r="B26" s="31" t="s">
+        <v>765</v>
+      </c>
       <c r="C26" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F26" s="28" t="s">
-        <v>800</v>
-      </c>
-      <c r="G26" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="28"/>
@@ -30560,22 +30678,22 @@
       <c r="N26" s="24"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+    <row r="27" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A27" s="20"/>
-      <c r="B27" s="31" t="s">
-        <v>779</v>
-      </c>
+      <c r="B27" s="21"/>
       <c r="C27" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>107</v>
+        <v>447</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
+        <v>771</v>
+      </c>
+      <c r="F27" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="G27" s="27"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
@@ -30585,9 +30703,9 @@
       <c r="N27" s="24"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="42" spans="1:15">
+    <row r="28" s="2" customFormat="1" ht="39" customHeight="1" spans="1:15">
       <c r="A28" s="20" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>762</v>
@@ -30602,9 +30720,9 @@
         <v>763</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>777</v>
-      </c>
-      <c r="G28" s="27"/>
+        <v>764</v>
+      </c>
+      <c r="G28" s="43"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
@@ -30614,16 +30732,16 @@
       <c r="N28" s="24"/>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="29" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A29" s="20"/>
       <c r="B29" s="31" t="s">
-        <v>765</v>
+        <v>794</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>197</v>
+        <v>356</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>766</v>
@@ -30641,9 +30759,9 @@
       <c r="N29" s="24"/>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+    <row r="30" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A30" s="20"/>
-      <c r="B30" s="31"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="29" t="s">
         <v>5</v>
       </c>
@@ -30654,9 +30772,9 @@
         <v>771</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>811</v>
-      </c>
-      <c r="G30" s="30"/>
+        <v>800</v>
+      </c>
+      <c r="G30" s="27"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="28"/>
@@ -30666,27 +30784,35 @@
       <c r="N30" s="24"/>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" ht="42" spans="1:6">
-      <c r="A31" s="20" t="s">
-        <v>812</v>
-      </c>
+    <row r="31" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A31" s="20"/>
       <c r="B31" s="31" t="s">
-        <v>803</v>
+        <v>779</v>
       </c>
       <c r="C31" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="E31" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="F31" s="30" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="35" customHeight="1" spans="2:15">
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="23"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A32" s="20" t="s">
+        <v>813</v>
+      </c>
       <c r="B32" s="21" t="s">
         <v>762</v>
       </c>
@@ -30751,8 +30877,8 @@
       <c r="E34" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F34" s="32" t="s">
-        <v>813</v>
+      <c r="F34" s="28" t="s">
+        <v>814</v>
       </c>
       <c r="G34" s="30"/>
       <c r="H34" s="27"/>
@@ -30764,53 +30890,43 @@
       <c r="N34" s="24"/>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" s="2" customFormat="1" ht="56" spans="1:15">
+    <row r="35" ht="56" spans="1:6">
       <c r="A35" s="20" t="s">
-        <v>814</v>
-      </c>
-      <c r="B35" s="21" t="s">
+        <v>815</v>
+      </c>
+      <c r="B35" s="31" t="s">
+        <v>803</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E35" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="35" customHeight="1" spans="2:15">
+      <c r="B36" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C36" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D36" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E36" s="27" t="s">
         <v>763</v>
       </c>
-      <c r="F35" s="28" t="s">
-        <v>815</v>
-      </c>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="28"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="23"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="31" t="s">
-        <v>765</v>
-      </c>
-      <c r="C36" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30" t="s">
-        <v>767</v>
-      </c>
+      <c r="F36" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
@@ -30820,22 +30936,24 @@
       <c r="N36" s="24"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+    <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="20"/>
-      <c r="B37" s="31"/>
+      <c r="B37" s="31" t="s">
+        <v>765</v>
+      </c>
       <c r="C37" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>813</v>
-      </c>
-      <c r="G37" s="30"/>
+        <v>766</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="28"/>
@@ -30845,21 +30963,21 @@
       <c r="N37" s="24"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="38" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
       <c r="A38" s="20"/>
-      <c r="B38" s="31" t="s">
-        <v>779</v>
-      </c>
+      <c r="B38" s="31"/>
       <c r="C38" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D38" s="30" t="s">
-        <v>107</v>
+        <v>447</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F38" s="30"/>
+        <v>771</v>
+      </c>
+      <c r="F38" s="32" t="s">
+        <v>816</v>
+      </c>
       <c r="G38" s="30"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
@@ -30870,26 +30988,22 @@
       <c r="N38" s="24"/>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="42" spans="1:15">
-      <c r="A39" s="20" t="s">
-        <v>816</v>
-      </c>
+    <row r="39" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A39" s="20"/>
       <c r="B39" s="31" t="s">
-        <v>803</v>
+        <v>779</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="E39" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="F39" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="G39" s="27"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="28"/>
@@ -30899,23 +31013,26 @@
       <c r="N39" s="24"/>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="39" customHeight="1" spans="2:15">
-      <c r="B40" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E40" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>777</v>
-      </c>
-      <c r="G40" s="42"/>
+    <row r="40" s="2" customFormat="1" ht="70" spans="1:15">
+      <c r="A40" s="20" t="s">
+        <v>817</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="C40" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="F40" s="30" t="s">
+        <v>807</v>
+      </c>
+      <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="28"/>
@@ -30925,24 +31042,23 @@
       <c r="N40" s="24"/>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30" t="s">
-        <v>767</v>
-      </c>
+    <row r="41" s="2" customFormat="1" ht="29" spans="2:15">
+      <c r="B41" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E41" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F41" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="G41" s="27"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="28"/>
@@ -30952,22 +31068,24 @@
       <c r="N41" s="24"/>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="31" t="s">
+        <v>765</v>
+      </c>
       <c r="C42" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>807</v>
-      </c>
-      <c r="G42" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="28"/>
@@ -30977,26 +31095,22 @@
       <c r="N42" s="24"/>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="56" spans="1:15">
-      <c r="A43" s="20" t="s">
-        <v>817</v>
-      </c>
-      <c r="B43" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C43" s="26" t="s">
+    <row r="43" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+      <c r="A43" s="20"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>763</v>
+      <c r="D43" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>771</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>815</v>
-      </c>
-      <c r="G43" s="27"/>
+        <v>814</v>
+      </c>
+      <c r="G43" s="30"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="28"/>
@@ -31006,24 +31120,22 @@
       <c r="N43" s="24"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="44" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A44" s="20"/>
       <c r="B44" s="31" t="s">
-        <v>765</v>
+        <v>779</v>
       </c>
       <c r="C44" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="F44" s="30"/>
-      <c r="G44" s="30" t="s">
-        <v>767</v>
-      </c>
+      <c r="G44" s="30"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="28"/>
@@ -31033,22 +31145,26 @@
       <c r="N44" s="24"/>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="31"/>
+    <row r="45" s="2" customFormat="1" ht="70" spans="1:15">
+      <c r="A45" s="20" t="s">
+        <v>818</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>782</v>
+      </c>
       <c r="C45" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D45" s="30" t="s">
-        <v>447</v>
+        <v>263</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>813</v>
-      </c>
-      <c r="G45" s="30"/>
+        <v>756</v>
+      </c>
+      <c r="F45" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="G45" s="27"/>
       <c r="H45" s="27"/>
       <c r="I45" s="27"/>
       <c r="J45" s="28"/>
@@ -31058,22 +31174,23 @@
       <c r="N45" s="24"/>
       <c r="O45" s="23"/>
     </row>
-    <row r="46" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="C46" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
+    <row r="46" s="2" customFormat="1" ht="29" spans="2:15">
+      <c r="B46" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="G46" s="27"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="28"/>
@@ -31083,6 +31200,1115 @@
       <c r="N46" s="24"/>
       <c r="O46" s="23"/>
     </row>
+    <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A47" s="20"/>
+      <c r="B47" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C47" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="23"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="23"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+      <c r="A48" s="20"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>816</v>
+      </c>
+      <c r="G48" s="30"/>
+      <c r="H48" s="27"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="23"/>
+    </row>
+    <row r="49" s="2" customFormat="1" ht="70" spans="1:15">
+      <c r="A49" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="B49" s="31" t="s">
+        <v>782</v>
+      </c>
+      <c r="C49" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F49" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="23"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="29" spans="2:15">
+      <c r="B50" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="23"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="23"/>
+    </row>
+    <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A51" s="20"/>
+      <c r="B51" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H51" s="27"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="28"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="23"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+      <c r="A52" s="20"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F52" s="32" t="s">
+        <v>816</v>
+      </c>
+      <c r="G52" s="30"/>
+      <c r="H52" s="27"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="23"/>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A53" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E53" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="G53" s="43"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="28"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="23"/>
+    </row>
+    <row r="54" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+      <c r="A54" s="20"/>
+      <c r="B54" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C54" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D54" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="23"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A55" s="20"/>
+      <c r="B55" s="21"/>
+      <c r="C55" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="G55" s="27"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="23"/>
+    </row>
+    <row r="56" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A56" s="20" t="s">
+        <v>823</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>824</v>
+      </c>
+      <c r="C56" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G56" s="30"/>
+      <c r="H56" s="27"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="24"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="24"/>
+      <c r="O56" s="23"/>
+    </row>
+    <row r="57" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E57" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="G57" s="27"/>
+      <c r="H57" s="43"/>
+      <c r="I57" s="43"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="45"/>
+      <c r="L57" s="46"/>
+      <c r="M57" s="47"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="45"/>
+    </row>
+    <row r="58" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A58" s="20"/>
+      <c r="B58" s="21"/>
+      <c r="C58" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="G58" s="27"/>
+      <c r="H58" s="43"/>
+      <c r="I58" s="43"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="45"/>
+      <c r="L58" s="46"/>
+      <c r="M58" s="47"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="45"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A59" s="20"/>
+      <c r="B59" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E59" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="F59" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="28"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="24"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="24"/>
+      <c r="O59" s="23"/>
+    </row>
+    <row r="60" s="42" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B60" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C60" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="45"/>
+    </row>
+    <row r="61" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A61" s="20"/>
+      <c r="B61" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C61" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E61" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="H61" s="43"/>
+      <c r="I61" s="43"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="45"/>
+      <c r="L61" s="46"/>
+      <c r="M61" s="47"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="45"/>
+    </row>
+    <row r="62" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A62" s="20"/>
+      <c r="B62" s="21"/>
+      <c r="C62" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="23"/>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A63" s="20"/>
+      <c r="B63" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E63" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="23"/>
+    </row>
+    <row r="64" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A64" s="20" t="s">
+        <v>837</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>838</v>
+      </c>
+      <c r="C64" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E64" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="F64" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G64" s="30"/>
+      <c r="H64" s="27"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="23"/>
+    </row>
+    <row r="65" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="43"/>
+      <c r="I65" s="43"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="45"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="47"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="45"/>
+    </row>
+    <row r="66" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A66" s="20"/>
+      <c r="B66" s="21"/>
+      <c r="C66" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>829</v>
+      </c>
+      <c r="G66" s="27"/>
+      <c r="H66" s="43"/>
+      <c r="I66" s="43"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="45"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="47"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="45"/>
+    </row>
+    <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A67" s="20"/>
+      <c r="B67" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>831</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>832</v>
+      </c>
+      <c r="G67" s="27"/>
+      <c r="H67" s="27"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="24"/>
+      <c r="O67" s="23"/>
+    </row>
+    <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B68" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>840</v>
+      </c>
+      <c r="G68" s="27"/>
+      <c r="H68" s="27"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="28"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="24"/>
+      <c r="O68" s="23"/>
+    </row>
+    <row r="69" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A69" s="20"/>
+      <c r="B69" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C69" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D69" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E69" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="F69" s="27"/>
+      <c r="G69" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="H69" s="43"/>
+      <c r="I69" s="43"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="45"/>
+      <c r="L69" s="46"/>
+      <c r="M69" s="47"/>
+      <c r="N69" s="46"/>
+      <c r="O69" s="45"/>
+    </row>
+    <row r="70" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A70" s="20"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="G70" s="27"/>
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="23"/>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A71" s="20"/>
+      <c r="B71" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="C71" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E71" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F71" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="28"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="24"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="24"/>
+      <c r="O71" s="23"/>
+    </row>
+    <row r="72" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A72" s="20" t="s">
+        <v>841</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>842</v>
+      </c>
+      <c r="C72" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E72" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="F72" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G72" s="30"/>
+      <c r="H72" s="27"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="28"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="24"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="24"/>
+      <c r="O72" s="23"/>
+    </row>
+    <row r="73" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E73" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="G73" s="27"/>
+      <c r="H73" s="43"/>
+      <c r="I73" s="43"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="45"/>
+      <c r="L73" s="46"/>
+      <c r="M73" s="47"/>
+      <c r="N73" s="46"/>
+      <c r="O73" s="45"/>
+    </row>
+    <row r="74" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A74" s="20"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="F74" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="43"/>
+      <c r="I74" s="43"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="46"/>
+      <c r="M74" s="47"/>
+      <c r="N74" s="46"/>
+      <c r="O74" s="45"/>
+    </row>
+    <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A75" s="20"/>
+      <c r="B75" s="31" t="s">
+        <v>844</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="F75" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="28"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="24"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="24"/>
+      <c r="O75" s="23"/>
+    </row>
+    <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B76" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C76" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>847</v>
+      </c>
+      <c r="G76" s="27"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="28"/>
+      <c r="K76" s="23"/>
+      <c r="L76" s="24"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="24"/>
+      <c r="O76" s="23"/>
+    </row>
+    <row r="77" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A77" s="20"/>
+      <c r="B77" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C77" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E77" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="F77" s="27"/>
+      <c r="G77" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="H77" s="43"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="46"/>
+      <c r="M77" s="47"/>
+      <c r="N77" s="46"/>
+      <c r="O77" s="45"/>
+    </row>
+    <row r="78" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F78" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="G78" s="27"/>
+      <c r="H78" s="27"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="28"/>
+      <c r="K78" s="23"/>
+      <c r="L78" s="24"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="24"/>
+      <c r="O78" s="23"/>
+    </row>
+    <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A79" s="20"/>
+      <c r="B79" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="C79" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E79" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F79" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="G79" s="27"/>
+      <c r="H79" s="27"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="28"/>
+      <c r="K79" s="23"/>
+      <c r="L79" s="24"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="24"/>
+      <c r="O79" s="23"/>
+    </row>
+    <row r="80" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A80" s="20" t="s">
+        <v>848</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>849</v>
+      </c>
+      <c r="C80" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G80" s="30"/>
+      <c r="H80" s="27"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="24"/>
+      <c r="M80" s="22"/>
+      <c r="N80" s="24"/>
+      <c r="O80" s="23"/>
+    </row>
+    <row r="81" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A81" s="20"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>826</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>827</v>
+      </c>
+      <c r="G81" s="27"/>
+      <c r="H81" s="43"/>
+      <c r="I81" s="43"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="46"/>
+      <c r="M81" s="47"/>
+      <c r="N81" s="46"/>
+      <c r="O81" s="45"/>
+    </row>
+    <row r="82" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A82" s="20"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>828</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>843</v>
+      </c>
+      <c r="G82" s="27"/>
+      <c r="H82" s="43"/>
+      <c r="I82" s="43"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="46"/>
+      <c r="M82" s="47"/>
+      <c r="N82" s="46"/>
+      <c r="O82" s="45"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A83" s="20"/>
+      <c r="B83" s="31" t="s">
+        <v>850</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>845</v>
+      </c>
+      <c r="F83" s="27" t="s">
+        <v>846</v>
+      </c>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="28"/>
+      <c r="K83" s="23"/>
+      <c r="L83" s="24"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="24"/>
+      <c r="O83" s="23"/>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B84" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C84" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" s="41" t="s">
+        <v>471</v>
+      </c>
+      <c r="E84" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F84" s="28" t="s">
+        <v>851</v>
+      </c>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="28"/>
+      <c r="K84" s="23"/>
+      <c r="L84" s="24"/>
+      <c r="M84" s="22"/>
+      <c r="N84" s="24"/>
+      <c r="O84" s="23"/>
+    </row>
+    <row r="85" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A85" s="20"/>
+      <c r="B85" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C85" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D85" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="F85" s="27"/>
+      <c r="G85" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="H85" s="43"/>
+      <c r="I85" s="43"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="46"/>
+      <c r="M85" s="47"/>
+      <c r="N85" s="46"/>
+      <c r="O85" s="45"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A86" s="20"/>
+      <c r="B86" s="21"/>
+      <c r="C86" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>834</v>
+      </c>
+      <c r="G86" s="27"/>
+      <c r="H86" s="27"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="28"/>
+      <c r="K86" s="23"/>
+      <c r="L86" s="24"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="24"/>
+      <c r="O86" s="23"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A87" s="20"/>
+      <c r="B87" s="21" t="s">
+        <v>835</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>836</v>
+      </c>
+      <c r="G87" s="27"/>
+      <c r="H87" s="27"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="28"/>
+      <c r="K87" s="23"/>
+      <c r="L87" s="24"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="24"/>
+      <c r="O87" s="23"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A88" s="20"/>
+      <c r="B88" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C88" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D88" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="27"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="28"/>
+      <c r="K88" s="23"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="22"/>
+      <c r="N88" s="24"/>
+      <c r="O88" s="23"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -31090,176 +32316,451 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
-  <conditionalFormatting sqref="N19">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N22">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
+    </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27">
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="beginsWith" dxfId="0" priority="118" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N24">
+    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
+    <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N31,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N31,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N31,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N40">
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N44">
+    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N45">
+    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49">
+    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N49,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N49,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56">
+    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N56,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N56,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N56,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N59">
+    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N59,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N59,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N59,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N62">
+    <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N64">
+    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N67">
+    <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N67,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N67,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N67,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N70">
+    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N70,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N70,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N70,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N75">
+    <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N78">
+    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N78,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N78,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N78,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N80">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N83">
+    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N83,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N83,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N83,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N86">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N88">
+    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N88,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N88,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N88,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N11:N15">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="124" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="126" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N18">
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N25:N27">
+    <cfRule type="beginsWith" dxfId="0" priority="130" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21:N23">
-    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N28:N30">
+    <cfRule type="beginsWith" dxfId="0" priority="127" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="129" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24:N26">
-    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N36:N38">
+    <cfRule type="beginsWith" dxfId="0" priority="121" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N36,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N36,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="123" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N36,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N32:N34">
-    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N32,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N41:N43">
+    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N41,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N32,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N41,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N32,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N41,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N40:N42">
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N46:N48">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N43:N45">
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N43,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N50:N52">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N43,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N43,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N53:N55">
+    <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N4">
-    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="144" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="143" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="142" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N10 N28:N30">
-    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N5:N10 N32:N34">
+    <cfRule type="beginsWith" dxfId="0" priority="136" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="137" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="138" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N37 N46">
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N18:N19 N21">
+    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N18,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N18,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N18,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N57:N58 N60:N61 N63">
+    <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N65:N66 N68:N69 N71">
+    <cfRule type="beginsWith" dxfId="0" priority="64" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="66" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N73:N74 N76:N77 N79">
+    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N81:N82 N84:N85 N87">
+    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C10 C11 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C6:C7 C12:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C10 C11 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C59 C60 C61 C62 C63 C64 C67 C68 C69 C70 C71 C72 C75 C76 C77 C78 C79 C80 C83 C84 C85 C86 C87 C88 C6:C7 C12:C13 C57:C58 C65:C66 C73:C74 C81:C82">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D6:D7 D12:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D59 D60 D61 D62 D63 D64 D67 D68 D69 D70 D71 D72 D75 D76 D77 D78 D79 D80 D83 D84 D85 D86 D87 D88 D6:D7 D12:D13 D57:D58 D65:D66 D73:D74 D81:D82">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -31271,12 +32772,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O180"/>
+  <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -31319,18 +32820,18 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="35"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="36"/>
+      <c r="O1" s="35"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
-        <v>818</v>
+        <v>852</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -31342,12 +32843,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="35"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -31359,7 +32860,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="39"/>
+      <c r="J3" s="38"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -31394,10 +32895,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="40"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -31629,9 +33130,9 @@
       <c r="N12" s="24"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" s="3" customFormat="1" ht="42" spans="1:15">
+    <row r="13" s="3" customFormat="1" ht="56" spans="1:15">
       <c r="A13" s="20" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>803</v>
@@ -31874,26 +33375,22 @@
       <c r="N21" s="24"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="56" spans="1:15">
-      <c r="A22" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>784</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="F22" s="28" t="s">
-        <v>806</v>
-      </c>
-      <c r="G22" s="27"/>
+    <row r="22" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A22" s="20"/>
+      <c r="B22" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
@@ -31903,22 +33400,24 @@
       <c r="N22" s="24"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F23" s="28" t="s">
-        <v>793</v>
+    <row r="23" s="2" customFormat="1" ht="70" spans="1:15">
+      <c r="A23" s="20" t="s">
+        <v>854</v>
+      </c>
+      <c r="B23" s="31" t="s">
+        <v>806</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E23" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="F23" s="30" t="s">
+        <v>807</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -31930,26 +33429,23 @@
       <c r="N23" s="24"/>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="31" t="s">
-        <v>794</v>
+    <row r="24" s="2" customFormat="1" spans="2:15">
+      <c r="B24" s="21" t="s">
+        <v>784</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G24" s="27" t="s">
-        <v>767</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="G24" s="27"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
@@ -31959,20 +33455,22 @@
       <c r="N24" s="24"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
+    <row r="25" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="29" t="s">
+      <c r="B25" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C25" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E25" s="30" t="s">
-        <v>771</v>
+      <c r="D25" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>792</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -31984,22 +33482,26 @@
       <c r="N25" s="24"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="26" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
       <c r="B26" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="C26" s="29" t="s">
+        <v>794</v>
+      </c>
+      <c r="C26" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
+      <c r="D26" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G26" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="28"/>
@@ -32009,50 +33511,47 @@
       <c r="N26" s="24"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" s="3" customFormat="1" ht="42" spans="1:15">
-      <c r="A27" s="20" t="s">
-        <v>821</v>
-      </c>
+    <row r="27" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+      <c r="A27" s="20"/>
       <c r="B27" s="31" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="F27" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="10"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="2:15">
-      <c r="B28" s="21" t="s">
-        <v>784</v>
-      </c>
-      <c r="C28" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="23"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>763</v>
+      <c r="D28" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>771</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>764</v>
+        <v>800</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -32064,22 +33563,22 @@
       <c r="N28" s="24"/>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
+    <row r="29" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A29" s="20"/>
-      <c r="B29" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C29" s="7" t="s">
+      <c r="B29" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F29" s="28" t="s">
-        <v>822</v>
+      <c r="D29" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" s="30" t="s">
+        <v>801</v>
+      </c>
+      <c r="F29" s="30" t="s">
+        <v>775</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -32091,26 +33590,22 @@
       <c r="N29" s="24"/>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="30" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A30" s="20"/>
       <c r="B30" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="C30" s="26" t="s">
+        <v>779</v>
+      </c>
+      <c r="C30" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G30" s="27" t="s">
-        <v>767</v>
-      </c>
+      <c r="D30" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="28"/>
@@ -32120,47 +33615,50 @@
       <c r="N30" s="24"/>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
-      <c r="A31" s="20"/>
+    <row r="31" s="3" customFormat="1" ht="42" spans="1:15">
+      <c r="A31" s="20" t="s">
+        <v>855</v>
+      </c>
       <c r="B31" s="31" t="s">
-        <v>768</v>
+        <v>782</v>
       </c>
       <c r="C31" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E31" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F31" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="10"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="2:15">
+      <c r="B32" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C32" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D32" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="E31" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F31" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="23"/>
-    </row>
-    <row r="32" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E32" s="30" t="s">
-        <v>771</v>
+      <c r="E32" s="8" t="s">
+        <v>763</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>800</v>
+        <v>764</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -32172,24 +33670,24 @@
       <c r="N32" s="24"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="33" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A33" s="20"/>
-      <c r="B33" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C33" s="26" t="s">
+      <c r="B33" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>823</v>
-      </c>
-      <c r="F33" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G33" s="30"/>
+      <c r="D33" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F33" s="28" t="s">
+        <v>856</v>
+      </c>
+      <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="28"/>
@@ -32199,26 +33697,26 @@
       <c r="N33" s="24"/>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="42" spans="1:15">
-      <c r="A34" s="20" t="s">
-        <v>824</v>
-      </c>
-      <c r="B34" s="21" t="s">
-        <v>784</v>
+    <row r="34" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A34" s="20"/>
+      <c r="B34" s="31" t="s">
+        <v>794</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="F34" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G34" s="27"/>
+        <v>356</v>
+      </c>
+      <c r="E34" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="28"/>
@@ -32228,22 +33726,22 @@
       <c r="N34" s="24"/>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
+    <row r="35" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A35" s="20"/>
-      <c r="B35" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C35" s="7" t="s">
+      <c r="B35" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="C35" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E35" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F35" s="28" t="s">
-        <v>793</v>
+      <c r="E35" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F35" s="30" t="s">
+        <v>770</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -32255,26 +33753,22 @@
       <c r="N35" s="24"/>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="36" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A36" s="20"/>
-      <c r="B36" s="31" t="s">
-        <v>765</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G36" s="27" t="s">
-        <v>767</v>
-      </c>
+      <c r="B36" s="21"/>
+      <c r="C36" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F36" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="G36" s="27"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
@@ -32284,24 +33778,24 @@
       <c r="N36" s="24"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="37" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A37" s="20"/>
       <c r="B37" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="C37" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="C37" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="G37" s="27"/>
+      <c r="D37" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="F37" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G37" s="30"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="28"/>
@@ -32311,20 +33805,24 @@
       <c r="N37" s="24"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="29" t="s">
+    <row r="38" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A38" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>771</v>
+      <c r="D38" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>763</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>800</v>
+        <v>764</v>
       </c>
       <c r="G38" s="27"/>
       <c r="H38" s="27"/>
@@ -32336,24 +33834,24 @@
       <c r="N38" s="24"/>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="39" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A39" s="20"/>
-      <c r="B39" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C39" s="26" t="s">
+      <c r="B39" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E39" s="27" t="s">
-        <v>823</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G39" s="30"/>
+      <c r="D39" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F39" s="28" t="s">
+        <v>793</v>
+      </c>
+      <c r="G39" s="27"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="28"/>
@@ -32363,26 +33861,26 @@
       <c r="N39" s="24"/>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="56" spans="1:15">
-      <c r="A40" s="20" t="s">
-        <v>825</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>784</v>
+    <row r="40" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A40" s="20"/>
+      <c r="B40" s="31" t="s">
+        <v>859</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="F40" s="28" t="s">
-        <v>806</v>
-      </c>
-      <c r="G40" s="27"/>
+        <v>367</v>
+      </c>
+      <c r="E40" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G40" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="28"/>
@@ -32392,22 +33890,22 @@
       <c r="N40" s="24"/>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
+    <row r="41" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A41" s="20"/>
-      <c r="B41" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C41" s="7" t="s">
+      <c r="B41" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="C41" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>793</v>
+      <c r="E41" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F41" s="30" t="s">
+        <v>770</v>
       </c>
       <c r="G41" s="27"/>
       <c r="H41" s="27"/>
@@ -32419,26 +33917,22 @@
       <c r="N41" s="24"/>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="42" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A42" s="20"/>
-      <c r="B42" s="31" t="s">
-        <v>794</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D42" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G42" s="27" t="s">
-        <v>767</v>
-      </c>
+      <c r="B42" s="21"/>
+      <c r="C42" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E42" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>800</v>
+      </c>
+      <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="28"/>
@@ -32448,22 +33942,24 @@
       <c r="N42" s="24"/>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
+    <row r="43" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="29" t="s">
+      <c r="B43" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E43" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>807</v>
-      </c>
-      <c r="G43" s="27"/>
+      <c r="D43" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="F43" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G43" s="30"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="28"/>
@@ -32473,20 +33969,26 @@
       <c r="N43" s="24"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="29" t="s">
+    <row r="44" s="2" customFormat="1" ht="70" spans="1:15">
+      <c r="A44" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C44" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>397</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
+      <c r="D44" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>810</v>
+      </c>
+      <c r="G44" s="27"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="28"/>
@@ -32496,12 +33998,10 @@
       <c r="N44" s="24"/>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" ht="56" spans="1:6">
-      <c r="A45" s="20" t="s">
-        <v>826</v>
-      </c>
+    <row r="45" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
+      <c r="A45" s="20"/>
       <c r="B45" s="21" t="s">
-        <v>827</v>
+        <v>791</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>5</v>
@@ -32509,27 +34009,42 @@
       <c r="D45" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E45" s="30" t="s">
-        <v>763</v>
+      <c r="E45" s="8" t="s">
+        <v>792</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="46" s="4" customFormat="1" ht="15.5" spans="3:15">
-      <c r="C46" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E46" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G46" s="30"/>
+        <v>793</v>
+      </c>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="23"/>
+    </row>
+    <row r="46" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A46" s="20"/>
+      <c r="B46" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C46" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G46" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="28"/>
@@ -32539,22 +34054,22 @@
       <c r="N46" s="24"/>
       <c r="O46" s="23"/>
     </row>
-    <row r="47" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="47" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>465</v>
+        <v>447</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>829</v>
-      </c>
-      <c r="F47" s="32" t="s">
-        <v>830</v>
-      </c>
-      <c r="G47" s="30"/>
+        <v>771</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>811</v>
+      </c>
+      <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="28"/>
@@ -32564,21 +34079,19 @@
       <c r="N47" s="24"/>
       <c r="O47" s="23"/>
     </row>
-    <row r="48" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="48" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A48" s="20"/>
-      <c r="B48" s="21"/>
+      <c r="B48" s="31"/>
       <c r="C48" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="33" t="s">
-        <v>49</v>
+      <c r="D48" s="30" t="s">
+        <v>397</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>831</v>
-      </c>
-      <c r="F48" s="32" t="s">
-        <v>832</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="F48" s="30"/>
       <c r="G48" s="30"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -32589,24 +34102,26 @@
       <c r="N48" s="24"/>
       <c r="O48" s="23"/>
     </row>
-    <row r="49" customFormat="1" ht="20" customHeight="1" spans="1:15">
-      <c r="A49" s="20"/>
+    <row r="49" s="2" customFormat="1" ht="56" spans="1:15">
+      <c r="A49" s="20" t="s">
+        <v>861</v>
+      </c>
       <c r="B49" s="21" t="s">
-        <v>833</v>
-      </c>
-      <c r="C49" s="29" t="s">
+        <v>784</v>
+      </c>
+      <c r="C49" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="27" t="s">
         <v>471</v>
       </c>
-      <c r="E49" s="30" t="s">
-        <v>834</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>835</v>
-      </c>
-      <c r="G49" s="30"/>
+      <c r="E49" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="G49" s="27"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="28"/>
@@ -32616,22 +34131,22 @@
       <c r="N49" s="24"/>
       <c r="O49" s="23"/>
     </row>
-    <row r="50" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="50" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A50" s="20"/>
       <c r="B50" s="21" t="s">
-        <v>788</v>
-      </c>
-      <c r="C50" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="C50" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="30" t="s">
+      <c r="D50" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E50" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F50" s="30" t="s">
-        <v>836</v>
+      <c r="E50" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>862</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -32643,24 +34158,26 @@
       <c r="N50" s="24"/>
       <c r="O50" s="23"/>
     </row>
-    <row r="51" customFormat="1" ht="116" spans="1:15">
+    <row r="51" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="20"/>
-      <c r="B51" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>837</v>
-      </c>
-      <c r="G51" s="30"/>
+      <c r="B51" s="31" t="s">
+        <v>765</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D51" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G51" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="28"/>
@@ -32670,27 +34187,25 @@
       <c r="N51" s="24"/>
       <c r="O51" s="23"/>
     </row>
-    <row r="52" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="52" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A52" s="20"/>
       <c r="B52" s="31" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D52" s="33" t="s">
-        <v>356</v>
+        <v>5</v>
+      </c>
+      <c r="D52" s="30" t="s">
+        <v>471</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="G52" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H52" s="30"/>
+        <v>770</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="27"/>
       <c r="I52" s="27"/>
       <c r="J52" s="28"/>
       <c r="K52" s="23"/>
@@ -32699,22 +34214,20 @@
       <c r="N52" s="24"/>
       <c r="O52" s="23"/>
     </row>
-    <row r="53" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="53" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A53" s="20"/>
-      <c r="B53" s="31" t="s">
-        <v>768</v>
-      </c>
+      <c r="B53" s="21"/>
       <c r="C53" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F53" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
+      </c>
+      <c r="F53" s="28" t="s">
+        <v>800</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -32726,22 +34239,24 @@
       <c r="N53" s="24"/>
       <c r="O53" s="23"/>
     </row>
-    <row r="54" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="54" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="29" t="s">
+      <c r="B54" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C54" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>800</v>
-      </c>
-      <c r="G54" s="27"/>
+      <c r="D54" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G54" s="30"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
       <c r="J54" s="28"/>
@@ -32751,49 +34266,40 @@
       <c r="N54" s="24"/>
       <c r="O54" s="23"/>
     </row>
-    <row r="55" s="3" customFormat="1" ht="28" spans="1:15">
-      <c r="A55" s="20"/>
-      <c r="B55" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C55" s="26" t="s">
+    <row r="55" ht="84" spans="1:6">
+      <c r="A55" s="20" t="s">
+        <v>863</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>864</v>
+      </c>
+      <c r="C55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" s="27" t="s">
-        <v>823</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G55" s="30"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="23"/>
-    </row>
-    <row r="56" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A56" s="20"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>828</v>
-      </c>
-      <c r="F56" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="G56" s="27"/>
+      <c r="D55" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E55" s="30" t="s">
+        <v>763</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="56" s="4" customFormat="1" ht="15.5" spans="3:15">
+      <c r="C56" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E56" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G56" s="30"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
       <c r="J56" s="28"/>
@@ -32803,22 +34309,20 @@
       <c r="N56" s="24"/>
       <c r="O56" s="23"/>
     </row>
-    <row r="57" s="4" customFormat="1" ht="28" spans="1:15">
+    <row r="57" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A57" s="20"/>
-      <c r="B57" s="21" t="s">
-        <v>839</v>
-      </c>
+      <c r="B57" s="21"/>
       <c r="C57" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>828</v>
+        <v>865</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="G57" s="30"/>
       <c r="H57" s="27"/>
@@ -32836,14 +34340,14 @@
       <c r="C58" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="30" t="s">
-        <v>465</v>
+      <c r="D58" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>830</v>
+        <v>866</v>
       </c>
       <c r="G58" s="30"/>
       <c r="H58" s="27"/>
@@ -32857,18 +34361,20 @@
     </row>
     <row r="59" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A59" s="20"/>
-      <c r="B59" s="21"/>
+      <c r="B59" s="21" t="s">
+        <v>867</v>
+      </c>
       <c r="C59" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>49</v>
+        <v>471</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>831</v>
+        <v>868</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>840</v>
+        <v>869</v>
       </c>
       <c r="G59" s="30"/>
       <c r="H59" s="27"/>
@@ -32880,24 +34386,24 @@
       <c r="N59" s="24"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="60" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A60" s="20"/>
       <c r="B60" s="21" t="s">
-        <v>841</v>
+        <v>788</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="30" t="s">
         <v>471</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>842</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>843</v>
-      </c>
-      <c r="G60" s="30"/>
+        <v>789</v>
+      </c>
+      <c r="F60" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="G60" s="27"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
       <c r="J60" s="28"/>
@@ -32907,24 +34413,24 @@
       <c r="N60" s="24"/>
       <c r="O60" s="23"/>
     </row>
-    <row r="61" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="61" customFormat="1" ht="116" spans="1:15">
       <c r="A61" s="20"/>
       <c r="B61" s="21" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="30" t="s">
+      <c r="D61" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F61" s="30" t="s">
-        <v>836</v>
-      </c>
-      <c r="G61" s="27"/>
+        <v>792</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>871</v>
+      </c>
+      <c r="G61" s="30"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
       <c r="J61" s="28"/>
@@ -32934,25 +34440,27 @@
       <c r="N61" s="24"/>
       <c r="O61" s="23"/>
     </row>
-    <row r="62" customFormat="1" ht="116" spans="1:15">
+    <row r="62" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="20"/>
-      <c r="B62" s="21" t="s">
-        <v>791</v>
+      <c r="B62" s="31" t="s">
+        <v>794</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>471</v>
+        <v>356</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>844</v>
-      </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F62" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H62" s="30"/>
       <c r="I62" s="27"/>
       <c r="J62" s="28"/>
       <c r="K62" s="23"/>
@@ -32961,27 +34469,25 @@
       <c r="N62" s="24"/>
       <c r="O62" s="23"/>
     </row>
-    <row r="63" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="63" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A63" s="20"/>
       <c r="B63" s="31" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>356</v>
+        <v>5</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>471</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H63" s="30"/>
+        <v>770</v>
+      </c>
+      <c r="G63" s="27"/>
+      <c r="H63" s="27"/>
       <c r="I63" s="27"/>
       <c r="J63" s="28"/>
       <c r="K63" s="23"/>
@@ -32990,22 +34496,20 @@
       <c r="N63" s="24"/>
       <c r="O63" s="23"/>
     </row>
-    <row r="64" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="64" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A64" s="20"/>
-      <c r="B64" s="31" t="s">
-        <v>768</v>
-      </c>
+      <c r="B64" s="21"/>
       <c r="C64" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F64" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>800</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -33017,22 +34521,24 @@
       <c r="N64" s="24"/>
       <c r="O64" s="23"/>
     </row>
-    <row r="65" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="65" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="29" t="s">
+      <c r="B65" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C65" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E65" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>800</v>
-      </c>
-      <c r="G65" s="27"/>
+      <c r="D65" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G65" s="30"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
       <c r="J65" s="28"/>
@@ -33042,24 +34548,22 @@
       <c r="N65" s="24"/>
       <c r="O65" s="23"/>
     </row>
-    <row r="66" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="66" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="20"/>
-      <c r="B66" s="31" t="s">
-        <v>773</v>
-      </c>
+      <c r="B66" s="21"/>
       <c r="C66" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="27" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="D66" s="41" t="s">
+        <v>302</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G66" s="30"/>
+        <v>836</v>
+      </c>
+      <c r="G66" s="27"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
       <c r="J66" s="28"/>
@@ -33069,22 +34573,26 @@
       <c r="N66" s="24"/>
       <c r="O66" s="23"/>
     </row>
-    <row r="67" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A67" s="20"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E67" s="27" t="s">
-        <v>828</v>
-      </c>
-      <c r="F67" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="G67" s="27"/>
+    <row r="67" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A67" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>873</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E67" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="F67" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G67" s="30"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="28"/>
@@ -33094,22 +34602,20 @@
       <c r="N67" s="24"/>
       <c r="O67" s="23"/>
     </row>
-    <row r="68" s="4" customFormat="1" ht="28" spans="1:15">
+    <row r="68" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A68" s="20"/>
-      <c r="B68" s="21" t="s">
-        <v>845</v>
-      </c>
+      <c r="B68" s="21"/>
       <c r="C68" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>828</v>
+        <v>865</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>774</v>
+        <v>827</v>
       </c>
       <c r="G68" s="30"/>
       <c r="H68" s="27"/>
@@ -33127,14 +34633,14 @@
       <c r="C69" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="30" t="s">
-        <v>465</v>
+      <c r="D69" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>830</v>
+        <v>874</v>
       </c>
       <c r="G69" s="30"/>
       <c r="H69" s="27"/>
@@ -33148,18 +34654,20 @@
     </row>
     <row r="70" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
+      <c r="B70" s="21" t="s">
+        <v>875</v>
+      </c>
       <c r="C70" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>49</v>
+        <v>471</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>831</v>
+        <v>876</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>846</v>
+        <v>877</v>
       </c>
       <c r="G70" s="30"/>
       <c r="H70" s="27"/>
@@ -33171,24 +34679,24 @@
       <c r="N70" s="24"/>
       <c r="O70" s="23"/>
     </row>
-    <row r="71" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="71" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A71" s="20"/>
       <c r="B71" s="21" t="s">
-        <v>847</v>
+        <v>788</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="30" t="s">
         <v>471</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>848</v>
-      </c>
-      <c r="F71" s="32" t="s">
-        <v>849</v>
-      </c>
-      <c r="G71" s="30"/>
+        <v>789</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>870</v>
+      </c>
+      <c r="G71" s="27"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
       <c r="J71" s="28"/>
@@ -33198,24 +34706,24 @@
       <c r="N71" s="24"/>
       <c r="O71" s="23"/>
     </row>
-    <row r="72" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="72" customFormat="1" ht="116" spans="1:15">
       <c r="A72" s="20"/>
       <c r="B72" s="21" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>836</v>
-      </c>
-      <c r="G72" s="27"/>
+        <v>792</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>878</v>
+      </c>
+      <c r="G72" s="30"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
       <c r="J72" s="28"/>
@@ -33225,25 +34733,27 @@
       <c r="N72" s="24"/>
       <c r="O72" s="23"/>
     </row>
-    <row r="73" customFormat="1" ht="116" spans="1:15">
+    <row r="73" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="20"/>
-      <c r="B73" s="21" t="s">
-        <v>791</v>
+      <c r="B73" s="31" t="s">
+        <v>794</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>471</v>
+        <v>356</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="G73" s="30"/>
-      <c r="H73" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="G73" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H73" s="30"/>
       <c r="I73" s="27"/>
       <c r="J73" s="28"/>
       <c r="K73" s="23"/>
@@ -33252,27 +34762,25 @@
       <c r="N73" s="24"/>
       <c r="O73" s="23"/>
     </row>
-    <row r="74" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="74" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A74" s="20"/>
       <c r="B74" s="31" t="s">
-        <v>794</v>
+        <v>768</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>356</v>
+        <v>5</v>
+      </c>
+      <c r="D74" s="30" t="s">
+        <v>471</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>766</v>
+        <v>769</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="G74" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H74" s="30"/>
+        <v>770</v>
+      </c>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
       <c r="I74" s="27"/>
       <c r="J74" s="28"/>
       <c r="K74" s="23"/>
@@ -33281,22 +34789,20 @@
       <c r="N74" s="24"/>
       <c r="O74" s="23"/>
     </row>
-    <row r="75" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="75" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A75" s="20"/>
-      <c r="B75" s="31" t="s">
-        <v>768</v>
-      </c>
+      <c r="B75" s="21"/>
       <c r="C75" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F75" s="30" t="s">
-        <v>770</v>
+        <v>771</v>
+      </c>
+      <c r="F75" s="28" t="s">
+        <v>800</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -33308,22 +34814,24 @@
       <c r="N75" s="24"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="76" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A76" s="20"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="29" t="s">
+      <c r="B76" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C76" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>800</v>
-      </c>
-      <c r="G76" s="27"/>
+      <c r="D76" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E76" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="F76" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G76" s="30"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="28"/>
@@ -33333,24 +34841,22 @@
       <c r="N76" s="24"/>
       <c r="O76" s="23"/>
     </row>
-    <row r="77" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="77" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="20"/>
-      <c r="B77" s="31" t="s">
-        <v>773</v>
-      </c>
+      <c r="B77" s="21"/>
       <c r="C77" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D77" s="27" t="s">
-        <v>49</v>
+        <v>20</v>
+      </c>
+      <c r="D77" s="41" t="s">
+        <v>302</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G77" s="30"/>
+        <v>836</v>
+      </c>
+      <c r="G77" s="27"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
       <c r="J77" s="28"/>
@@ -33360,22 +34866,26 @@
       <c r="N77" s="24"/>
       <c r="O77" s="23"/>
     </row>
-    <row r="78" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D78" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>828</v>
-      </c>
-      <c r="F78" s="27" t="s">
-        <v>838</v>
-      </c>
-      <c r="G78" s="27"/>
+    <row r="78" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A78" s="20" t="s">
+        <v>879</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>880</v>
+      </c>
+      <c r="C78" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>825</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G78" s="30"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
       <c r="J78" s="28"/>
@@ -33385,21 +34895,21 @@
       <c r="N78" s="24"/>
       <c r="O78" s="23"/>
     </row>
-    <row r="79" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="79" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A79" s="20"/>
-      <c r="B79" s="31" t="s">
-        <v>779</v>
-      </c>
+      <c r="B79" s="21"/>
       <c r="C79" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>107</v>
+        <v>465</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F79" s="30"/>
+        <v>865</v>
+      </c>
+      <c r="F79" s="32" t="s">
+        <v>827</v>
+      </c>
       <c r="G79" s="30"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
@@ -33410,14 +34920,22 @@
       <c r="N79" s="24"/>
       <c r="O79" s="23"/>
     </row>
-    <row r="80" ht="23" customHeight="1" spans="1:15">
+    <row r="80" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
+      <c r="C80" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>828</v>
+      </c>
+      <c r="F80" s="32" t="s">
+        <v>881</v>
+      </c>
+      <c r="G80" s="30"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
       <c r="J80" s="28"/>
@@ -33427,14 +34945,24 @@
       <c r="N80" s="24"/>
       <c r="O80" s="23"/>
     </row>
-    <row r="81" ht="23" customHeight="1" spans="1:15">
+    <row r="81" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A81" s="20"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
+      <c r="B81" s="21" t="s">
+        <v>882</v>
+      </c>
+      <c r="C81" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>883</v>
+      </c>
+      <c r="F81" s="32" t="s">
+        <v>884</v>
+      </c>
+      <c r="G81" s="30"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
       <c r="J81" s="28"/>
@@ -33444,13 +34972,23 @@
       <c r="N81" s="24"/>
       <c r="O81" s="23"/>
     </row>
-    <row r="82" ht="23" customHeight="1" spans="1:15">
+    <row r="82" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A82" s="20"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
+      <c r="B82" s="21" t="s">
+        <v>788</v>
+      </c>
+      <c r="C82" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>870</v>
+      </c>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
@@ -33461,14 +34999,24 @@
       <c r="N82" s="24"/>
       <c r="O82" s="23"/>
     </row>
-    <row r="83" ht="23" customHeight="1" spans="1:15">
+    <row r="83" customFormat="1" ht="116" spans="1:15">
       <c r="A83" s="20"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
+      <c r="B83" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C83" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="F83" s="28" t="s">
+        <v>885</v>
+      </c>
+      <c r="G83" s="30"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
       <c r="J83" s="28"/>
@@ -33478,15 +35026,27 @@
       <c r="N83" s="24"/>
       <c r="O83" s="23"/>
     </row>
-    <row r="84" ht="23" customHeight="1" spans="1:15">
+    <row r="84" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="20"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
+      <c r="B84" s="31" t="s">
+        <v>794</v>
+      </c>
+      <c r="C84" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D84" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>795</v>
+      </c>
+      <c r="G84" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H84" s="30"/>
       <c r="I84" s="27"/>
       <c r="J84" s="28"/>
       <c r="K84" s="23"/>
@@ -33495,13 +35055,23 @@
       <c r="N84" s="24"/>
       <c r="O84" s="23"/>
     </row>
-    <row r="85" ht="23" customHeight="1" spans="1:15">
+    <row r="85" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A85" s="20"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
+      <c r="B85" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="C85" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F85" s="30" t="s">
+        <v>770</v>
+      </c>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
@@ -33512,13 +35082,21 @@
       <c r="N85" s="24"/>
       <c r="O85" s="23"/>
     </row>
-    <row r="86" ht="23" customHeight="1" spans="1:15">
+    <row r="86" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
+      <c r="C86" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F86" s="28" t="s">
+        <v>800</v>
+      </c>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
@@ -33529,14 +35107,24 @@
       <c r="N86" s="24"/>
       <c r="O86" s="23"/>
     </row>
-    <row r="87" ht="23" customHeight="1" spans="1:15">
+    <row r="87" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A87" s="20"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="26"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
+      <c r="B87" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C87" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D87" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="27" t="s">
+        <v>857</v>
+      </c>
+      <c r="F87" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G87" s="30"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
       <c r="J87" s="28"/>
@@ -33546,13 +35134,21 @@
       <c r="N87" s="24"/>
       <c r="O87" s="23"/>
     </row>
-    <row r="88" ht="23" customHeight="1" spans="1:15">
+    <row r="88" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
-      <c r="C88" s="26"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
+      <c r="C88" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="E88" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>836</v>
+      </c>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
@@ -33563,14 +35159,22 @@
       <c r="N88" s="24"/>
       <c r="O88" s="23"/>
     </row>
-    <row r="89" ht="23" customHeight="1" spans="1:15">
+    <row r="89" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A89" s="20"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="27"/>
-      <c r="G89" s="27"/>
+      <c r="B89" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C89" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D89" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F89" s="30"/>
+      <c r="G89" s="30"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
       <c r="J89" s="28"/>
@@ -35127,6 +36731,176 @@
       <c r="N180" s="24"/>
       <c r="O180" s="23"/>
     </row>
+    <row r="181" ht="23" customHeight="1" spans="1:15">
+      <c r="A181" s="20"/>
+      <c r="B181" s="21"/>
+      <c r="C181" s="26"/>
+      <c r="D181" s="27"/>
+      <c r="E181" s="27"/>
+      <c r="F181" s="27"/>
+      <c r="G181" s="27"/>
+      <c r="H181" s="27"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="28"/>
+      <c r="K181" s="23"/>
+      <c r="L181" s="24"/>
+      <c r="M181" s="22"/>
+      <c r="N181" s="24"/>
+      <c r="O181" s="23"/>
+    </row>
+    <row r="182" ht="23" customHeight="1" spans="1:15">
+      <c r="A182" s="20"/>
+      <c r="B182" s="21"/>
+      <c r="C182" s="26"/>
+      <c r="D182" s="27"/>
+      <c r="E182" s="27"/>
+      <c r="F182" s="27"/>
+      <c r="G182" s="27"/>
+      <c r="H182" s="27"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="28"/>
+      <c r="K182" s="23"/>
+      <c r="L182" s="24"/>
+      <c r="M182" s="22"/>
+      <c r="N182" s="24"/>
+      <c r="O182" s="23"/>
+    </row>
+    <row r="183" ht="23" customHeight="1" spans="1:15">
+      <c r="A183" s="20"/>
+      <c r="B183" s="21"/>
+      <c r="C183" s="26"/>
+      <c r="D183" s="27"/>
+      <c r="E183" s="27"/>
+      <c r="F183" s="27"/>
+      <c r="G183" s="27"/>
+      <c r="H183" s="27"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="28"/>
+      <c r="K183" s="23"/>
+      <c r="L183" s="24"/>
+      <c r="M183" s="22"/>
+      <c r="N183" s="24"/>
+      <c r="O183" s="23"/>
+    </row>
+    <row r="184" ht="23" customHeight="1" spans="1:15">
+      <c r="A184" s="20"/>
+      <c r="B184" s="21"/>
+      <c r="C184" s="26"/>
+      <c r="D184" s="27"/>
+      <c r="E184" s="27"/>
+      <c r="F184" s="27"/>
+      <c r="G184" s="27"/>
+      <c r="H184" s="27"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="28"/>
+      <c r="K184" s="23"/>
+      <c r="L184" s="24"/>
+      <c r="M184" s="22"/>
+      <c r="N184" s="24"/>
+      <c r="O184" s="23"/>
+    </row>
+    <row r="185" ht="23" customHeight="1" spans="1:15">
+      <c r="A185" s="20"/>
+      <c r="B185" s="21"/>
+      <c r="C185" s="26"/>
+      <c r="D185" s="27"/>
+      <c r="E185" s="27"/>
+      <c r="F185" s="27"/>
+      <c r="G185" s="27"/>
+      <c r="H185" s="27"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="28"/>
+      <c r="K185" s="23"/>
+      <c r="L185" s="24"/>
+      <c r="M185" s="22"/>
+      <c r="N185" s="24"/>
+      <c r="O185" s="23"/>
+    </row>
+    <row r="186" ht="23" customHeight="1" spans="1:15">
+      <c r="A186" s="20"/>
+      <c r="B186" s="21"/>
+      <c r="C186" s="26"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="28"/>
+      <c r="K186" s="23"/>
+      <c r="L186" s="24"/>
+      <c r="M186" s="22"/>
+      <c r="N186" s="24"/>
+      <c r="O186" s="23"/>
+    </row>
+    <row r="187" ht="23" customHeight="1" spans="1:15">
+      <c r="A187" s="20"/>
+      <c r="B187" s="21"/>
+      <c r="C187" s="26"/>
+      <c r="D187" s="27"/>
+      <c r="E187" s="27"/>
+      <c r="F187" s="27"/>
+      <c r="G187" s="27"/>
+      <c r="H187" s="27"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="28"/>
+      <c r="K187" s="23"/>
+      <c r="L187" s="24"/>
+      <c r="M187" s="22"/>
+      <c r="N187" s="24"/>
+      <c r="O187" s="23"/>
+    </row>
+    <row r="188" ht="23" customHeight="1" spans="1:15">
+      <c r="A188" s="20"/>
+      <c r="B188" s="21"/>
+      <c r="C188" s="26"/>
+      <c r="D188" s="27"/>
+      <c r="E188" s="27"/>
+      <c r="F188" s="27"/>
+      <c r="G188" s="27"/>
+      <c r="H188" s="27"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="28"/>
+      <c r="K188" s="23"/>
+      <c r="L188" s="24"/>
+      <c r="M188" s="22"/>
+      <c r="N188" s="24"/>
+      <c r="O188" s="23"/>
+    </row>
+    <row r="189" ht="23" customHeight="1" spans="1:15">
+      <c r="A189" s="20"/>
+      <c r="B189" s="21"/>
+      <c r="C189" s="26"/>
+      <c r="D189" s="27"/>
+      <c r="E189" s="27"/>
+      <c r="F189" s="27"/>
+      <c r="G189" s="27"/>
+      <c r="H189" s="27"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="28"/>
+      <c r="K189" s="23"/>
+      <c r="L189" s="24"/>
+      <c r="M189" s="22"/>
+      <c r="N189" s="24"/>
+      <c r="O189" s="23"/>
+    </row>
+    <row r="190" ht="23" customHeight="1" spans="1:15">
+      <c r="A190" s="20"/>
+      <c r="B190" s="21"/>
+      <c r="C190" s="26"/>
+      <c r="D190" s="27"/>
+      <c r="E190" s="27"/>
+      <c r="F190" s="27"/>
+      <c r="G190" s="27"/>
+      <c r="H190" s="27"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="28"/>
+      <c r="K190" s="23"/>
+      <c r="L190" s="24"/>
+      <c r="M190" s="22"/>
+      <c r="N190" s="24"/>
+      <c r="O190" s="23"/>
+    </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <mergeCells count="4">
@@ -35136,368 +36910,436 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="118" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N23">
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
-    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N26,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N24">
+    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N26,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N26,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28">
-    <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N34">
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N29">
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N40">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N30">
+    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N30,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N30,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N30,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
-    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N32">
+    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N32,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N32,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N32,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N38">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N54">
-    <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N44">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55">
-    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N55,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N49">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N55,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N49,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N55,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N49,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N61">
-    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N60">
+    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N63">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N63,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N63,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N63,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65">
-    <cfRule type="beginsWith" dxfId="0" priority="64" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="66" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N66">
-    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N71">
+    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N71,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N71,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N71,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N72">
-    <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N74">
+    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76">
-    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N76,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N76,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N76,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N77">
-    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N77,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N82">
+    <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N77,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N77,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N85">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N85,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N85,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N85,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N86">
+    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N87">
+    <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N87,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N87,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N87,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N12">
-    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="112" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="114" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N21">
-    <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="64" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="66" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23:N25">
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N33:N37">
+    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29:N33">
-    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N39:N43">
+    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35:N39">
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N45:N47">
+    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N41:N43">
-    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N41,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N50:N54">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N41,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N41,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N81:N180">
-    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N91:N190">
+    <cfRule type="beginsWith" dxfId="0" priority="121" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N91,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N91,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="123" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N91,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N4 N80">
-    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+  <conditionalFormatting sqref="N1 N3:N4 N90">
+    <cfRule type="beginsWith" dxfId="0" priority="124" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="126" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44 N79">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N25:N26 N28">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N46:N49 N51:N52 N56">
+  <conditionalFormatting sqref="N48 N89">
+    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N48,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N48,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N48,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56:N59 N66 N61:N62">
+    <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N56,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N56,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N56,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N67:N70 N77 N72:N73">
     <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N67,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N67,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N67,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N57:N60 N62:N63 N67">
-    <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N78:N81 N88 N83:N84">
+    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N78,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N78,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N68:N71 N73:N74 N78">
-    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N78,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C10 C11 C12 C13 C14 C15 C16 C18 C19 C20 C21 C22 C24 C25 C26 C27 C28 C30 C31 C32 C33 C34 C36 C37 C38 C39 C40 C42 C43 C44 C46 C49 C50 C51 C52 C53 C54 C55 C56 C60 C61 C62 C63 C64 C65 C66 C67 C71 C72 C73 C74 C75 C76 C77 C78 C79 C47:C48 C57:C59 C68:C70 C80:C180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C10 C11 C12 C13 C14 C15 C16 C18 C19 C20 C21 C22 C23 C24 C26 C27 C28 C29 C30 C31 C32 C34 C35 C36 C37 C38 C40 C41 C42 C43 C44 C46 C47 C48 C49 C51 C52 C53 C54 C56 C59 C60 C61 C62 C63 C64 C65 C66 C70 C71 C72 C73 C74 C75 C76 C77 C81 C82 C83 C84 C85 C86 C87 C88 C89 C57:C58 C67:C69 C78:C80 C90:C190">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D9 D10 D11 D12 D13 D14 D15 D16 D18 D19 D20 D21 D22 D24 D25 D26 D27 D28 D30 D31 D32 D33 D34 D36 D37 D38 D39 D40 D42 D43 D44 D46 D49 D50 D51 D52 D53 D54 D55 D56 D60 D61 D62 D63 D64 D65 D66 D67 D71 D72 D73 D74 D75 D76 D77 D78 D79 D47:D48 D57:D59 D68:D70 D80:D180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D9 D10 D11 D12 D13 D14 D15 D16 D18 D19 D20 D21 D22 D23 D24 D26 D27 D28 D29 D30 D31 D32 D34 D35 D36 D37 D38 D40 D41 D42 D43 D44 D46 D47 D48 D49 D51 D52 D53 D54 D56 D59 D60 D61 D62 D63 D64 D65 D66 D70 D71 D72 D73 D74 D75 D76 D77 D81 D82 D83 D84 D85 D86 D87 D88 D89 D57:D58 D67:D69 D78:D80 D90:D190">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
     <hyperlink ref="E9" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F28" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E30" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F32" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E34" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
     <hyperlink ref="F14" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
     <hyperlink ref="E18" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F40" r:id="rId1" display="${api.baseUrl}account" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E42" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F22" r:id="rId1" display="${api.baseUrl}account" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E24" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F45" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F34" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E36" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F44" r:id="rId1" display="${api.baseUrl}account" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E46" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E26" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F55" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F38" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E40" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F24" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F49" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E51" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/tests/artifact/script/Account.xlsx
+++ b/tests/artifact/script/Account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="886">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="889">
   <si>
     <t>target</t>
   </si>
@@ -2497,6 +2497,9 @@
     <t>Negative - accounts (Unauthorized )</t>
   </si>
   <si>
+    <t>I will get the response using Get Method</t>
+  </si>
+  <si>
     <t>actualReturnCode=${response}.returnCode
 actualResponseTime=${response}.elapsedTime
 actualContentType=${response}.headers.[Content-Type]
@@ -2547,7 +2550,10 @@
 schema=null</t>
   </si>
   <si>
-    <t>Negative - accounts (Invalid (POST) Req)</t>
+    <t>Negative - accounts (Invalid (PUT) Req)</t>
+  </si>
+  <si>
+    <t>I will get the response using Put Method</t>
   </si>
   <si>
     <t>Negative - accounts/Spreadsheet(Unauthorized )</t>
@@ -2594,6 +2600,9 @@
     <t>Negative - accounts/Spreadsheet (Invalid (POST) Req)</t>
   </si>
   <si>
+    <t>I will get the response using Post Method</t>
+  </si>
+  <si>
     <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid fystart)</t>
   </si>
   <si>
@@ -2735,10 +2744,10 @@
 }</t>
   </si>
   <si>
-    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid Accountname)</t>
-  </si>
-  <si>
-    <t>Negative (Accountname) - POST https://api-dev.gnukhata.org/accounts</t>
+    <t>Negative - accounts(Valid token with valid endpoint and invalid Accountname)</t>
+  </si>
+  <si>
+    <t>Negative (Accountname) - Post https://api-dev.gnukhata.org/accounts</t>
   </si>
   <si>
     <t>9</t>
@@ -2769,10 +2778,10 @@
 }</t>
   </si>
   <si>
-    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid groupcode)</t>
-  </si>
-  <si>
-    <t>Negative (groupcode) - POST https://api-dev.gnukhata.org/accounts</t>
+    <t>Negative - accounts(Valid token with valid endpoint and invalid groupcode)</t>
+  </si>
+  <si>
+    <t>Negative (groupcode) - Post https://api-dev.gnukhata.org/accounts</t>
   </si>
   <si>
     <t>$(array|length|${negative.groupcode})</t>
@@ -2797,10 +2806,10 @@
 }</t>
   </si>
   <si>
-    <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid openingbal)</t>
-  </si>
-  <si>
-    <t>Negative (openingbal) - POST https://api-dev.gnukhata.org/accounts</t>
+    <t>Negative - accounts(Valid token with valid endpoint and invalid openingbal)</t>
+  </si>
+  <si>
+    <t>Negative (openingbal) - Post https://api-dev.gnukhata.org/accounts</t>
   </si>
   <si>
     <t>$(array|length|${negative.openingbal})</t>
@@ -29953,8 +29962,8 @@
   <sheetPr/>
   <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -30121,7 +30130,7 @@
     <row r="6" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A6" s="20"/>
       <c r="B6" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C6" s="29" t="s">
         <v>35</v>
@@ -30185,7 +30194,7 @@
         <v>771</v>
       </c>
       <c r="F8" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -30209,7 +30218,7 @@
         <v>49</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F9" s="30" t="s">
         <v>775</v>
@@ -30226,10 +30235,10 @@
     </row>
     <row r="10" s="2" customFormat="1" ht="42" spans="1:15">
       <c r="A10" s="20" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C10" s="29" t="s">
         <v>35</v>
@@ -30241,7 +30250,7 @@
         <v>756</v>
       </c>
       <c r="F10" s="30" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -30282,7 +30291,7 @@
     <row r="12" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A12" s="20"/>
       <c r="B12" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C12" s="29" t="s">
         <v>35</v>
@@ -30346,7 +30355,7 @@
         <v>771</v>
       </c>
       <c r="F14" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -30370,7 +30379,7 @@
         <v>49</v>
       </c>
       <c r="E15" s="30" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F15" s="30" t="s">
         <v>775</v>
@@ -30412,10 +30421,10 @@
     </row>
     <row r="17" s="2" customFormat="1" ht="42" spans="1:15">
       <c r="A17" s="20" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B17" s="31" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C17" s="29" t="s">
         <v>35</v>
@@ -30427,7 +30436,7 @@
         <v>752</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -30468,7 +30477,7 @@
     <row r="19" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A19" s="20"/>
       <c r="B19" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>35</v>
@@ -30532,7 +30541,7 @@
         <v>771</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27"/>
@@ -30556,7 +30565,7 @@
         <v>49</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>775</v>
@@ -30598,10 +30607,10 @@
     </row>
     <row r="24" s="2" customFormat="1" ht="42" spans="1:15">
       <c r="A24" s="20" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B24" s="31" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>35</v>
@@ -30639,7 +30648,7 @@
         <v>763</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="27"/>
@@ -30654,7 +30663,7 @@
     <row r="26" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
       <c r="B26" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>35</v>
@@ -30691,7 +30700,7 @@
         <v>771</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G27" s="27"/>
       <c r="H27" s="27"/>
@@ -30705,7 +30714,7 @@
     </row>
     <row r="28" s="2" customFormat="1" ht="39" customHeight="1" spans="1:15">
       <c r="A28" s="20" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B28" s="21" t="s">
         <v>762</v>
@@ -30735,13 +30744,13 @@
     <row r="29" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A29" s="20"/>
       <c r="B29" s="31" t="s">
-        <v>794</v>
+        <v>814</v>
       </c>
       <c r="C29" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D29" s="30" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="E29" s="30" t="s">
         <v>766</v>
@@ -30772,7 +30781,7 @@
         <v>771</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G30" s="27"/>
       <c r="H30" s="27"/>
@@ -30811,7 +30820,7 @@
     </row>
     <row r="32" s="2" customFormat="1" ht="42" spans="1:15">
       <c r="A32" s="20" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>762</v>
@@ -30841,7 +30850,7 @@
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A33" s="20"/>
       <c r="B33" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>35</v>
@@ -30878,7 +30887,7 @@
         <v>771</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G34" s="30"/>
       <c r="H34" s="27"/>
@@ -30892,10 +30901,10 @@
     </row>
     <row r="35" ht="56" spans="1:6">
       <c r="A35" s="20" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="B35" s="31" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>35</v>
@@ -30907,7 +30916,7 @@
         <v>756</v>
       </c>
       <c r="F35" s="30" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="36" s="2" customFormat="1" ht="35" customHeight="1" spans="2:15">
@@ -30939,7 +30948,7 @@
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A37" s="20"/>
       <c r="B37" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>35</v>
@@ -30976,7 +30985,7 @@
         <v>771</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G38" s="30"/>
       <c r="H38" s="27"/>
@@ -31015,10 +31024,10 @@
     </row>
     <row r="40" s="2" customFormat="1" ht="70" spans="1:15">
       <c r="A40" s="20" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="B40" s="31" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C40" s="29" t="s">
         <v>35</v>
@@ -31030,7 +31039,7 @@
         <v>752</v>
       </c>
       <c r="F40" s="30" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -31071,7 +31080,7 @@
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A42" s="20"/>
       <c r="B42" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>35</v>
@@ -31108,7 +31117,7 @@
         <v>771</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="G43" s="30"/>
       <c r="H43" s="27"/>
@@ -31147,7 +31156,7 @@
     </row>
     <row r="45" s="2" customFormat="1" ht="70" spans="1:15">
       <c r="A45" s="20" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B45" s="31" t="s">
         <v>782</v>
@@ -31188,7 +31197,7 @@
         <v>763</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="G46" s="27"/>
       <c r="H46" s="27"/>
@@ -31203,7 +31212,7 @@
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="20"/>
       <c r="B47" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C47" s="29" t="s">
         <v>35</v>
@@ -31240,7 +31249,7 @@
         <v>771</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G48" s="30"/>
       <c r="H48" s="27"/>
@@ -31254,7 +31263,7 @@
     </row>
     <row r="49" s="2" customFormat="1" ht="70" spans="1:15">
       <c r="A49" s="20" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B49" s="31" t="s">
         <v>782</v>
@@ -31295,7 +31304,7 @@
         <v>763</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -31310,7 +31319,7 @@
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="20"/>
       <c r="B51" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C51" s="29" t="s">
         <v>35</v>
@@ -31347,7 +31356,7 @@
         <v>771</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="G52" s="30"/>
       <c r="H52" s="27"/>
@@ -31361,7 +31370,7 @@
     </row>
     <row r="53" s="2" customFormat="1" ht="42" spans="1:15">
       <c r="A53" s="20" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B53" s="21" t="s">
         <v>762</v>
@@ -31391,7 +31400,7 @@
     <row r="54" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A54" s="20"/>
       <c r="B54" s="31" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="C54" s="29" t="s">
         <v>35</v>
@@ -31428,7 +31437,7 @@
         <v>771</v>
       </c>
       <c r="F55" s="28" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
@@ -31442,10 +31451,10 @@
     </row>
     <row r="56" s="4" customFormat="1" ht="70" spans="1:15">
       <c r="A56" s="20" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B56" s="21" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="C56" s="29" t="s">
         <v>5</v>
@@ -31454,7 +31463,7 @@
         <v>471</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>774</v>
@@ -31479,10 +31488,10 @@
         <v>465</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F57" s="28" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G57" s="27"/>
       <c r="H57" s="43"/>
@@ -31504,10 +31513,10 @@
         <v>49</v>
       </c>
       <c r="E58" s="27" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="43"/>
@@ -31522,7 +31531,7 @@
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="20"/>
       <c r="B59" s="31" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>5</v>
@@ -31531,10 +31540,10 @@
         <v>471</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="F59" s="27" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="G59" s="27"/>
       <c r="H59" s="27"/>
@@ -31560,7 +31569,7 @@
         <v>763</v>
       </c>
       <c r="F60" s="28" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="43"/>
@@ -31575,7 +31584,7 @@
     <row r="61" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="20"/>
       <c r="B61" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C61" s="26" t="s">
         <v>35</v>
@@ -31612,7 +31621,7 @@
         <v>771</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="G62" s="27"/>
       <c r="H62" s="27"/>
@@ -31627,7 +31636,7 @@
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="20"/>
       <c r="B63" s="21" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C63" s="26" t="s">
         <v>20</v>
@@ -31636,10 +31645,10 @@
         <v>302</v>
       </c>
       <c r="E63" s="27" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -31653,10 +31662,10 @@
     </row>
     <row r="64" s="4" customFormat="1" ht="70" spans="1:15">
       <c r="A64" s="20" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B64" s="21" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="C64" s="29" t="s">
         <v>5</v>
@@ -31665,7 +31674,7 @@
         <v>471</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F64" s="32" t="s">
         <v>774</v>
@@ -31690,10 +31699,10 @@
         <v>465</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F65" s="28" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G65" s="27"/>
       <c r="H65" s="43"/>
@@ -31715,10 +31724,10 @@
         <v>49</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="43"/>
@@ -31733,7 +31742,7 @@
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="20"/>
       <c r="B67" s="31" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>5</v>
@@ -31742,10 +31751,10 @@
         <v>471</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="F67" s="27" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="G67" s="27"/>
       <c r="H67" s="27"/>
@@ -31771,7 +31780,7 @@
         <v>763</v>
       </c>
       <c r="F68" s="28" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="G68" s="27"/>
       <c r="H68" s="27"/>
@@ -31786,7 +31795,7 @@
     <row r="69" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="20"/>
       <c r="B69" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C69" s="26" t="s">
         <v>35</v>
@@ -31823,7 +31832,7 @@
         <v>771</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="G70" s="27"/>
       <c r="H70" s="27"/>
@@ -31838,7 +31847,7 @@
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="20"/>
       <c r="B71" s="21" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C71" s="26" t="s">
         <v>20</v>
@@ -31847,10 +31856,10 @@
         <v>302</v>
       </c>
       <c r="E71" s="27" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -31864,10 +31873,10 @@
     </row>
     <row r="72" s="4" customFormat="1" ht="70" spans="1:15">
       <c r="A72" s="20" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>5</v>
@@ -31876,7 +31885,7 @@
         <v>471</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F72" s="32" t="s">
         <v>774</v>
@@ -31901,10 +31910,10 @@
         <v>465</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G73" s="27"/>
       <c r="H73" s="43"/>
@@ -31926,10 +31935,10 @@
         <v>49</v>
       </c>
       <c r="E74" s="27" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="G74" s="27"/>
       <c r="H74" s="43"/>
@@ -31944,7 +31953,7 @@
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="20"/>
       <c r="B75" s="31" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="C75" s="29" t="s">
         <v>5</v>
@@ -31953,10 +31962,10 @@
         <v>471</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -31982,7 +31991,7 @@
         <v>763</v>
       </c>
       <c r="F76" s="28" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
       <c r="G76" s="27"/>
       <c r="H76" s="27"/>
@@ -31997,7 +32006,7 @@
     <row r="77" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A77" s="20"/>
       <c r="B77" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C77" s="26" t="s">
         <v>35</v>
@@ -32034,7 +32043,7 @@
         <v>771</v>
       </c>
       <c r="F78" s="28" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="G78" s="27"/>
       <c r="H78" s="27"/>
@@ -32049,7 +32058,7 @@
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A79" s="20"/>
       <c r="B79" s="21" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C79" s="26" t="s">
         <v>20</v>
@@ -32058,10 +32067,10 @@
         <v>302</v>
       </c>
       <c r="E79" s="27" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F79" s="27" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G79" s="27"/>
       <c r="H79" s="27"/>
@@ -32075,10 +32084,10 @@
     </row>
     <row r="80" s="4" customFormat="1" ht="70" spans="1:15">
       <c r="A80" s="20" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="C80" s="29" t="s">
         <v>5</v>
@@ -32087,7 +32096,7 @@
         <v>471</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F80" s="32" t="s">
         <v>774</v>
@@ -32112,10 +32121,10 @@
         <v>465</v>
       </c>
       <c r="E81" s="27" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="F81" s="28" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G81" s="27"/>
       <c r="H81" s="43"/>
@@ -32137,10 +32146,10 @@
         <v>49</v>
       </c>
       <c r="E82" s="27" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F82" s="28" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="G82" s="27"/>
       <c r="H82" s="43"/>
@@ -32155,7 +32164,7 @@
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="20"/>
       <c r="B83" s="31" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="C83" s="29" t="s">
         <v>5</v>
@@ -32164,10 +32173,10 @@
         <v>471</v>
       </c>
       <c r="E83" s="30" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="F83" s="27" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="G83" s="27"/>
       <c r="H83" s="27"/>
@@ -32193,7 +32202,7 @@
         <v>763</v>
       </c>
       <c r="F84" s="28" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="G84" s="27"/>
       <c r="H84" s="27"/>
@@ -32208,7 +32217,7 @@
     <row r="85" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="20"/>
       <c r="B85" s="31" t="s">
-        <v>765</v>
+        <v>800</v>
       </c>
       <c r="C85" s="26" t="s">
         <v>35</v>
@@ -32245,7 +32254,7 @@
         <v>771</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
@@ -32260,7 +32269,7 @@
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="20"/>
       <c r="B87" s="21" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="C87" s="26" t="s">
         <v>20</v>
@@ -32269,10 +32278,10 @@
         <v>302</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F87" s="27" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G87" s="27"/>
       <c r="H87" s="27"/>
@@ -32774,10 +32783,10 @@
   <sheetPr/>
   <dimension ref="A1:O190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -32831,7 +32840,7 @@
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -33025,7 +33034,7 @@
     <row r="9" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="20"/>
       <c r="B9" s="31" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>35</v>
@@ -33091,7 +33100,7 @@
         <v>771</v>
       </c>
       <c r="F11" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G11" s="27"/>
       <c r="H11" s="27"/>
@@ -33115,7 +33124,7 @@
         <v>49</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F12" s="27" t="s">
         <v>775</v>
@@ -33132,10 +33141,10 @@
     </row>
     <row r="13" s="3" customFormat="1" ht="56" spans="1:15">
       <c r="A13" s="20" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C13" s="29" t="s">
         <v>35</v>
@@ -33147,7 +33156,7 @@
         <v>756</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -33270,7 +33279,7 @@
     <row r="18" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="20"/>
       <c r="B18" s="31" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="C18" s="26" t="s">
         <v>35</v>
@@ -33336,7 +33345,7 @@
         <v>771</v>
       </c>
       <c r="F20" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
@@ -33360,7 +33369,7 @@
         <v>49</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F21" s="27" t="s">
         <v>775</v>
@@ -33402,10 +33411,10 @@
     </row>
     <row r="23" s="2" customFormat="1" ht="70" spans="1:15">
       <c r="A23" s="20" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B23" s="31" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C23" s="29" t="s">
         <v>35</v>
@@ -33417,7 +33426,7 @@
         <v>752</v>
       </c>
       <c r="F23" s="30" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -33485,7 +33494,7 @@
     <row r="26" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
       <c r="B26" s="31" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="C26" s="26" t="s">
         <v>35</v>
@@ -33551,7 +33560,7 @@
         <v>771</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -33575,7 +33584,7 @@
         <v>49</v>
       </c>
       <c r="E29" s="30" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>775</v>
@@ -33617,7 +33626,7 @@
     </row>
     <row r="31" s="3" customFormat="1" ht="42" spans="1:15">
       <c r="A31" s="20" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B31" s="31" t="s">
         <v>782</v>
@@ -33685,7 +33694,7 @@
         <v>792</v>
       </c>
       <c r="F33" s="28" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="G33" s="27"/>
       <c r="H33" s="27"/>
@@ -33700,7 +33709,7 @@
     <row r="34" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A34" s="20"/>
       <c r="B34" s="31" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="C34" s="26" t="s">
         <v>35</v>
@@ -33766,7 +33775,7 @@
         <v>771</v>
       </c>
       <c r="F36" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G36" s="27"/>
       <c r="H36" s="27"/>
@@ -33790,7 +33799,7 @@
         <v>49</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F37" s="27" t="s">
         <v>775</v>
@@ -33807,7 +33816,7 @@
     </row>
     <row r="38" s="2" customFormat="1" ht="42" spans="1:15">
       <c r="A38" s="20" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B38" s="21" t="s">
         <v>784</v>
@@ -33864,7 +33873,7 @@
     <row r="40" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A40" s="20"/>
       <c r="B40" s="31" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>35</v>
@@ -33930,7 +33939,7 @@
         <v>771</v>
       </c>
       <c r="F42" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -33954,7 +33963,7 @@
         <v>49</v>
       </c>
       <c r="E43" s="27" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F43" s="27" t="s">
         <v>775</v>
@@ -33971,7 +33980,7 @@
     </row>
     <row r="44" s="2" customFormat="1" ht="70" spans="1:15">
       <c r="A44" s="20" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B44" s="21" t="s">
         <v>784</v>
@@ -33986,7 +33995,7 @@
         <v>763</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="G44" s="27"/>
       <c r="H44" s="27"/>
@@ -34028,7 +34037,7 @@
     <row r="46" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="20"/>
       <c r="B46" s="31" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>35</v>
@@ -34067,7 +34076,7 @@
         <v>771</v>
       </c>
       <c r="F47" s="28" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="G47" s="27"/>
       <c r="H47" s="27"/>
@@ -34104,7 +34113,7 @@
     </row>
     <row r="49" s="2" customFormat="1" ht="56" spans="1:15">
       <c r="A49" s="20" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B49" s="21" t="s">
         <v>784</v>
@@ -34146,7 +34155,7 @@
         <v>792</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -34161,13 +34170,13 @@
     <row r="51" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="20"/>
       <c r="B51" s="31" t="s">
-        <v>765</v>
+        <v>825</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>35</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="E51" s="28" t="s">
         <v>766</v>
@@ -34227,7 +34236,7 @@
         <v>771</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -34251,7 +34260,7 @@
         <v>49</v>
       </c>
       <c r="E54" s="27" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F54" s="27" t="s">
         <v>775</v>
@@ -34266,12 +34275,12 @@
       <c r="N54" s="24"/>
       <c r="O54" s="23"/>
     </row>
-    <row r="55" ht="84" spans="1:6">
+    <row r="55" ht="70" spans="1:6">
       <c r="A55" s="20" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>5</v>
@@ -34294,7 +34303,7 @@
         <v>471</v>
       </c>
       <c r="E56" s="30" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F56" s="32" t="s">
         <v>774</v>
@@ -34319,10 +34328,10 @@
         <v>465</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G57" s="30"/>
       <c r="H57" s="27"/>
@@ -34344,10 +34353,10 @@
         <v>49</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="G58" s="30"/>
       <c r="H58" s="27"/>
@@ -34362,7 +34371,7 @@
     <row r="59" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A59" s="20"/>
       <c r="B59" s="21" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="C59" s="29" t="s">
         <v>5</v>
@@ -34371,10 +34380,10 @@
         <v>471</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="G59" s="30"/>
       <c r="H59" s="27"/>
@@ -34401,7 +34410,7 @@
         <v>789</v>
       </c>
       <c r="F60" s="30" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G60" s="27"/>
       <c r="H60" s="27"/>
@@ -34428,7 +34437,7 @@
         <v>792</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="G61" s="30"/>
       <c r="H61" s="27"/>
@@ -34443,7 +34452,7 @@
     <row r="62" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="20"/>
       <c r="B62" s="31" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="C62" s="29" t="s">
         <v>35</v>
@@ -34509,7 +34518,7 @@
         <v>771</v>
       </c>
       <c r="F64" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -34533,7 +34542,7 @@
         <v>49</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F65" s="27" t="s">
         <v>775</v>
@@ -34558,10 +34567,10 @@
         <v>302</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
@@ -34575,10 +34584,10 @@
     </row>
     <row r="67" s="4" customFormat="1" ht="70" spans="1:15">
       <c r="A67" s="20" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="C67" s="29" t="s">
         <v>5</v>
@@ -34587,7 +34596,7 @@
         <v>471</v>
       </c>
       <c r="E67" s="30" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F67" s="32" t="s">
         <v>774</v>
@@ -34612,10 +34621,10 @@
         <v>465</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G68" s="30"/>
       <c r="H68" s="27"/>
@@ -34637,10 +34646,10 @@
         <v>49</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="G69" s="30"/>
       <c r="H69" s="27"/>
@@ -34655,7 +34664,7 @@
     <row r="70" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A70" s="20"/>
       <c r="B70" s="21" t="s">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="C70" s="29" t="s">
         <v>5</v>
@@ -34664,10 +34673,10 @@
         <v>471</v>
       </c>
       <c r="E70" s="30" t="s">
-        <v>876</v>
+        <v>879</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>877</v>
+        <v>880</v>
       </c>
       <c r="G70" s="30"/>
       <c r="H70" s="27"/>
@@ -34694,7 +34703,7 @@
         <v>789</v>
       </c>
       <c r="F71" s="30" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -34721,7 +34730,7 @@
         <v>792</v>
       </c>
       <c r="F72" s="28" t="s">
-        <v>878</v>
+        <v>881</v>
       </c>
       <c r="G72" s="30"/>
       <c r="H72" s="27"/>
@@ -34736,7 +34745,7 @@
     <row r="73" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="20"/>
       <c r="B73" s="31" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="C73" s="29" t="s">
         <v>35</v>
@@ -34802,7 +34811,7 @@
         <v>771</v>
       </c>
       <c r="F75" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -34826,7 +34835,7 @@
         <v>49</v>
       </c>
       <c r="E76" s="27" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F76" s="27" t="s">
         <v>775</v>
@@ -34851,10 +34860,10 @@
         <v>302</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G77" s="27"/>
       <c r="H77" s="27"/>
@@ -34868,10 +34877,10 @@
     </row>
     <row r="78" s="4" customFormat="1" ht="70" spans="1:15">
       <c r="A78" s="20" t="s">
-        <v>879</v>
+        <v>882</v>
       </c>
       <c r="B78" s="21" t="s">
-        <v>880</v>
+        <v>883</v>
       </c>
       <c r="C78" s="29" t="s">
         <v>5</v>
@@ -34880,7 +34889,7 @@
         <v>471</v>
       </c>
       <c r="E78" s="30" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F78" s="32" t="s">
         <v>774</v>
@@ -34905,10 +34914,10 @@
         <v>465</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="F79" s="32" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="G79" s="30"/>
       <c r="H79" s="27"/>
@@ -34930,10 +34939,10 @@
         <v>49</v>
       </c>
       <c r="E80" s="30" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="F80" s="32" t="s">
-        <v>881</v>
+        <v>884</v>
       </c>
       <c r="G80" s="30"/>
       <c r="H80" s="27"/>
@@ -34948,7 +34957,7 @@
     <row r="81" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A81" s="20"/>
       <c r="B81" s="21" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="C81" s="29" t="s">
         <v>5</v>
@@ -34957,10 +34966,10 @@
         <v>471</v>
       </c>
       <c r="E81" s="30" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="F81" s="32" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="G81" s="30"/>
       <c r="H81" s="27"/>
@@ -34987,7 +34996,7 @@
         <v>789</v>
       </c>
       <c r="F82" s="30" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
@@ -35014,7 +35023,7 @@
         <v>792</v>
       </c>
       <c r="F83" s="28" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="G83" s="30"/>
       <c r="H83" s="27"/>
@@ -35029,7 +35038,7 @@
     <row r="84" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="20"/>
       <c r="B84" s="31" t="s">
-        <v>794</v>
+        <v>825</v>
       </c>
       <c r="C84" s="29" t="s">
         <v>35</v>
@@ -35095,7 +35104,7 @@
         <v>771</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
@@ -35119,7 +35128,7 @@
         <v>49</v>
       </c>
       <c r="E87" s="27" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F87" s="27" t="s">
         <v>775</v>
@@ -35144,10 +35153,10 @@
         <v>302</v>
       </c>
       <c r="E88" s="27" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>

--- a/tests/artifact/script/Account.xlsx
+++ b/tests/artifact/script/Account.xlsx
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="884">
   <si>
     <t>target</t>
   </si>
@@ -2513,19 +2513,10 @@
     <t>2</t>
   </si>
   <si>
-    <t>Negative - accounts (Valid token with extra value)</t>
+    <t>Negative - accounts (Wrong token and valid endpoint)</t>
   </si>
   <si>
     <t>Set the Wrong Authorisation headers</t>
-  </si>
-  <si>
-    <t>${gktoken}${invflag}</t>
-  </si>
-  <si>
-    <t>Negative - accounts (Wrong token and valid endpoint)</t>
-  </si>
-  <si>
-    <t>Set the gkusertoken Authorisation headers</t>
   </si>
   <si>
     <t>${gkusertoken}</t>
@@ -2569,7 +2560,13 @@
 schema=null</t>
   </si>
   <si>
-    <t>Negative - accounts/Spreadsheet(Valid token with extra value)</t>
+    <t>Negative - accounts/Spreadsheet(Wrong token with valid endpoint and parameters)</t>
+  </si>
+  <si>
+    <t>Negative - accounts/Spreadsheet(Valid token with Invalid endpoint and valid parameters)</t>
+  </si>
+  <si>
+    <t>${api.baseUrl}account/spreadsheets?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
   </si>
   <si>
     <t xml:space="preserve">actualReturnCode=${response}.returnCode
@@ -2582,15 +2579,6 @@
 </t>
   </si>
   <si>
-    <t>Negative - accounts/Spreadsheet(Wrong token with valid endpoint and parameters)</t>
-  </si>
-  <si>
-    <t>Negative - accounts/Spreadsheet(Valid token with Invalid endpoint and valid parameters)</t>
-  </si>
-  <si>
-    <t>${api.baseUrl}account/spreadsheets?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
-  </si>
-  <si>
     <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and Invalid parameters )</t>
   </si>
   <si>
@@ -2698,9 +2686,6 @@
   </si>
   <si>
     <t>Negtive API's of POST Request  in Account Module</t>
-  </si>
-  <si>
-    <t>Negative - accounts(Valid token with extra value)</t>
   </si>
   <si>
     <t>Negative - accounts(Wrong token with valid endpoint and parameters)</t>
@@ -3675,6 +3660,10 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -3699,10 +3688,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -6854,14 +6839,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="35"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="15.25" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -6875,12 +6860,12 @@
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
       <c r="I2" s="19"/>
-      <c r="J2" s="34"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -6892,7 +6877,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="38"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -6927,10 +6912,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -26667,14 +26652,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="35"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="38" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -26690,12 +26675,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -26707,7 +26692,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="38"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -26742,10 +26727,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -27465,14 +27450,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="35"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -27488,12 +27473,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -27505,7 +27490,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="38"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -27540,10 +27525,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -29960,10 +29945,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -30006,14 +29991,14 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="35"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="38" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
@@ -30029,12 +30014,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -30046,7 +30031,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="38"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -30081,10 +30066,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -30247,7 +30232,7 @@
         <v>263</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F10" s="30" t="s">
         <v>805</v>
@@ -30262,7 +30247,7 @@
       <c r="N10" s="24"/>
       <c r="O10" s="23"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="39" customHeight="1" spans="2:15">
+    <row r="11" s="2" customFormat="1" spans="2:15">
       <c r="B11" s="21" t="s">
         <v>762</v>
       </c>
@@ -30278,7 +30263,7 @@
       <c r="F11" s="28" t="s">
         <v>764</v>
       </c>
-      <c r="G11" s="43"/>
+      <c r="G11" s="27"/>
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
@@ -30394,7 +30379,7 @@
       <c r="N15" s="24"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="16" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
       <c r="A16" s="20"/>
       <c r="B16" s="31" t="s">
         <v>779</v>
@@ -30406,7 +30391,7 @@
         <v>107</v>
       </c>
       <c r="E16" s="30" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F16" s="30"/>
       <c r="G16" s="30"/>
@@ -30433,10 +30418,10 @@
         <v>263</v>
       </c>
       <c r="E17" s="30" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="F17" s="30" t="s">
-        <v>808</v>
+        <v>761</v>
       </c>
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
@@ -30448,7 +30433,7 @@
       <c r="N17" s="24"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="2:15">
+    <row r="18" s="2" customFormat="1" ht="39" customHeight="1" spans="2:15">
       <c r="B18" s="21" t="s">
         <v>762</v>
       </c>
@@ -30462,9 +30447,9 @@
         <v>763</v>
       </c>
       <c r="F18" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G18" s="27"/>
+        <v>808</v>
+      </c>
+      <c r="G18" s="43"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
@@ -30501,24 +30486,22 @@
       <c r="N19" s="24"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+    <row r="20" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A20" s="20"/>
-      <c r="B20" s="31" t="s">
-        <v>768</v>
-      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F20" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="G20" s="30"/>
+        <v>771</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="G20" s="27"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
@@ -30528,22 +30511,26 @@
       <c r="N20" s="24"/>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="29" t="s">
+    <row r="21" s="2" customFormat="1" ht="39" customHeight="1" spans="1:15">
+      <c r="A21" s="20" t="s">
+        <v>810</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C21" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>771</v>
+      <c r="D21" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>763</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>801</v>
-      </c>
-      <c r="G21" s="27"/>
+        <v>764</v>
+      </c>
+      <c r="G21" s="43"/>
       <c r="H21" s="27"/>
       <c r="I21" s="27"/>
       <c r="J21" s="28"/>
@@ -30553,24 +30540,24 @@
       <c r="N21" s="24"/>
       <c r="O21" s="23"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="28" spans="1:15">
+    <row r="22" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A22" s="20"/>
       <c r="B22" s="31" t="s">
-        <v>773</v>
+        <v>811</v>
       </c>
       <c r="C22" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D22" s="30" t="s">
-        <v>49</v>
+        <v>367</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="F22" s="30" t="s">
-        <v>775</v>
-      </c>
-      <c r="G22" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
@@ -30580,22 +30567,22 @@
       <c r="N22" s="24"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+    <row r="23" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A23" s="20"/>
-      <c r="B23" s="31" t="s">
-        <v>779</v>
-      </c>
+      <c r="B23" s="21"/>
       <c r="C23" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D23" s="30" t="s">
-        <v>107</v>
+        <v>447</v>
       </c>
       <c r="E23" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
+        <v>771</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="G23" s="27"/>
       <c r="H23" s="27"/>
       <c r="I23" s="27"/>
       <c r="J23" s="28"/>
@@ -30605,26 +30592,22 @@
       <c r="N23" s="24"/>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="42" spans="1:15">
-      <c r="A24" s="20" t="s">
-        <v>809</v>
-      </c>
+    <row r="24" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+      <c r="A24" s="20"/>
       <c r="B24" s="31" t="s">
-        <v>810</v>
+        <v>779</v>
       </c>
       <c r="C24" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>263</v>
+        <v>107</v>
       </c>
       <c r="E24" s="30" t="s">
         <v>756</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="G24" s="27"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
@@ -30634,7 +30617,10 @@
       <c r="N24" s="24"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="39" customHeight="1" spans="2:15">
+    <row r="25" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A25" s="20" t="s">
+        <v>812</v>
+      </c>
       <c r="B25" s="21" t="s">
         <v>762</v>
       </c>
@@ -30648,9 +30634,9 @@
         <v>763</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>811</v>
-      </c>
-      <c r="G25" s="43"/>
+        <v>777</v>
+      </c>
+      <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="28"/>
@@ -30660,7 +30646,7 @@
       <c r="N25" s="24"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
       <c r="B26" s="31" t="s">
         <v>800</v>
@@ -30687,9 +30673,9 @@
       <c r="N26" s="24"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="27" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
       <c r="A27" s="20"/>
-      <c r="B27" s="21"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="29" t="s">
         <v>5</v>
       </c>
@@ -30700,9 +30686,9 @@
         <v>771</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="G27" s="27"/>
+        <v>813</v>
+      </c>
+      <c r="G27" s="30"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="28"/>
@@ -30712,26 +30698,26 @@
       <c r="N27" s="24"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" s="2" customFormat="1" ht="39" customHeight="1" spans="1:15">
+    <row r="28" s="2" customFormat="1" ht="70" spans="1:15">
       <c r="A28" s="20" t="s">
-        <v>813</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C28" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G28" s="43"/>
+        <v>814</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>804</v>
+      </c>
+      <c r="C28" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E28" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="F28" s="30" t="s">
+        <v>805</v>
+      </c>
+      <c r="G28" s="27"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="28"/>
@@ -30741,24 +30727,23 @@
       <c r="N28" s="24"/>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="31" t="s">
-        <v>814</v>
-      </c>
-      <c r="C29" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30" t="s">
-        <v>767</v>
-      </c>
+    <row r="29" s="2" customFormat="1" ht="29" spans="2:15">
+      <c r="B29" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>777</v>
+      </c>
+      <c r="G29" s="27"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="28"/>
@@ -30768,22 +30753,24 @@
       <c r="N29" s="24"/>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
+      <c r="B30" s="31" t="s">
+        <v>800</v>
+      </c>
       <c r="C30" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>447</v>
+        <v>197</v>
       </c>
       <c r="E30" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F30" s="28" t="s">
-        <v>801</v>
-      </c>
-      <c r="G30" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="28"/>
@@ -30793,21 +30780,21 @@
       <c r="N30" s="24"/>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" s="2" customFormat="1" ht="31" customHeight="1" spans="1:15">
+    <row r="31" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
       <c r="A31" s="20"/>
-      <c r="B31" s="31" t="s">
-        <v>779</v>
-      </c>
+      <c r="B31" s="31"/>
       <c r="C31" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>107</v>
+        <v>447</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F31" s="30"/>
+        <v>771</v>
+      </c>
+      <c r="F31" s="28" t="s">
+        <v>813</v>
+      </c>
       <c r="G31" s="30"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
@@ -30818,26 +30805,22 @@
       <c r="N31" s="24"/>
       <c r="O31" s="23"/>
     </row>
-    <row r="32" s="2" customFormat="1" ht="42" spans="1:15">
-      <c r="A32" s="20" t="s">
-        <v>815</v>
-      </c>
-      <c r="B32" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F32" s="28" t="s">
-        <v>777</v>
-      </c>
-      <c r="G32" s="27"/>
+    <row r="32" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C32" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="28"/>
@@ -30847,24 +30830,26 @@
       <c r="N32" s="24"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A33" s="20"/>
+    <row r="33" s="2" customFormat="1" ht="70" spans="1:15">
+      <c r="A33" s="20" t="s">
+        <v>815</v>
+      </c>
       <c r="B33" s="31" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="C33" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D33" s="30" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="E33" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30" t="s">
-        <v>767</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F33" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="G33" s="27"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="28"/>
@@ -30874,22 +30859,23 @@
       <c r="N33" s="24"/>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="29" t="s">
+    <row r="34" s="2" customFormat="1" ht="29" spans="2:15">
+      <c r="B34" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C34" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E34" s="30" t="s">
-        <v>771</v>
+      <c r="D34" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>763</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>816</v>
       </c>
-      <c r="G34" s="30"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="28"/>
@@ -30899,43 +30885,49 @@
       <c r="N34" s="24"/>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" ht="56" spans="1:6">
-      <c r="A35" s="20" t="s">
-        <v>817</v>
-      </c>
+    <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A35" s="20"/>
       <c r="B35" s="31" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="C35" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D35" s="30" t="s">
-        <v>263</v>
+        <v>197</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="35" customHeight="1" spans="2:15">
-      <c r="B36" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C36" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H35" s="27"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="23"/>
+    </row>
+    <row r="36" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+      <c r="A36" s="20"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D36" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>777</v>
-      </c>
-      <c r="G36" s="27"/>
+      <c r="D36" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E36" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F36" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="G36" s="30"/>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
@@ -30945,24 +30937,26 @@
       <c r="N36" s="24"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A37" s="20"/>
+    <row r="37" s="2" customFormat="1" ht="70" spans="1:15">
+      <c r="A37" s="20" t="s">
+        <v>818</v>
+      </c>
       <c r="B37" s="31" t="s">
-        <v>800</v>
+        <v>782</v>
       </c>
       <c r="C37" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D37" s="30" t="s">
-        <v>197</v>
+        <v>263</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30" t="s">
-        <v>767</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F37" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="28"/>
@@ -30972,22 +30966,23 @@
       <c r="N37" s="24"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="29" t="s">
+    <row r="38" s="2" customFormat="1" ht="29" spans="2:15">
+      <c r="B38" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C38" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E38" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F38" s="32" t="s">
-        <v>818</v>
-      </c>
-      <c r="G38" s="30"/>
+      <c r="D38" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E38" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F38" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="G38" s="27"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="28"/>
@@ -30997,22 +30992,24 @@
       <c r="N38" s="24"/>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A39" s="20"/>
       <c r="B39" s="31" t="s">
-        <v>779</v>
+        <v>800</v>
       </c>
       <c r="C39" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
+      <c r="G39" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="28"/>
@@ -31022,26 +31019,22 @@
       <c r="N39" s="24"/>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="70" spans="1:15">
-      <c r="A40" s="20" t="s">
-        <v>819</v>
-      </c>
-      <c r="B40" s="31" t="s">
-        <v>807</v>
-      </c>
+    <row r="40" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+      <c r="A40" s="20"/>
+      <c r="B40" s="31"/>
       <c r="C40" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D40" s="30" t="s">
-        <v>263</v>
+        <v>447</v>
       </c>
       <c r="E40" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>808</v>
-      </c>
-      <c r="G40" s="27"/>
+        <v>771</v>
+      </c>
+      <c r="F40" s="32" t="s">
+        <v>817</v>
+      </c>
+      <c r="G40" s="30"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="28"/>
@@ -31051,7 +31044,10 @@
       <c r="N40" s="24"/>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="29" spans="2:15">
+    <row r="41" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A41" s="20" t="s">
+        <v>820</v>
+      </c>
       <c r="B41" s="21" t="s">
         <v>762</v>
       </c>
@@ -31067,7 +31063,7 @@
       <c r="F41" s="28" t="s">
         <v>777</v>
       </c>
-      <c r="G41" s="27"/>
+      <c r="G41" s="43"/>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="28"/>
@@ -31077,16 +31073,16 @@
       <c r="N41" s="24"/>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="42" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A42" s="20"/>
       <c r="B42" s="31" t="s">
-        <v>800</v>
+        <v>821</v>
       </c>
       <c r="C42" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>197</v>
+        <v>356</v>
       </c>
       <c r="E42" s="30" t="s">
         <v>766</v>
@@ -31104,9 +31100,9 @@
       <c r="N42" s="24"/>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
+    <row r="43" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A43" s="20"/>
-      <c r="B43" s="31"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="29" t="s">
         <v>5</v>
       </c>
@@ -31117,9 +31113,9 @@
         <v>771</v>
       </c>
       <c r="F43" s="28" t="s">
-        <v>816</v>
-      </c>
-      <c r="G43" s="30"/>
+        <v>809</v>
+      </c>
+      <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="28"/>
@@ -31129,21 +31125,25 @@
       <c r="N43" s="24"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="31" t="s">
-        <v>779</v>
+    <row r="44" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A44" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>823</v>
       </c>
       <c r="C44" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D44" s="30" t="s">
-        <v>107</v>
+        <v>471</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="F44" s="30"/>
+        <v>824</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>774</v>
+      </c>
       <c r="G44" s="30"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
@@ -31154,79 +31154,74 @@
       <c r="N44" s="24"/>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" s="2" customFormat="1" ht="70" spans="1:15">
-      <c r="A45" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="B45" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="C45" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="E45" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F45" s="30" t="s">
-        <v>761</v>
+    <row r="45" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F45" s="28" t="s">
+        <v>826</v>
       </c>
       <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="23"/>
-    </row>
-    <row r="46" s="2" customFormat="1" ht="29" spans="2:15">
-      <c r="B46" s="21" t="s">
-        <v>762</v>
-      </c>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="46"/>
+      <c r="M45" s="47"/>
+      <c r="N45" s="46"/>
+      <c r="O45" s="45"/>
+    </row>
+    <row r="46" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A46" s="20"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="27" t="s">
-        <v>471</v>
+      <c r="D46" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>763</v>
+        <v>827</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>821</v>
+        <v>828</v>
       </c>
       <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="23"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="45"/>
+      <c r="L46" s="46"/>
+      <c r="M46" s="47"/>
+      <c r="N46" s="46"/>
+      <c r="O46" s="45"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A47" s="20"/>
       <c r="B47" s="31" t="s">
-        <v>800</v>
+        <v>829</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D47" s="30" t="s">
-        <v>197</v>
+        <v>5</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>471</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30" t="s">
-        <v>767</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="F47" s="27" t="s">
+        <v>831</v>
+      </c>
+      <c r="G47" s="27"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="28"/>
@@ -31236,75 +31231,73 @@
       <c r="N47" s="24"/>
       <c r="O47" s="23"/>
     </row>
-    <row r="48" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
-      <c r="A48" s="20"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="29" t="s">
+    <row r="48" s="42" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B48" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C48" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="30" t="s">
+      <c r="D48" s="34" t="s">
+        <v>471</v>
+      </c>
+      <c r="E48" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>832</v>
+      </c>
+      <c r="G48" s="27"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="45"/>
+      <c r="L48" s="46"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="46"/>
+      <c r="O48" s="45"/>
+    </row>
+    <row r="49" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A49" s="20"/>
+      <c r="B49" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="C49" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="45"/>
+      <c r="L49" s="46"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="46"/>
+      <c r="O49" s="45"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A50" s="20"/>
+      <c r="B50" s="21"/>
+      <c r="C50" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" s="30" t="s">
         <v>447</v>
       </c>
-      <c r="E48" s="30" t="s">
+      <c r="E50" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F48" s="32" t="s">
-        <v>818</v>
-      </c>
-      <c r="G48" s="30"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="23"/>
-    </row>
-    <row r="49" s="2" customFormat="1" ht="70" spans="1:15">
-      <c r="A49" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="B49" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="C49" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="E49" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F49" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="28"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="23"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="29" spans="2:15">
-      <c r="B50" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C50" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>763</v>
-      </c>
       <c r="F50" s="28" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -31318,22 +31311,22 @@
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A51" s="20"/>
-      <c r="B51" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="C51" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="30" t="s">
-        <v>197</v>
-      </c>
-      <c r="E51" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30" t="s">
-        <v>767</v>
-      </c>
+      <c r="B51" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E51" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="F51" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="G51" s="27"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="28"/>
@@ -31343,20 +31336,24 @@
       <c r="N51" s="24"/>
       <c r="O51" s="23"/>
     </row>
-    <row r="52" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
-      <c r="A52" s="20"/>
-      <c r="B52" s="31"/>
+    <row r="52" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A52" s="20" t="s">
+        <v>836</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>837</v>
+      </c>
       <c r="C52" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D52" s="30" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>771</v>
+        <v>824</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>818</v>
+        <v>774</v>
       </c>
       <c r="G52" s="30"/>
       <c r="H52" s="27"/>
@@ -31368,76 +31365,72 @@
       <c r="N52" s="24"/>
       <c r="O52" s="23"/>
     </row>
-    <row r="53" s="2" customFormat="1" ht="42" spans="1:15">
-      <c r="A53" s="20" t="s">
-        <v>824</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>762</v>
-      </c>
+    <row r="53" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A53" s="20"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>763</v>
+        <v>825</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>777</v>
-      </c>
-      <c r="G53" s="43"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="28"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="23"/>
-    </row>
-    <row r="54" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+        <v>826</v>
+      </c>
+      <c r="G53" s="27"/>
+      <c r="H53" s="43"/>
+      <c r="I53" s="43"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="45"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="47"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="45"/>
+    </row>
+    <row r="54" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="20"/>
-      <c r="B54" s="31" t="s">
-        <v>825</v>
-      </c>
-      <c r="C54" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D54" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="E54" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="28"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="23"/>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="B54" s="21"/>
+      <c r="C54" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="27" t="s">
+        <v>827</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>828</v>
+      </c>
+      <c r="G54" s="27"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="45"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="47"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="45"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A55" s="20"/>
-      <c r="B55" s="21"/>
+      <c r="B55" s="31" t="s">
+        <v>838</v>
+      </c>
       <c r="C55" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="30" t="s">
-        <v>447</v>
+      <c r="D55" s="33" t="s">
+        <v>471</v>
       </c>
       <c r="E55" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>812</v>
+        <v>830</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>831</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
@@ -31449,26 +31442,23 @@
       <c r="N55" s="24"/>
       <c r="O55" s="23"/>
     </row>
-    <row r="56" s="4" customFormat="1" ht="70" spans="1:15">
-      <c r="A56" s="20" t="s">
-        <v>826</v>
-      </c>
+    <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B56" s="21" t="s">
-        <v>827</v>
-      </c>
-      <c r="C56" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="C56" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="30" t="s">
+      <c r="D56" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E56" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G56" s="30"/>
+      <c r="E56" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>839</v>
+      </c>
+      <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
       <c r="J56" s="28"/>
@@ -31480,20 +31470,22 @@
     </row>
     <row r="57" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
+      <c r="B57" s="31" t="s">
+        <v>800</v>
+      </c>
       <c r="C57" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D57" s="27" t="s">
-        <v>465</v>
+        <v>35</v>
+      </c>
+      <c r="D57" s="34" t="s">
+        <v>197</v>
       </c>
       <c r="E57" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="F57" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G57" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F57" s="27"/>
+      <c r="G57" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H57" s="43"/>
       <c r="I57" s="43"/>
       <c r="J57" s="44"/>
@@ -31503,44 +31495,44 @@
       <c r="N57" s="46"/>
       <c r="O57" s="45"/>
     </row>
-    <row r="58" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="58" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
-      <c r="C58" s="26" t="s">
+      <c r="C58" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" s="27" t="s">
-        <v>831</v>
+      <c r="D58" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E58" s="30" t="s">
+        <v>771</v>
       </c>
       <c r="F58" s="28" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G58" s="27"/>
-      <c r="H58" s="43"/>
-      <c r="I58" s="43"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="45"/>
-      <c r="L58" s="46"/>
-      <c r="M58" s="47"/>
-      <c r="N58" s="46"/>
-      <c r="O58" s="45"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="28"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="24"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="24"/>
+      <c r="O58" s="23"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A59" s="20"/>
-      <c r="B59" s="31" t="s">
-        <v>833</v>
-      </c>
-      <c r="C59" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E59" s="30" t="s">
+      <c r="B59" s="21" t="s">
         <v>834</v>
+      </c>
+      <c r="C59" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E59" s="27" t="s">
+        <v>824</v>
       </c>
       <c r="F59" s="27" t="s">
         <v>835</v>
@@ -31555,50 +31547,51 @@
       <c r="N59" s="24"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" s="42" customFormat="1" ht="23" customHeight="1" spans="2:15">
+    <row r="60" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A60" s="20" t="s">
+        <v>840</v>
+      </c>
       <c r="B60" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C60" s="26" t="s">
+        <v>841</v>
+      </c>
+      <c r="C60" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="41" t="s">
+      <c r="D60" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E60" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F60" s="28" t="s">
-        <v>836</v>
-      </c>
-      <c r="G60" s="27"/>
-      <c r="H60" s="43"/>
-      <c r="I60" s="43"/>
-      <c r="J60" s="44"/>
-      <c r="K60" s="45"/>
-      <c r="L60" s="46"/>
-      <c r="M60" s="47"/>
-      <c r="N60" s="46"/>
-      <c r="O60" s="45"/>
+      <c r="E60" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G60" s="30"/>
+      <c r="H60" s="27"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="28"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="23"/>
     </row>
     <row r="61" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="20"/>
-      <c r="B61" s="31" t="s">
-        <v>800</v>
-      </c>
+      <c r="B61" s="21"/>
       <c r="C61" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D61" s="41" t="s">
-        <v>197</v>
+        <v>5</v>
+      </c>
+      <c r="D61" s="27" t="s">
+        <v>465</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27" t="s">
-        <v>767</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="F61" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="G61" s="27"/>
       <c r="H61" s="43"/>
       <c r="I61" s="43"/>
       <c r="J61" s="44"/>
@@ -31608,47 +31601,47 @@
       <c r="N61" s="46"/>
       <c r="O61" s="45"/>
     </row>
-    <row r="62" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="62" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
-      <c r="C62" s="29" t="s">
+      <c r="C62" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E62" s="30" t="s">
-        <v>771</v>
+      <c r="D62" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="27" t="s">
+        <v>827</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="28"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="23"/>
+      <c r="H62" s="43"/>
+      <c r="I62" s="43"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="47"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="45"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="20"/>
-      <c r="B63" s="21" t="s">
-        <v>838</v>
-      </c>
-      <c r="C63" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D63" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="E63" s="27" t="s">
-        <v>828</v>
+      <c r="B63" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="C63" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E63" s="30" t="s">
+        <v>844</v>
       </c>
       <c r="F63" s="27" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -31660,26 +31653,23 @@
       <c r="N63" s="24"/>
       <c r="O63" s="23"/>
     </row>
-    <row r="64" s="4" customFormat="1" ht="70" spans="1:15">
-      <c r="A64" s="20" t="s">
-        <v>840</v>
-      </c>
+    <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B64" s="21" t="s">
-        <v>841</v>
-      </c>
-      <c r="C64" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="C64" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="30" t="s">
+      <c r="D64" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E64" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="F64" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G64" s="30"/>
+      <c r="E64" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F64" s="28" t="s">
+        <v>846</v>
+      </c>
+      <c r="G64" s="27"/>
       <c r="H64" s="27"/>
       <c r="I64" s="27"/>
       <c r="J64" s="28"/>
@@ -31691,20 +31681,22 @@
     </row>
     <row r="65" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A65" s="20"/>
-      <c r="B65" s="21"/>
+      <c r="B65" s="31" t="s">
+        <v>800</v>
+      </c>
       <c r="C65" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D65" s="27" t="s">
-        <v>465</v>
+        <v>35</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>197</v>
       </c>
       <c r="E65" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="F65" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G65" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F65" s="27"/>
+      <c r="G65" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H65" s="43"/>
       <c r="I65" s="43"/>
       <c r="J65" s="44"/>
@@ -31714,44 +31706,44 @@
       <c r="N65" s="46"/>
       <c r="O65" s="45"/>
     </row>
-    <row r="66" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="66" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E66" s="27" t="s">
-        <v>831</v>
+      <c r="D66" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>771</v>
       </c>
       <c r="F66" s="28" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="G66" s="27"/>
-      <c r="H66" s="43"/>
-      <c r="I66" s="43"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="46"/>
-      <c r="M66" s="47"/>
-      <c r="N66" s="46"/>
-      <c r="O66" s="45"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="24"/>
+      <c r="O66" s="23"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A67" s="20"/>
-      <c r="B67" s="31" t="s">
-        <v>842</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E67" s="30" t="s">
+      <c r="B67" s="21" t="s">
         <v>834</v>
+      </c>
+      <c r="C67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>824</v>
       </c>
       <c r="F67" s="27" t="s">
         <v>835</v>
@@ -31766,23 +31758,26 @@
       <c r="N67" s="24"/>
       <c r="O67" s="23"/>
     </row>
-    <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+    <row r="68" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A68" s="20" t="s">
+        <v>847</v>
+      </c>
       <c r="B68" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C68" s="26" t="s">
+        <v>848</v>
+      </c>
+      <c r="C68" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="41" t="s">
+      <c r="D68" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E68" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F68" s="28" t="s">
-        <v>843</v>
-      </c>
-      <c r="G68" s="27"/>
+      <c r="E68" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G68" s="30"/>
       <c r="H68" s="27"/>
       <c r="I68" s="27"/>
       <c r="J68" s="28"/>
@@ -31794,22 +31789,20 @@
     </row>
     <row r="69" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="20"/>
-      <c r="B69" s="31" t="s">
-        <v>800</v>
-      </c>
+      <c r="B69" s="21"/>
       <c r="C69" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D69" s="41" t="s">
-        <v>197</v>
+        <v>5</v>
+      </c>
+      <c r="D69" s="27" t="s">
+        <v>465</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27" t="s">
-        <v>767</v>
-      </c>
+        <v>825</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="G69" s="27"/>
       <c r="H69" s="43"/>
       <c r="I69" s="43"/>
       <c r="J69" s="44"/>
@@ -31819,47 +31812,47 @@
       <c r="N69" s="46"/>
       <c r="O69" s="45"/>
     </row>
-    <row r="70" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="70" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
-      <c r="C70" s="29" t="s">
+      <c r="C70" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E70" s="30" t="s">
-        <v>771</v>
+      <c r="D70" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="27" t="s">
+        <v>827</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="28"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="24"/>
-      <c r="O70" s="23"/>
+      <c r="H70" s="43"/>
+      <c r="I70" s="43"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="45"/>
+      <c r="L70" s="46"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="46"/>
+      <c r="O70" s="45"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A71" s="20"/>
-      <c r="B71" s="21" t="s">
-        <v>838</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="E71" s="27" t="s">
-        <v>828</v>
+      <c r="B71" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="C71" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E71" s="30" t="s">
+        <v>844</v>
       </c>
       <c r="F71" s="27" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -31871,26 +31864,23 @@
       <c r="N71" s="24"/>
       <c r="O71" s="23"/>
     </row>
-    <row r="72" s="4" customFormat="1" ht="70" spans="1:15">
-      <c r="A72" s="20" t="s">
-        <v>844</v>
-      </c>
+    <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
       <c r="B72" s="21" t="s">
-        <v>845</v>
-      </c>
-      <c r="C72" s="29" t="s">
+        <v>762</v>
+      </c>
+      <c r="C72" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="30" t="s">
+      <c r="D72" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E72" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="F72" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G72" s="30"/>
+      <c r="E72" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>850</v>
+      </c>
+      <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
       <c r="J72" s="28"/>
@@ -31902,20 +31892,22 @@
     </row>
     <row r="73" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A73" s="20"/>
-      <c r="B73" s="21"/>
+      <c r="B73" s="31" t="s">
+        <v>800</v>
+      </c>
       <c r="C73" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="27" t="s">
-        <v>465</v>
+        <v>35</v>
+      </c>
+      <c r="D73" s="34" t="s">
+        <v>197</v>
       </c>
       <c r="E73" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="F73" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G73" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H73" s="43"/>
       <c r="I73" s="43"/>
       <c r="J73" s="44"/>
@@ -31925,47 +31917,47 @@
       <c r="N73" s="46"/>
       <c r="O73" s="45"/>
     </row>
-    <row r="74" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="74" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D74" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E74" s="27" t="s">
-        <v>831</v>
+      <c r="D74" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E74" s="30" t="s">
+        <v>771</v>
       </c>
       <c r="F74" s="28" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="G74" s="27"/>
-      <c r="H74" s="43"/>
-      <c r="I74" s="43"/>
-      <c r="J74" s="44"/>
-      <c r="K74" s="45"/>
-      <c r="L74" s="46"/>
-      <c r="M74" s="47"/>
-      <c r="N74" s="46"/>
-      <c r="O74" s="45"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="28"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="24"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="24"/>
+      <c r="O74" s="23"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A75" s="20"/>
-      <c r="B75" s="31" t="s">
-        <v>847</v>
-      </c>
-      <c r="C75" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D75" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E75" s="30" t="s">
-        <v>848</v>
+      <c r="B75" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C75" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D75" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E75" s="27" t="s">
+        <v>824</v>
       </c>
       <c r="F75" s="27" t="s">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -31977,23 +31969,22 @@
       <c r="N75" s="24"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B76" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C76" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D76" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="G76" s="27"/>
+    <row r="76" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A76" s="20"/>
+      <c r="B76" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C76" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="28"/>
@@ -32003,321 +31994,6 @@
       <c r="N76" s="24"/>
       <c r="O76" s="23"/>
     </row>
-    <row r="77" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A77" s="20"/>
-      <c r="B77" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="C77" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E77" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="H77" s="43"/>
-      <c r="I77" s="43"/>
-      <c r="J77" s="44"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="46"/>
-      <c r="M77" s="47"/>
-      <c r="N77" s="46"/>
-      <c r="O77" s="45"/>
-    </row>
-    <row r="78" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
-      <c r="A78" s="20"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F78" s="28" t="s">
-        <v>837</v>
-      </c>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="28"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="23"/>
-    </row>
-    <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A79" s="20"/>
-      <c r="B79" s="21" t="s">
-        <v>838</v>
-      </c>
-      <c r="C79" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="E79" s="27" t="s">
-        <v>828</v>
-      </c>
-      <c r="F79" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="23"/>
-    </row>
-    <row r="80" s="4" customFormat="1" ht="70" spans="1:15">
-      <c r="A80" s="20" t="s">
-        <v>851</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>852</v>
-      </c>
-      <c r="C80" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="F80" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G80" s="30"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
-      <c r="M80" s="22"/>
-      <c r="N80" s="24"/>
-      <c r="O80" s="23"/>
-    </row>
-    <row r="81" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A81" s="20"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="27" t="s">
-        <v>465</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>829</v>
-      </c>
-      <c r="F81" s="28" t="s">
-        <v>830</v>
-      </c>
-      <c r="G81" s="27"/>
-      <c r="H81" s="43"/>
-      <c r="I81" s="43"/>
-      <c r="J81" s="44"/>
-      <c r="K81" s="45"/>
-      <c r="L81" s="46"/>
-      <c r="M81" s="47"/>
-      <c r="N81" s="46"/>
-      <c r="O81" s="45"/>
-    </row>
-    <row r="82" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A82" s="20"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="E82" s="27" t="s">
-        <v>831</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="G82" s="27"/>
-      <c r="H82" s="43"/>
-      <c r="I82" s="43"/>
-      <c r="J82" s="44"/>
-      <c r="K82" s="45"/>
-      <c r="L82" s="46"/>
-      <c r="M82" s="47"/>
-      <c r="N82" s="46"/>
-      <c r="O82" s="45"/>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A83" s="20"/>
-      <c r="B83" s="31" t="s">
-        <v>853</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>848</v>
-      </c>
-      <c r="F83" s="27" t="s">
-        <v>849</v>
-      </c>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="28"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="23"/>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B84" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C84" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D84" s="41" t="s">
-        <v>471</v>
-      </c>
-      <c r="E84" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F84" s="28" t="s">
-        <v>854</v>
-      </c>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
-      <c r="M84" s="22"/>
-      <c r="N84" s="24"/>
-      <c r="O84" s="23"/>
-    </row>
-    <row r="85" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A85" s="20"/>
-      <c r="B85" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="C85" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D85" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="E85" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="H85" s="43"/>
-      <c r="I85" s="43"/>
-      <c r="J85" s="44"/>
-      <c r="K85" s="45"/>
-      <c r="L85" s="46"/>
-      <c r="M85" s="47"/>
-      <c r="N85" s="46"/>
-      <c r="O85" s="45"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
-      <c r="A86" s="20"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F86" s="28" t="s">
-        <v>837</v>
-      </c>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="28"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="23"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A87" s="20"/>
-      <c r="B87" s="21" t="s">
-        <v>838</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>828</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="28"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="23"/>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
-      <c r="A88" s="20"/>
-      <c r="B88" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="C88" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D88" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E88" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F88" s="30"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="28"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
-      <c r="M88" s="22"/>
-      <c r="N88" s="24"/>
-      <c r="O88" s="23"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -32325,367 +32001,323 @@
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="L2:O2"/>
   </mergeCells>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="118" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
-    <cfRule type="beginsWith" dxfId="0" priority="118" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N31">
-    <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N31,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N31,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N31,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N39">
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N32">
+    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N32,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N32,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N32,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N40">
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N33">
+    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37">
+    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N37,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N37,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N37,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N44">
-    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N45">
-    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N47">
+    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N47,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N47,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N47,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N49">
-    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N49,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N49,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N56">
-    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N56,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N52">
+    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N52,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N56,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N52,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N56,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N52,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N59">
-    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N59,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N55">
+    <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N55,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N59,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N55,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N59,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N55,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N62">
-    <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N58">
+    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N58,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N58,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N58,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N64">
-    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N60">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N67">
-    <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N67,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N63">
+    <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N63,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N67,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N63,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N67,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N63,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N70">
-    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N70,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N66">
+    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N70,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N70,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N72">
-    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N68">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N75">
-    <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N71">
+    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N71,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N71,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N71,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N78">
-    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N78,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N74">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N78,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N78,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N80">
-    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N80,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N76">
+    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N76,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N80,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N76,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N80,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N76,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N83">
-    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N83,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N18:N20">
+    <cfRule type="beginsWith" dxfId="0" priority="130" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N18,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N83,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N18,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N83,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N18,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N86">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N21:N23">
+    <cfRule type="beginsWith" dxfId="0" priority="127" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="129" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N88">
-    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N88,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N29:N31">
+    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N88,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N88,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N15">
-    <cfRule type="beginsWith" dxfId="0" priority="124" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N34:N36">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="126" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25:N27">
-    <cfRule type="beginsWith" dxfId="0" priority="130" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N38:N40">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N28:N30">
-    <cfRule type="beginsWith" dxfId="0" priority="127" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="129" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N36:N38">
-    <cfRule type="beginsWith" dxfId="0" priority="121" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N36,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N36,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="123" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N36,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N43">
-    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N41,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N41,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N41,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N46:N48">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N50:N52">
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N53:N55">
-    <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N4">
@@ -32699,7 +32331,7 @@
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5:N10 N32:N34">
+  <conditionalFormatting sqref="N5:N9 N25:N27">
     <cfRule type="beginsWith" dxfId="0" priority="136" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -32710,66 +32342,66 @@
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N18:N19 N21">
+  <conditionalFormatting sqref="N11:N12 N14">
     <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N18,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N18,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N18,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N57:N58 N60:N61 N63">
+  <conditionalFormatting sqref="N45:N46 N48:N49 N51">
     <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N65:N66 N68:N69 N71">
+  <conditionalFormatting sqref="N53:N54 N56:N57 N59">
     <cfRule type="beginsWith" dxfId="0" priority="64" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="66" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N73:N74 N76:N77 N79">
+  <conditionalFormatting sqref="N61:N62 N64:N65 N67">
     <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N81:N82 N84:N85 N87">
+  <conditionalFormatting sqref="N69:N70 N72:N73 N75">
     <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N69,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N69,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N69,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C10 C11 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C56 C59 C60 C61 C62 C63 C64 C67 C68 C69 C70 C71 C72 C75 C76 C77 C78 C79 C80 C83 C84 C85 C86 C87 C88 C6:C7 C12:C13 C57:C58 C65:C66 C73:C74 C81:C82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C47 C48 C49 C50 C51 C52 C55 C56 C57 C58 C59 C60 C63 C64 C65 C66 C67 C68 C71 C72 C73 C74 C75 C76 C6:C7 C45:C46 C53:C54 C61:C62 C69:C70">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D59 D60 D61 D62 D63 D64 D67 D68 D69 D70 D71 D72 D75 D76 D77 D78 D79 D80 D83 D84 D85 D86 D87 D88 D6:D7 D12:D13 D57:D58 D65:D66 D73:D74 D81:D82">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D47 D48 D49 D50 D51 D52 D55 D56 D57 D58 D59 D60 D63 D64 D65 D66 D67 D68 D71 D72 D73 D74 D75 D76 D6:D7 D45:D46 D53:D54 D61:D62 D69:D70">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -32781,12 +32413,12 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O180"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -32829,18 +32461,18 @@
       <c r="I1" s="15" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="34"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="23"/>
       <c r="L1" s="15" t="s">
         <v>732</v>
       </c>
       <c r="M1" s="15"/>
       <c r="N1" s="15"/>
-      <c r="O1" s="35"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" ht="29" customHeight="1" spans="1:15">
       <c r="A2" s="16" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -32852,12 +32484,12 @@
       <c r="I2" s="19" t="s">
         <v>758</v>
       </c>
-      <c r="J2" s="34"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="23"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="20"/>
@@ -32869,7 +32501,7 @@
       <c r="G3" s="24"/>
       <c r="H3" s="24"/>
       <c r="I3" s="24"/>
-      <c r="J3" s="38"/>
+      <c r="J3" s="39"/>
       <c r="K3" s="23"/>
       <c r="L3" s="24"/>
       <c r="M3" s="22"/>
@@ -32904,10 +32536,10 @@
       <c r="I4" s="25" t="s">
         <v>741</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="40" t="s">
         <v>742</v>
       </c>
-      <c r="K4" s="40"/>
+      <c r="K4" s="41"/>
       <c r="L4" s="25" t="s">
         <v>743</v>
       </c>
@@ -33034,7 +32666,7 @@
     <row r="9" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A9" s="20"/>
       <c r="B9" s="31" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="C9" s="26" t="s">
         <v>35</v>
@@ -33139,9 +32771,9 @@
       <c r="N12" s="24"/>
       <c r="O12" s="23"/>
     </row>
-    <row r="13" s="3" customFormat="1" ht="56" spans="1:15">
+    <row r="13" s="2" customFormat="1" ht="70" spans="1:15">
       <c r="A13" s="20" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="B13" s="31" t="s">
         <v>804</v>
@@ -33153,23 +32785,22 @@
         <v>263</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="F13" s="30" t="s">
         <v>805</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="34" customHeight="1" spans="1:15">
-      <c r="A14" s="20"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="23"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="2:15">
       <c r="B14" s="21" t="s">
         <v>784</v>
       </c>
@@ -33195,22 +32826,22 @@
       <c r="N14" s="24"/>
       <c r="O14" s="23"/>
     </row>
-    <row r="15" s="3" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="15" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
-        <v>785</v>
-      </c>
-      <c r="C15" s="29" t="s">
+        <v>791</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E15" s="30" t="s">
-        <v>786</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>787</v>
+      <c r="E15" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F15" s="28" t="s">
+        <v>793</v>
       </c>
       <c r="G15" s="27"/>
       <c r="H15" s="27"/>
@@ -33222,24 +32853,26 @@
       <c r="N15" s="24"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" s="3" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="16" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A16" s="20"/>
-      <c r="B16" s="21" t="s">
-        <v>788</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E16" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F16" s="30" t="s">
-        <v>790</v>
-      </c>
-      <c r="G16" s="27"/>
+      <c r="B16" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G16" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="28"/>
@@ -33249,24 +32882,24 @@
       <c r="N16" s="24"/>
       <c r="O16" s="23"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
+    <row r="17" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
       <c r="A17" s="20"/>
-      <c r="B17" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C17" s="7" t="s">
+      <c r="B17" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="G17" s="27"/>
+      <c r="E17" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>770</v>
+      </c>
+      <c r="G17" s="30"/>
       <c r="H17" s="27"/>
       <c r="I17" s="27"/>
       <c r="J17" s="28"/>
@@ -33276,26 +32909,22 @@
       <c r="N17" s="24"/>
       <c r="O17" s="23"/>
     </row>
-    <row r="18" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="18" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A18" s="20"/>
-      <c r="B18" s="31" t="s">
-        <v>825</v>
-      </c>
-      <c r="C18" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G18" s="27" t="s">
-        <v>767</v>
-      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E18" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F18" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="G18" s="27"/>
       <c r="H18" s="27"/>
       <c r="I18" s="27"/>
       <c r="J18" s="28"/>
@@ -33305,22 +32934,22 @@
       <c r="N18" s="24"/>
       <c r="O18" s="23"/>
     </row>
-    <row r="19" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="19" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A19" s="20"/>
       <c r="B19" s="31" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="C19" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="30" t="s">
-        <v>471</v>
+        <v>49</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>769</v>
+        <v>802</v>
       </c>
       <c r="F19" s="30" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
@@ -33332,22 +32961,22 @@
       <c r="N19" s="24"/>
       <c r="O19" s="23"/>
     </row>
-    <row r="20" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
+    <row r="20" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
+      <c r="B20" s="31" t="s">
+        <v>779</v>
+      </c>
       <c r="C20" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D20" s="30" t="s">
-        <v>447</v>
+        <v>107</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>801</v>
-      </c>
-      <c r="G20" s="27"/>
+        <v>752</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
       <c r="H20" s="27"/>
       <c r="I20" s="27"/>
       <c r="J20" s="28"/>
@@ -33357,49 +32986,52 @@
       <c r="N20" s="24"/>
       <c r="O20" s="23"/>
     </row>
-    <row r="21" s="3" customFormat="1" ht="28" spans="1:15">
-      <c r="A21" s="20"/>
+    <row r="21" s="3" customFormat="1" ht="42" spans="1:15">
+      <c r="A21" s="20" t="s">
+        <v>853</v>
+      </c>
       <c r="B21" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C21" s="26" t="s">
+        <v>782</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>761</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="2:15">
+      <c r="B22" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C22" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>802</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G21" s="30"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
-    </row>
-    <row r="22" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="C22" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E22" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
+      <c r="D22" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>764</v>
+      </c>
+      <c r="G22" s="27"/>
       <c r="H22" s="27"/>
       <c r="I22" s="27"/>
       <c r="J22" s="28"/>
@@ -33409,24 +33041,22 @@
       <c r="N22" s="24"/>
       <c r="O22" s="23"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="70" spans="1:15">
-      <c r="A23" s="20" t="s">
-        <v>857</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="E23" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="F23" s="30" t="s">
-        <v>808</v>
+    <row r="23" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F23" s="28" t="s">
+        <v>854</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27"/>
@@ -33438,23 +33068,26 @@
       <c r="N23" s="24"/>
       <c r="O23" s="23"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="2:15">
-      <c r="B24" s="21" t="s">
-        <v>784</v>
+    <row r="24" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A24" s="20"/>
+      <c r="B24" s="31" t="s">
+        <v>821</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D24" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="F24" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G24" s="27"/>
+        <v>356</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="28"/>
@@ -33464,22 +33097,22 @@
       <c r="N24" s="24"/>
       <c r="O24" s="23"/>
     </row>
-    <row r="25" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
+    <row r="25" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A25" s="20"/>
-      <c r="B25" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="B25" s="31" t="s">
+        <v>768</v>
+      </c>
+      <c r="C25" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E25" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F25" s="28" t="s">
-        <v>793</v>
+      <c r="E25" s="30" t="s">
+        <v>769</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>770</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -33491,26 +33124,22 @@
       <c r="N25" s="24"/>
       <c r="O25" s="23"/>
     </row>
-    <row r="26" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="26" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A26" s="20"/>
-      <c r="B26" s="31" t="s">
-        <v>825</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G26" s="27" t="s">
-        <v>767</v>
-      </c>
+      <c r="B26" s="21"/>
+      <c r="C26" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E26" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F26" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="G26" s="27"/>
       <c r="H26" s="27"/>
       <c r="I26" s="27"/>
       <c r="J26" s="28"/>
@@ -33520,22 +33149,22 @@
       <c r="N26" s="24"/>
       <c r="O26" s="23"/>
     </row>
-    <row r="27" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+    <row r="27" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A27" s="20"/>
       <c r="B27" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="C27" s="29" t="s">
+        <v>773</v>
+      </c>
+      <c r="C27" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E27" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F27" s="30" t="s">
-        <v>770</v>
+      <c r="D27" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>775</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="27"/>
@@ -33547,20 +33176,24 @@
       <c r="N27" s="24"/>
       <c r="O27" s="23"/>
     </row>
-    <row r="28" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="29" t="s">
+    <row r="28" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A28" s="20" t="s">
+        <v>856</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>784</v>
+      </c>
+      <c r="C28" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E28" s="30" t="s">
-        <v>771</v>
+      <c r="D28" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>763</v>
       </c>
       <c r="F28" s="28" t="s">
-        <v>801</v>
+        <v>764</v>
       </c>
       <c r="G28" s="27"/>
       <c r="H28" s="27"/>
@@ -33572,22 +33205,22 @@
       <c r="N28" s="24"/>
       <c r="O28" s="23"/>
     </row>
-    <row r="29" s="2" customFormat="1" ht="28" spans="1:15">
+    <row r="29" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A29" s="20"/>
-      <c r="B29" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="30" t="s">
-        <v>802</v>
-      </c>
-      <c r="F29" s="30" t="s">
-        <v>775</v>
+      <c r="D29" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>793</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -33599,22 +33232,26 @@
       <c r="N29" s="24"/>
       <c r="O29" s="23"/>
     </row>
-    <row r="30" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="30" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="20"/>
       <c r="B30" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="C30" s="29" t="s">
+        <v>857</v>
+      </c>
+      <c r="C30" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="30" t="s">
-        <v>752</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
+      <c r="D30" s="27" t="s">
+        <v>367</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G30" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H30" s="27"/>
       <c r="I30" s="27"/>
       <c r="J30" s="28"/>
@@ -33624,50 +33261,47 @@
       <c r="N30" s="24"/>
       <c r="O30" s="23"/>
     </row>
-    <row r="31" s="3" customFormat="1" ht="42" spans="1:15">
-      <c r="A31" s="20" t="s">
-        <v>858</v>
-      </c>
+    <row r="31" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+      <c r="A31" s="20"/>
       <c r="B31" s="31" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>263</v>
+        <v>471</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>756</v>
+        <v>769</v>
       </c>
       <c r="F31" s="30" t="s">
-        <v>761</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="10"/>
-    </row>
-    <row r="32" s="2" customFormat="1" spans="2:15">
-      <c r="B32" s="21" t="s">
-        <v>784</v>
-      </c>
-      <c r="C32" s="26" t="s">
+        <v>770</v>
+      </c>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="23"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>763</v>
+      <c r="D32" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E32" s="30" t="s">
+        <v>771</v>
       </c>
       <c r="F32" s="28" t="s">
-        <v>764</v>
+        <v>801</v>
       </c>
       <c r="G32" s="27"/>
       <c r="H32" s="27"/>
@@ -33679,24 +33313,24 @@
       <c r="N32" s="24"/>
       <c r="O32" s="23"/>
     </row>
-    <row r="33" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
+    <row r="33" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A33" s="20"/>
-      <c r="B33" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C33" s="7" t="s">
+      <c r="B33" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C33" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F33" s="28" t="s">
-        <v>859</v>
-      </c>
-      <c r="G33" s="27"/>
+      <c r="D33" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="F33" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G33" s="30"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="28"/>
@@ -33706,26 +33340,26 @@
       <c r="N33" s="24"/>
       <c r="O33" s="23"/>
     </row>
-    <row r="34" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="31" t="s">
-        <v>825</v>
+    <row r="34" s="2" customFormat="1" ht="70" spans="1:15">
+      <c r="A34" s="20" t="s">
+        <v>858</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>784</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D34" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E34" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>767</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>763</v>
+      </c>
+      <c r="F34" s="28" t="s">
+        <v>808</v>
+      </c>
+      <c r="G34" s="27"/>
       <c r="H34" s="27"/>
       <c r="I34" s="27"/>
       <c r="J34" s="28"/>
@@ -33735,22 +33369,22 @@
       <c r="N34" s="24"/>
       <c r="O34" s="23"/>
     </row>
-    <row r="35" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="35" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A35" s="20"/>
-      <c r="B35" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="C35" s="29" t="s">
+      <c r="B35" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="30" t="s">
+      <c r="D35" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E35" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F35" s="30" t="s">
-        <v>770</v>
+      <c r="E35" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F35" s="28" t="s">
+        <v>793</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -33762,22 +33396,26 @@
       <c r="N35" s="24"/>
       <c r="O35" s="23"/>
     </row>
-    <row r="36" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
+    <row r="36" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A36" s="20"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E36" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F36" s="28" t="s">
-        <v>801</v>
-      </c>
-      <c r="G36" s="27"/>
+      <c r="B36" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E36" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G36" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H36" s="27"/>
       <c r="I36" s="27"/>
       <c r="J36" s="28"/>
@@ -33787,24 +33425,22 @@
       <c r="N36" s="24"/>
       <c r="O36" s="23"/>
     </row>
-    <row r="37" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="37" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A37" s="20"/>
-      <c r="B37" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C37" s="26" t="s">
+      <c r="B37" s="21"/>
+      <c r="C37" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D37" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="F37" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G37" s="30"/>
+      <c r="D37" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E37" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="G37" s="27"/>
       <c r="H37" s="27"/>
       <c r="I37" s="27"/>
       <c r="J37" s="28"/>
@@ -33814,26 +33450,20 @@
       <c r="N37" s="24"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="42" spans="1:15">
-      <c r="A38" s="20" t="s">
-        <v>861</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>784</v>
-      </c>
-      <c r="C38" s="26" t="s">
+    <row r="38" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G38" s="27"/>
+      <c r="D38" s="30" t="s">
+        <v>397</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="28"/>
@@ -33843,22 +33473,24 @@
       <c r="N38" s="24"/>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
-      <c r="A39" s="20"/>
+    <row r="39" s="2" customFormat="1" ht="56" spans="1:15">
+      <c r="A39" s="20" t="s">
+        <v>859</v>
+      </c>
       <c r="B39" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C39" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="27" t="s">
         <v>471</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>792</v>
+        <v>763</v>
       </c>
       <c r="F39" s="28" t="s">
-        <v>793</v>
+        <v>764</v>
       </c>
       <c r="G39" s="27"/>
       <c r="H39" s="27"/>
@@ -33870,26 +33502,24 @@
       <c r="N39" s="24"/>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="40" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
       <c r="A40" s="20"/>
-      <c r="B40" s="31" t="s">
-        <v>862</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="27" t="s">
-        <v>367</v>
-      </c>
-      <c r="E40" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G40" s="27" t="s">
-        <v>767</v>
-      </c>
+      <c r="B40" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>792</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>860</v>
+      </c>
+      <c r="G40" s="27"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="28"/>
@@ -33899,24 +33529,26 @@
       <c r="N40" s="24"/>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="41" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A41" s="20"/>
       <c r="B41" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E41" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F41" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="G41" s="27"/>
+        <v>821</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="G41" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="28"/>
@@ -33926,20 +33558,22 @@
       <c r="N41" s="24"/>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
+    <row r="42" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A42" s="20"/>
-      <c r="B42" s="21"/>
+      <c r="B42" s="31" t="s">
+        <v>768</v>
+      </c>
       <c r="C42" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F42" s="28" t="s">
-        <v>801</v>
+        <v>769</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>770</v>
       </c>
       <c r="G42" s="27"/>
       <c r="H42" s="27"/>
@@ -33951,24 +33585,22 @@
       <c r="N42" s="24"/>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="43" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
       <c r="A43" s="20"/>
-      <c r="B43" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C43" s="26" t="s">
+      <c r="B43" s="21"/>
+      <c r="C43" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E43" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="F43" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G43" s="30"/>
+      <c r="D43" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E43" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F43" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="G43" s="27"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="28"/>
@@ -33978,26 +33610,24 @@
       <c r="N43" s="24"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" s="2" customFormat="1" ht="70" spans="1:15">
-      <c r="A44" s="20" t="s">
-        <v>863</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>784</v>
+    <row r="44" s="3" customFormat="1" ht="28" spans="1:15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="31" t="s">
+        <v>773</v>
       </c>
       <c r="C44" s="26" t="s">
         <v>5</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="F44" s="28" t="s">
-        <v>811</v>
-      </c>
-      <c r="G44" s="27"/>
+        <v>49</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="F44" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G44" s="30"/>
       <c r="H44" s="27"/>
       <c r="I44" s="27"/>
       <c r="J44" s="28"/>
@@ -34007,10 +33637,12 @@
       <c r="N44" s="24"/>
       <c r="O44" s="23"/>
     </row>
-    <row r="45" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
-      <c r="A45" s="20"/>
+    <row r="45" ht="70" spans="1:6">
+      <c r="A45" s="20" t="s">
+        <v>861</v>
+      </c>
       <c r="B45" s="21" t="s">
-        <v>791</v>
+        <v>862</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>5</v>
@@ -34018,42 +33650,27 @@
       <c r="D45" s="8" t="s">
         <v>471</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>792</v>
+      <c r="E45" s="30" t="s">
+        <v>763</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>793</v>
-      </c>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="28"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="23"/>
-    </row>
-    <row r="46" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="31" t="s">
-        <v>825</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D46" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G46" s="27" t="s">
-        <v>767</v>
-      </c>
+        <v>764</v>
+      </c>
+    </row>
+    <row r="46" s="4" customFormat="1" ht="15.5" spans="3:15">
+      <c r="C46" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>824</v>
+      </c>
+      <c r="F46" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G46" s="30"/>
       <c r="H46" s="27"/>
       <c r="I46" s="27"/>
       <c r="J46" s="28"/>
@@ -34063,22 +33680,22 @@
       <c r="N46" s="24"/>
       <c r="O46" s="23"/>
     </row>
-    <row r="47" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
+    <row r="47" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A47" s="20"/>
       <c r="B47" s="21"/>
       <c r="C47" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D47" s="30" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F47" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="G47" s="27"/>
+        <v>863</v>
+      </c>
+      <c r="F47" s="32" t="s">
+        <v>826</v>
+      </c>
+      <c r="G47" s="30"/>
       <c r="H47" s="27"/>
       <c r="I47" s="27"/>
       <c r="J47" s="28"/>
@@ -34088,19 +33705,21 @@
       <c r="N47" s="24"/>
       <c r="O47" s="23"/>
     </row>
-    <row r="48" s="3" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="48" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A48" s="20"/>
-      <c r="B48" s="31"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="30" t="s">
-        <v>397</v>
+      <c r="D48" s="33" t="s">
+        <v>49</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="F48" s="30"/>
+        <v>827</v>
+      </c>
+      <c r="F48" s="32" t="s">
+        <v>864</v>
+      </c>
       <c r="G48" s="30"/>
       <c r="H48" s="27"/>
       <c r="I48" s="27"/>
@@ -34111,26 +33730,24 @@
       <c r="N48" s="24"/>
       <c r="O48" s="23"/>
     </row>
-    <row r="49" s="2" customFormat="1" ht="56" spans="1:15">
-      <c r="A49" s="20" t="s">
-        <v>864</v>
-      </c>
+    <row r="49" customFormat="1" ht="20" customHeight="1" spans="1:15">
+      <c r="A49" s="20"/>
       <c r="B49" s="21" t="s">
-        <v>784</v>
-      </c>
-      <c r="C49" s="26" t="s">
+        <v>865</v>
+      </c>
+      <c r="C49" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="33" t="s">
         <v>471</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>764</v>
-      </c>
-      <c r="G49" s="27"/>
+      <c r="E49" s="30" t="s">
+        <v>866</v>
+      </c>
+      <c r="F49" s="32" t="s">
+        <v>867</v>
+      </c>
+      <c r="G49" s="30"/>
       <c r="H49" s="27"/>
       <c r="I49" s="27"/>
       <c r="J49" s="28"/>
@@ -34140,22 +33757,22 @@
       <c r="N49" s="24"/>
       <c r="O49" s="23"/>
     </row>
-    <row r="50" s="3" customFormat="1" ht="172" customHeight="1" spans="1:15">
+    <row r="50" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A50" s="20"/>
       <c r="B50" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C50" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C50" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="30" t="s">
         <v>471</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>792</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>865</v>
+      <c r="E50" s="30" t="s">
+        <v>789</v>
+      </c>
+      <c r="F50" s="30" t="s">
+        <v>868</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -34167,26 +33784,24 @@
       <c r="N50" s="24"/>
       <c r="O50" s="23"/>
     </row>
-    <row r="51" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="51" customFormat="1" ht="116" spans="1:15">
       <c r="A51" s="20"/>
-      <c r="B51" s="31" t="s">
-        <v>825</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D51" s="27" t="s">
-        <v>356</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>766</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>795</v>
-      </c>
-      <c r="G51" s="27" t="s">
-        <v>767</v>
-      </c>
+      <c r="B51" s="21" t="s">
+        <v>791</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E51" s="30" t="s">
+        <v>792</v>
+      </c>
+      <c r="F51" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="G51" s="30"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="28"/>
@@ -34196,25 +33811,27 @@
       <c r="N51" s="24"/>
       <c r="O51" s="23"/>
     </row>
-    <row r="52" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="52" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A52" s="20"/>
       <c r="B52" s="31" t="s">
-        <v>768</v>
+        <v>821</v>
       </c>
       <c r="C52" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="30" t="s">
-        <v>471</v>
+        <v>35</v>
+      </c>
+      <c r="D52" s="33" t="s">
+        <v>356</v>
       </c>
       <c r="E52" s="30" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F52" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
+        <v>795</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H52" s="30"/>
       <c r="I52" s="27"/>
       <c r="J52" s="28"/>
       <c r="K52" s="23"/>
@@ -34223,20 +33840,22 @@
       <c r="N52" s="24"/>
       <c r="O52" s="23"/>
     </row>
-    <row r="53" s="3" customFormat="1" ht="181" customHeight="1" spans="1:15">
+    <row r="53" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A53" s="20"/>
-      <c r="B53" s="21"/>
+      <c r="B53" s="31" t="s">
+        <v>768</v>
+      </c>
       <c r="C53" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="30" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>801</v>
+        <v>769</v>
+      </c>
+      <c r="F53" s="30" t="s">
+        <v>770</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="27"/>
@@ -34248,24 +33867,22 @@
       <c r="N53" s="24"/>
       <c r="O53" s="23"/>
     </row>
-    <row r="54" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="54" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A54" s="20"/>
-      <c r="B54" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C54" s="26" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="F54" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G54" s="30"/>
+      <c r="D54" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="G54" s="27"/>
       <c r="H54" s="27"/>
       <c r="I54" s="27"/>
       <c r="J54" s="28"/>
@@ -34275,40 +33892,49 @@
       <c r="N54" s="24"/>
       <c r="O54" s="23"/>
     </row>
-    <row r="55" ht="70" spans="1:6">
-      <c r="A55" s="20" t="s">
-        <v>866</v>
-      </c>
-      <c r="B55" s="21" t="s">
-        <v>867</v>
-      </c>
-      <c r="C55" s="7" t="s">
+    <row r="55" s="3" customFormat="1" ht="28" spans="1:15">
+      <c r="A55" s="20"/>
+      <c r="B55" s="31" t="s">
+        <v>773</v>
+      </c>
+      <c r="C55" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="8" t="s">
-        <v>471</v>
-      </c>
-      <c r="E55" s="30" t="s">
-        <v>763</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="56" s="4" customFormat="1" ht="15.5" spans="3:15">
-      <c r="C56" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D56" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E56" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="F56" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G56" s="30"/>
+      <c r="D55" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="27" t="s">
+        <v>855</v>
+      </c>
+      <c r="F55" s="27" t="s">
+        <v>775</v>
+      </c>
+      <c r="G55" s="30"/>
+      <c r="H55" s="27"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="23"/>
+    </row>
+    <row r="56" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A56" s="20"/>
+      <c r="B56" s="21"/>
+      <c r="C56" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="F56" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="G56" s="27"/>
       <c r="H56" s="27"/>
       <c r="I56" s="27"/>
       <c r="J56" s="28"/>
@@ -34318,20 +33944,24 @@
       <c r="N56" s="24"/>
       <c r="O56" s="23"/>
     </row>
-    <row r="57" customFormat="1" ht="20" customHeight="1" spans="1:15">
-      <c r="A57" s="20"/>
-      <c r="B57" s="21"/>
+    <row r="57" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A57" s="20" t="s">
+        <v>870</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>871</v>
+      </c>
       <c r="C57" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="30" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E57" s="30" t="s">
-        <v>868</v>
+        <v>824</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>830</v>
+        <v>774</v>
       </c>
       <c r="G57" s="30"/>
       <c r="H57" s="27"/>
@@ -34349,14 +33979,14 @@
       <c r="C58" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D58" s="33" t="s">
-        <v>49</v>
+      <c r="D58" s="30" t="s">
+        <v>465</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>869</v>
+        <v>826</v>
       </c>
       <c r="G58" s="30"/>
       <c r="H58" s="27"/>
@@ -34370,17 +34000,15 @@
     </row>
     <row r="59" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A59" s="20"/>
-      <c r="B59" s="21" t="s">
-        <v>870</v>
-      </c>
+      <c r="B59" s="21"/>
       <c r="C59" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>471</v>
+        <v>49</v>
       </c>
       <c r="E59" s="30" t="s">
-        <v>871</v>
+        <v>827</v>
       </c>
       <c r="F59" s="32" t="s">
         <v>872</v>
@@ -34395,24 +34023,24 @@
       <c r="N59" s="24"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="60" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A60" s="20"/>
       <c r="B60" s="21" t="s">
-        <v>788</v>
+        <v>873</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="30" t="s">
+      <c r="D60" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F60" s="30" t="s">
-        <v>873</v>
-      </c>
-      <c r="G60" s="27"/>
+        <v>874</v>
+      </c>
+      <c r="F60" s="32" t="s">
+        <v>875</v>
+      </c>
+      <c r="G60" s="30"/>
       <c r="H60" s="27"/>
       <c r="I60" s="27"/>
       <c r="J60" s="28"/>
@@ -34422,24 +34050,24 @@
       <c r="N60" s="24"/>
       <c r="O60" s="23"/>
     </row>
-    <row r="61" customFormat="1" ht="116" spans="1:15">
+    <row r="61" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A61" s="20"/>
       <c r="B61" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C61" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="30" t="s">
         <v>471</v>
       </c>
       <c r="E61" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="F61" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="G61" s="30"/>
+        <v>789</v>
+      </c>
+      <c r="F61" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="G61" s="27"/>
       <c r="H61" s="27"/>
       <c r="I61" s="27"/>
       <c r="J61" s="28"/>
@@ -34449,27 +34077,25 @@
       <c r="N61" s="24"/>
       <c r="O61" s="23"/>
     </row>
-    <row r="62" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="62" customFormat="1" ht="116" spans="1:15">
       <c r="A62" s="20"/>
-      <c r="B62" s="31" t="s">
-        <v>825</v>
+      <c r="B62" s="21" t="s">
+        <v>791</v>
       </c>
       <c r="C62" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D62" s="33" t="s">
-        <v>356</v>
+        <v>471</v>
       </c>
       <c r="E62" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H62" s="30"/>
+        <v>792</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>876</v>
+      </c>
+      <c r="G62" s="30"/>
+      <c r="H62" s="27"/>
       <c r="I62" s="27"/>
       <c r="J62" s="28"/>
       <c r="K62" s="23"/>
@@ -34478,25 +34104,27 @@
       <c r="N62" s="24"/>
       <c r="O62" s="23"/>
     </row>
-    <row r="63" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="63" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A63" s="20"/>
       <c r="B63" s="31" t="s">
-        <v>768</v>
+        <v>821</v>
       </c>
       <c r="C63" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>471</v>
+        <v>35</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>356</v>
       </c>
       <c r="E63" s="30" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F63" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
+        <v>795</v>
+      </c>
+      <c r="G63" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H63" s="30"/>
       <c r="I63" s="27"/>
       <c r="J63" s="28"/>
       <c r="K63" s="23"/>
@@ -34505,20 +34133,22 @@
       <c r="N63" s="24"/>
       <c r="O63" s="23"/>
     </row>
-    <row r="64" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="64" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A64" s="20"/>
-      <c r="B64" s="21"/>
+      <c r="B64" s="31" t="s">
+        <v>768</v>
+      </c>
       <c r="C64" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="30" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E64" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>801</v>
+        <v>769</v>
+      </c>
+      <c r="F64" s="30" t="s">
+        <v>770</v>
       </c>
       <c r="G64" s="27"/>
       <c r="H64" s="27"/>
@@ -34530,24 +34160,22 @@
       <c r="N64" s="24"/>
       <c r="O64" s="23"/>
     </row>
-    <row r="65" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="65" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A65" s="20"/>
-      <c r="B65" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C65" s="26" t="s">
+      <c r="B65" s="21"/>
+      <c r="C65" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="F65" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G65" s="30"/>
+      <c r="D65" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="G65" s="27"/>
       <c r="H65" s="27"/>
       <c r="I65" s="27"/>
       <c r="J65" s="28"/>
@@ -34557,22 +34185,24 @@
       <c r="N65" s="24"/>
       <c r="O65" s="23"/>
     </row>
-    <row r="66" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="66" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
+      <c r="B66" s="31" t="s">
+        <v>773</v>
+      </c>
       <c r="C66" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D66" s="41" t="s">
-        <v>302</v>
+        <v>5</v>
+      </c>
+      <c r="D66" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="E66" s="27" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="F66" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="G66" s="27"/>
+        <v>775</v>
+      </c>
+      <c r="G66" s="30"/>
       <c r="H66" s="27"/>
       <c r="I66" s="27"/>
       <c r="J66" s="28"/>
@@ -34582,26 +34212,22 @@
       <c r="N66" s="24"/>
       <c r="O66" s="23"/>
     </row>
-    <row r="67" s="4" customFormat="1" ht="70" spans="1:15">
-      <c r="A67" s="20" t="s">
-        <v>875</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>876</v>
-      </c>
-      <c r="C67" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D67" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E67" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="F67" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G67" s="30"/>
+    <row r="67" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A67" s="20"/>
+      <c r="B67" s="21"/>
+      <c r="C67" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E67" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="G67" s="27"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="28"/>
@@ -34611,20 +34237,24 @@
       <c r="N67" s="24"/>
       <c r="O67" s="23"/>
     </row>
-    <row r="68" customFormat="1" ht="20" customHeight="1" spans="1:15">
-      <c r="A68" s="20"/>
-      <c r="B68" s="21"/>
+    <row r="68" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A68" s="20" t="s">
+        <v>877</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>878</v>
+      </c>
       <c r="C68" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="30" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="E68" s="30" t="s">
-        <v>868</v>
+        <v>824</v>
       </c>
       <c r="F68" s="32" t="s">
-        <v>830</v>
+        <v>774</v>
       </c>
       <c r="G68" s="30"/>
       <c r="H68" s="27"/>
@@ -34642,14 +34272,14 @@
       <c r="C69" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="33" t="s">
-        <v>49</v>
+      <c r="D69" s="30" t="s">
+        <v>465</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>831</v>
+        <v>863</v>
       </c>
       <c r="F69" s="32" t="s">
-        <v>877</v>
+        <v>826</v>
       </c>
       <c r="G69" s="30"/>
       <c r="H69" s="27"/>
@@ -34663,20 +34293,18 @@
     </row>
     <row r="70" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A70" s="20"/>
-      <c r="B70" s="21" t="s">
-        <v>878</v>
-      </c>
+      <c r="B70" s="21"/>
       <c r="C70" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D70" s="33" t="s">
-        <v>471</v>
+        <v>49</v>
       </c>
       <c r="E70" s="30" t="s">
+        <v>827</v>
+      </c>
+      <c r="F70" s="32" t="s">
         <v>879</v>
-      </c>
-      <c r="F70" s="32" t="s">
-        <v>880</v>
       </c>
       <c r="G70" s="30"/>
       <c r="H70" s="27"/>
@@ -34688,24 +34316,24 @@
       <c r="N70" s="24"/>
       <c r="O70" s="23"/>
     </row>
-    <row r="71" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="71" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A71" s="20"/>
       <c r="B71" s="21" t="s">
-        <v>788</v>
+        <v>880</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="30" t="s">
+      <c r="D71" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>873</v>
-      </c>
-      <c r="G71" s="27"/>
+        <v>881</v>
+      </c>
+      <c r="F71" s="32" t="s">
+        <v>882</v>
+      </c>
+      <c r="G71" s="30"/>
       <c r="H71" s="27"/>
       <c r="I71" s="27"/>
       <c r="J71" s="28"/>
@@ -34715,24 +34343,24 @@
       <c r="N71" s="24"/>
       <c r="O71" s="23"/>
     </row>
-    <row r="72" customFormat="1" ht="116" spans="1:15">
+    <row r="72" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A72" s="20"/>
       <c r="B72" s="21" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="C72" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="33" t="s">
+      <c r="D72" s="30" t="s">
         <v>471</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="G72" s="30"/>
+        <v>789</v>
+      </c>
+      <c r="F72" s="30" t="s">
+        <v>868</v>
+      </c>
+      <c r="G72" s="27"/>
       <c r="H72" s="27"/>
       <c r="I72" s="27"/>
       <c r="J72" s="28"/>
@@ -34742,27 +34370,25 @@
       <c r="N72" s="24"/>
       <c r="O72" s="23"/>
     </row>
-    <row r="73" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="73" customFormat="1" ht="116" spans="1:15">
       <c r="A73" s="20"/>
-      <c r="B73" s="31" t="s">
-        <v>825</v>
+      <c r="B73" s="21" t="s">
+        <v>791</v>
       </c>
       <c r="C73" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D73" s="33" t="s">
-        <v>356</v>
+        <v>471</v>
       </c>
       <c r="E73" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F73" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H73" s="30"/>
+        <v>792</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="G73" s="30"/>
+      <c r="H73" s="27"/>
       <c r="I73" s="27"/>
       <c r="J73" s="28"/>
       <c r="K73" s="23"/>
@@ -34771,25 +34397,27 @@
       <c r="N73" s="24"/>
       <c r="O73" s="23"/>
     </row>
-    <row r="74" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="74" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="20"/>
       <c r="B74" s="31" t="s">
-        <v>768</v>
+        <v>821</v>
       </c>
       <c r="C74" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>471</v>
+        <v>35</v>
+      </c>
+      <c r="D74" s="33" t="s">
+        <v>356</v>
       </c>
       <c r="E74" s="30" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>770</v>
-      </c>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
+        <v>795</v>
+      </c>
+      <c r="G74" s="30" t="s">
+        <v>767</v>
+      </c>
+      <c r="H74" s="30"/>
       <c r="I74" s="27"/>
       <c r="J74" s="28"/>
       <c r="K74" s="23"/>
@@ -34798,20 +34426,22 @@
       <c r="N74" s="24"/>
       <c r="O74" s="23"/>
     </row>
-    <row r="75" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="75" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
       <c r="A75" s="20"/>
-      <c r="B75" s="21"/>
+      <c r="B75" s="31" t="s">
+        <v>768</v>
+      </c>
       <c r="C75" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D75" s="30" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E75" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F75" s="28" t="s">
-        <v>801</v>
+        <v>769</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>770</v>
       </c>
       <c r="G75" s="27"/>
       <c r="H75" s="27"/>
@@ -34823,24 +34453,22 @@
       <c r="N75" s="24"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="76" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A76" s="20"/>
-      <c r="B76" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C76" s="26" t="s">
+      <c r="B76" s="21"/>
+      <c r="C76" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D76" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E76" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="F76" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G76" s="30"/>
+      <c r="D76" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F76" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="G76" s="27"/>
       <c r="H76" s="27"/>
       <c r="I76" s="27"/>
       <c r="J76" s="28"/>
@@ -34850,22 +34478,24 @@
       <c r="N76" s="24"/>
       <c r="O76" s="23"/>
     </row>
-    <row r="77" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="77" s="3" customFormat="1" ht="28" spans="1:15">
       <c r="A77" s="20"/>
-      <c r="B77" s="21"/>
+      <c r="B77" s="31" t="s">
+        <v>773</v>
+      </c>
       <c r="C77" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D77" s="41" t="s">
-        <v>302</v>
+        <v>5</v>
+      </c>
+      <c r="D77" s="27" t="s">
+        <v>49</v>
       </c>
       <c r="E77" s="27" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="F77" s="27" t="s">
-        <v>839</v>
-      </c>
-      <c r="G77" s="27"/>
+        <v>775</v>
+      </c>
+      <c r="G77" s="30"/>
       <c r="H77" s="27"/>
       <c r="I77" s="27"/>
       <c r="J77" s="28"/>
@@ -34875,26 +34505,22 @@
       <c r="N77" s="24"/>
       <c r="O77" s="23"/>
     </row>
-    <row r="78" s="4" customFormat="1" ht="70" spans="1:15">
-      <c r="A78" s="20" t="s">
-        <v>882</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>883</v>
-      </c>
-      <c r="C78" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E78" s="30" t="s">
-        <v>828</v>
-      </c>
-      <c r="F78" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G78" s="30"/>
+    <row r="78" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A78" s="20"/>
+      <c r="B78" s="21"/>
+      <c r="C78" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D78" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>835</v>
+      </c>
+      <c r="G78" s="27"/>
       <c r="H78" s="27"/>
       <c r="I78" s="27"/>
       <c r="J78" s="28"/>
@@ -34904,21 +34530,21 @@
       <c r="N78" s="24"/>
       <c r="O78" s="23"/>
     </row>
-    <row r="79" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="79" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A79" s="20"/>
-      <c r="B79" s="21"/>
+      <c r="B79" s="31" t="s">
+        <v>779</v>
+      </c>
       <c r="C79" s="29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D79" s="30" t="s">
-        <v>465</v>
+        <v>107</v>
       </c>
       <c r="E79" s="30" t="s">
-        <v>868</v>
-      </c>
-      <c r="F79" s="32" t="s">
-        <v>830</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="F79" s="30"/>
       <c r="G79" s="30"/>
       <c r="H79" s="27"/>
       <c r="I79" s="27"/>
@@ -34929,22 +34555,14 @@
       <c r="N79" s="24"/>
       <c r="O79" s="23"/>
     </row>
-    <row r="80" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="80" ht="23" customHeight="1" spans="1:15">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
-      <c r="C80" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D80" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="E80" s="30" t="s">
-        <v>831</v>
-      </c>
-      <c r="F80" s="32" t="s">
-        <v>884</v>
-      </c>
-      <c r="G80" s="30"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="27"/>
       <c r="H80" s="27"/>
       <c r="I80" s="27"/>
       <c r="J80" s="28"/>
@@ -34954,24 +34572,14 @@
       <c r="N80" s="24"/>
       <c r="O80" s="23"/>
     </row>
-    <row r="81" customFormat="1" ht="20" customHeight="1" spans="1:15">
+    <row r="81" ht="23" customHeight="1" spans="1:15">
       <c r="A81" s="20"/>
-      <c r="B81" s="21" t="s">
-        <v>885</v>
-      </c>
-      <c r="C81" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D81" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E81" s="30" t="s">
-        <v>886</v>
-      </c>
-      <c r="F81" s="32" t="s">
-        <v>887</v>
-      </c>
-      <c r="G81" s="30"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="27"/>
+      <c r="F81" s="27"/>
+      <c r="G81" s="27"/>
       <c r="H81" s="27"/>
       <c r="I81" s="27"/>
       <c r="J81" s="28"/>
@@ -34981,23 +34589,13 @@
       <c r="N81" s="24"/>
       <c r="O81" s="23"/>
     </row>
-    <row r="82" customFormat="1" ht="30" customHeight="1" spans="1:15">
+    <row r="82" ht="23" customHeight="1" spans="1:15">
       <c r="A82" s="20"/>
-      <c r="B82" s="21" t="s">
-        <v>788</v>
-      </c>
-      <c r="C82" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E82" s="30" t="s">
-        <v>789</v>
-      </c>
-      <c r="F82" s="30" t="s">
-        <v>873</v>
-      </c>
+      <c r="B82" s="21"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="27"/>
+      <c r="F82" s="27"/>
       <c r="G82" s="27"/>
       <c r="H82" s="27"/>
       <c r="I82" s="27"/>
@@ -35008,24 +34606,14 @@
       <c r="N82" s="24"/>
       <c r="O82" s="23"/>
     </row>
-    <row r="83" customFormat="1" ht="116" spans="1:15">
+    <row r="83" ht="23" customHeight="1" spans="1:15">
       <c r="A83" s="20"/>
-      <c r="B83" s="21" t="s">
-        <v>791</v>
-      </c>
-      <c r="C83" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D83" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="E83" s="30" t="s">
-        <v>792</v>
-      </c>
-      <c r="F83" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="G83" s="30"/>
+      <c r="B83" s="21"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
       <c r="H83" s="27"/>
       <c r="I83" s="27"/>
       <c r="J83" s="28"/>
@@ -35035,27 +34623,15 @@
       <c r="N83" s="24"/>
       <c r="O83" s="23"/>
     </row>
-    <row r="84" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="84" ht="23" customHeight="1" spans="1:15">
       <c r="A84" s="20"/>
-      <c r="B84" s="31" t="s">
-        <v>825</v>
-      </c>
-      <c r="C84" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="E84" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F84" s="30" t="s">
-        <v>795</v>
-      </c>
-      <c r="G84" s="30" t="s">
-        <v>767</v>
-      </c>
-      <c r="H84" s="30"/>
+      <c r="B84" s="21"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
       <c r="I84" s="27"/>
       <c r="J84" s="28"/>
       <c r="K84" s="23"/>
@@ -35064,23 +34640,13 @@
       <c r="N84" s="24"/>
       <c r="O84" s="23"/>
     </row>
-    <row r="85" s="3" customFormat="1" ht="29" customHeight="1" spans="1:15">
+    <row r="85" ht="23" customHeight="1" spans="1:15">
       <c r="A85" s="20"/>
-      <c r="B85" s="31" t="s">
-        <v>768</v>
-      </c>
-      <c r="C85" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E85" s="30" t="s">
-        <v>769</v>
-      </c>
-      <c r="F85" s="30" t="s">
-        <v>770</v>
-      </c>
+      <c r="B85" s="21"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27"/>
+      <c r="F85" s="27"/>
       <c r="G85" s="27"/>
       <c r="H85" s="27"/>
       <c r="I85" s="27"/>
@@ -35091,21 +34657,13 @@
       <c r="N85" s="24"/>
       <c r="O85" s="23"/>
     </row>
-    <row r="86" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+    <row r="86" ht="23" customHeight="1" spans="1:15">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
-      <c r="C86" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D86" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E86" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F86" s="28" t="s">
-        <v>801</v>
-      </c>
+      <c r="C86" s="26"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="27"/>
+      <c r="F86" s="27"/>
       <c r="G86" s="27"/>
       <c r="H86" s="27"/>
       <c r="I86" s="27"/>
@@ -35116,24 +34674,14 @@
       <c r="N86" s="24"/>
       <c r="O86" s="23"/>
     </row>
-    <row r="87" s="3" customFormat="1" ht="28" spans="1:15">
+    <row r="87" ht="23" customHeight="1" spans="1:15">
       <c r="A87" s="20"/>
-      <c r="B87" s="31" t="s">
-        <v>773</v>
-      </c>
-      <c r="C87" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D87" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>860</v>
-      </c>
-      <c r="F87" s="27" t="s">
-        <v>775</v>
-      </c>
-      <c r="G87" s="30"/>
+      <c r="B87" s="21"/>
+      <c r="C87" s="26"/>
+      <c r="D87" s="27"/>
+      <c r="E87" s="27"/>
+      <c r="F87" s="27"/>
+      <c r="G87" s="27"/>
       <c r="H87" s="27"/>
       <c r="I87" s="27"/>
       <c r="J87" s="28"/>
@@ -35143,21 +34691,13 @@
       <c r="N87" s="24"/>
       <c r="O87" s="23"/>
     </row>
-    <row r="88" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="88" ht="23" customHeight="1" spans="1:15">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
-      <c r="C88" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="41" t="s">
-        <v>302</v>
-      </c>
-      <c r="E88" s="27" t="s">
-        <v>828</v>
-      </c>
-      <c r="F88" s="27" t="s">
-        <v>839</v>
-      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="27"/>
       <c r="G88" s="27"/>
       <c r="H88" s="27"/>
       <c r="I88" s="27"/>
@@ -35168,22 +34708,14 @@
       <c r="N88" s="24"/>
       <c r="O88" s="23"/>
     </row>
-    <row r="89" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
+    <row r="89" ht="23" customHeight="1" spans="1:15">
       <c r="A89" s="20"/>
-      <c r="B89" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="C89" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D89" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E89" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F89" s="30"/>
-      <c r="G89" s="30"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="26"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
       <c r="H89" s="27"/>
       <c r="I89" s="27"/>
       <c r="J89" s="28"/>
@@ -36739,176 +36271,6 @@
       <c r="M180" s="22"/>
       <c r="N180" s="24"/>
       <c r="O180" s="23"/>
-    </row>
-    <row r="181" ht="23" customHeight="1" spans="1:15">
-      <c r="A181" s="20"/>
-      <c r="B181" s="21"/>
-      <c r="C181" s="26"/>
-      <c r="D181" s="27"/>
-      <c r="E181" s="27"/>
-      <c r="F181" s="27"/>
-      <c r="G181" s="27"/>
-      <c r="H181" s="27"/>
-      <c r="I181" s="27"/>
-      <c r="J181" s="28"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
-      <c r="M181" s="22"/>
-      <c r="N181" s="24"/>
-      <c r="O181" s="23"/>
-    </row>
-    <row r="182" ht="23" customHeight="1" spans="1:15">
-      <c r="A182" s="20"/>
-      <c r="B182" s="21"/>
-      <c r="C182" s="26"/>
-      <c r="D182" s="27"/>
-      <c r="E182" s="27"/>
-      <c r="F182" s="27"/>
-      <c r="G182" s="27"/>
-      <c r="H182" s="27"/>
-      <c r="I182" s="27"/>
-      <c r="J182" s="28"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
-      <c r="M182" s="22"/>
-      <c r="N182" s="24"/>
-      <c r="O182" s="23"/>
-    </row>
-    <row r="183" ht="23" customHeight="1" spans="1:15">
-      <c r="A183" s="20"/>
-      <c r="B183" s="21"/>
-      <c r="C183" s="26"/>
-      <c r="D183" s="27"/>
-      <c r="E183" s="27"/>
-      <c r="F183" s="27"/>
-      <c r="G183" s="27"/>
-      <c r="H183" s="27"/>
-      <c r="I183" s="27"/>
-      <c r="J183" s="28"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
-      <c r="M183" s="22"/>
-      <c r="N183" s="24"/>
-      <c r="O183" s="23"/>
-    </row>
-    <row r="184" ht="23" customHeight="1" spans="1:15">
-      <c r="A184" s="20"/>
-      <c r="B184" s="21"/>
-      <c r="C184" s="26"/>
-      <c r="D184" s="27"/>
-      <c r="E184" s="27"/>
-      <c r="F184" s="27"/>
-      <c r="G184" s="27"/>
-      <c r="H184" s="27"/>
-      <c r="I184" s="27"/>
-      <c r="J184" s="28"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
-      <c r="M184" s="22"/>
-      <c r="N184" s="24"/>
-      <c r="O184" s="23"/>
-    </row>
-    <row r="185" ht="23" customHeight="1" spans="1:15">
-      <c r="A185" s="20"/>
-      <c r="B185" s="21"/>
-      <c r="C185" s="26"/>
-      <c r="D185" s="27"/>
-      <c r="E185" s="27"/>
-      <c r="F185" s="27"/>
-      <c r="G185" s="27"/>
-      <c r="H185" s="27"/>
-      <c r="I185" s="27"/>
-      <c r="J185" s="28"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
-      <c r="M185" s="22"/>
-      <c r="N185" s="24"/>
-      <c r="O185" s="23"/>
-    </row>
-    <row r="186" ht="23" customHeight="1" spans="1:15">
-      <c r="A186" s="20"/>
-      <c r="B186" s="21"/>
-      <c r="C186" s="26"/>
-      <c r="D186" s="27"/>
-      <c r="E186" s="27"/>
-      <c r="F186" s="27"/>
-      <c r="G186" s="27"/>
-      <c r="H186" s="27"/>
-      <c r="I186" s="27"/>
-      <c r="J186" s="28"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
-      <c r="M186" s="22"/>
-      <c r="N186" s="24"/>
-      <c r="O186" s="23"/>
-    </row>
-    <row r="187" ht="23" customHeight="1" spans="1:15">
-      <c r="A187" s="20"/>
-      <c r="B187" s="21"/>
-      <c r="C187" s="26"/>
-      <c r="D187" s="27"/>
-      <c r="E187" s="27"/>
-      <c r="F187" s="27"/>
-      <c r="G187" s="27"/>
-      <c r="H187" s="27"/>
-      <c r="I187" s="27"/>
-      <c r="J187" s="28"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
-      <c r="M187" s="22"/>
-      <c r="N187" s="24"/>
-      <c r="O187" s="23"/>
-    </row>
-    <row r="188" ht="23" customHeight="1" spans="1:15">
-      <c r="A188" s="20"/>
-      <c r="B188" s="21"/>
-      <c r="C188" s="26"/>
-      <c r="D188" s="27"/>
-      <c r="E188" s="27"/>
-      <c r="F188" s="27"/>
-      <c r="G188" s="27"/>
-      <c r="H188" s="27"/>
-      <c r="I188" s="27"/>
-      <c r="J188" s="28"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
-      <c r="M188" s="22"/>
-      <c r="N188" s="24"/>
-      <c r="O188" s="23"/>
-    </row>
-    <row r="189" ht="23" customHeight="1" spans="1:15">
-      <c r="A189" s="20"/>
-      <c r="B189" s="21"/>
-      <c r="C189" s="26"/>
-      <c r="D189" s="27"/>
-      <c r="E189" s="27"/>
-      <c r="F189" s="27"/>
-      <c r="G189" s="27"/>
-      <c r="H189" s="27"/>
-      <c r="I189" s="27"/>
-      <c r="J189" s="28"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
-      <c r="M189" s="22"/>
-      <c r="N189" s="24"/>
-      <c r="O189" s="23"/>
-    </row>
-    <row r="190" ht="23" customHeight="1" spans="1:15">
-      <c r="A190" s="20"/>
-      <c r="B190" s="21"/>
-      <c r="C190" s="26"/>
-      <c r="D190" s="27"/>
-      <c r="E190" s="27"/>
-      <c r="F190" s="27"/>
-      <c r="G190" s="27"/>
-      <c r="H190" s="27"/>
-      <c r="I190" s="27"/>
-      <c r="J190" s="28"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
-      <c r="M190" s="22"/>
-      <c r="N190" s="24"/>
-      <c r="O190" s="23"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -36929,257 +36291,235 @@
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N17">
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20">
+    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N34">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N24">
-    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N39">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27">
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N27,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N50">
+    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N27,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N27,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29">
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
+  <conditionalFormatting sqref="N53">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N30">
-    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N30,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N54">
+    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N30,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N30,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N32">
-    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N32,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N55">
+    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N55,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N32,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N55,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N32,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N55,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N61">
+    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N44">
-    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N49">
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N49,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N49,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N60">
-    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N63">
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N63,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N63,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N63,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64">
-    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65">
-    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N71">
-    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N71,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N66">
+    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N71,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N71,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N74">
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N72">
+    <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76">
-    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N76,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N76,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N76,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N82">
-    <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N82,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N82,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N82,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N85">
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N85,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N85,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N85,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N86">
-    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N86,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N86,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N86,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N87">
+  <conditionalFormatting sqref="N77">
     <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N87,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N77,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N87,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N77,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N87,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N77,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N12">
@@ -37193,73 +36533,62 @@
       <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15:N21">
-    <cfRule type="beginsWith" dxfId="0" priority="64" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N23:N27">
+    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="66" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33:N37">
-    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N29:N33">
+    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N39:N43">
-    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N35:N37">
+    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N45:N47">
-    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N40:N44">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50:N54">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N81:N180">
+    <cfRule type="beginsWith" dxfId="0" priority="121" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="123" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N91:N190">
-    <cfRule type="beginsWith" dxfId="0" priority="121" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N91,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N91,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="123" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N91,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1 N3:N4 N90">
+  <conditionalFormatting sqref="N1 N3:N4 N80">
     <cfRule type="beginsWith" dxfId="0" priority="124" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -37270,85 +36599,83 @@
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N25:N26 N28">
+  <conditionalFormatting sqref="N15:N16 N18">
     <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N48 N89">
+  <conditionalFormatting sqref="N38 N79">
     <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N48,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N48,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N48,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N56:N59 N66 N61:N62">
+  <conditionalFormatting sqref="N46:N49 N51:N52 N56">
     <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N56,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N56,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N56,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N67:N70 N77 N72:N73">
+  <conditionalFormatting sqref="N57:N60 N62:N63 N67">
     <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N67,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N67,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N67,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N78:N81 N88 N83:N84">
+  <conditionalFormatting sqref="N68:N71 N73:N74 N78">
     <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N78,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N78,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N78,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C10 C11 C12 C13 C14 C15 C16 C18 C19 C20 C21 C22 C23 C24 C26 C27 C28 C29 C30 C31 C32 C34 C35 C36 C37 C38 C40 C41 C42 C43 C44 C46 C47 C48 C49 C51 C52 C53 C54 C56 C59 C60 C61 C62 C63 C64 C65 C66 C70 C71 C72 C73 C74 C75 C76 C77 C81 C82 C83 C84 C85 C86 C87 C88 C89 C57:C58 C67:C69 C78:C80 C90:C190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C9 C10 C11 C12 C13 C14 C16 C17 C18 C19 C20 C21 C22 C24 C25 C26 C27 C28 C30 C31 C32 C33 C34 C36 C37 C38 C39 C41 C42 C43 C44 C46 C49 C50 C51 C52 C53 C54 C55 C56 C60 C61 C62 C63 C64 C65 C66 C67 C71 C72 C73 C74 C75 C76 C77 C78 C79 C47:C48 C57:C59 C68:C70 C80:C180">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D9 D10 D11 D12 D13 D14 D15 D16 D18 D19 D20 D21 D22 D23 D24 D26 D27 D28 D29 D30 D31 D32 D34 D35 D36 D37 D38 D40 D41 D42 D43 D44 D46 D47 D48 D49 D51 D52 D53 D54 D56 D59 D60 D61 D62 D63 D64 D65 D66 D70 D71 D72 D73 D74 D75 D76 D77 D81 D82 D83 D84 D85 D86 D87 D88 D89 D57:D58 D67:D69 D78:D80 D90:D190">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7 D9 D10 D11 D12 D13 D14 D16 D17 D18 D19 D20 D21 D22 D24 D25 D26 D27 D28 D30 D31 D32 D33 D34 D36 D37 D38 D39 D41 D42 D43 D44 D46 D49 D50 D51 D52 D53 D54 D55 D56 D60 D61 D62 D63 D64 D65 D66 D67 D71 D72 D73 D74 D75 D76 D77 D78 D79 D47:D48 D57:D59 D68:D70 D80:D180">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F5" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
     <hyperlink ref="E9" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F32" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E34" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F22" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E24" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F34" r:id="rId1" display="${api.baseUrl}account" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E36" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E16" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F45" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F28" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E30" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
     <hyperlink ref="F14" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E18" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F44" r:id="rId1" display="${api.baseUrl}account" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E46" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E26" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F55" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F38" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E40" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F24" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="F49" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
-    <hyperlink ref="E51" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="F39" r:id="rId1" display="${api.baseUrl}accounts" tooltip="https://api.gnukhata.org/login?type=user"/>
+    <hyperlink ref="E41" r:id="rId1" display="${url}" tooltip="https://api.gnukhata.org/login?type=user"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/tests/artifact/script/Account.xlsx
+++ b/tests/artifact/script/Account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="883">
   <si>
     <t>target</t>
   </si>
@@ -2550,6 +2550,9 @@
     <t>Negative - accounts/Spreadsheet(Unauthorized )</t>
   </si>
   <si>
+    <t>${api.baseUrl}accounts/spreadsheet?fystart=${spreadsheet.fystart}&amp;fyend=${spreadsheet.fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
+  </si>
+  <si>
     <t>actualReturnCode=${response}.returnCode
 actualResponseTime=${response}.elapsedTime
 actualContentType=${response}.headers.[Content-Type]
@@ -2566,23 +2569,13 @@
     <t>Negative - accounts/Spreadsheet(Valid token with Invalid endpoint and valid parameters)</t>
   </si>
   <si>
-    <t>${api.baseUrl}account/spreadsheets?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actualReturnCode=${response}.returnCode
-actualResponseTime=${response}.elapsedTime
-actualContentType=${response}.headers.[Content-Type]
-responseBody=${response}.body
-expectedReturnCode=200
-expectedResponseTime=4000
-expectedContentType=application/json
-</t>
+    <t>${api.baseUrl}accounts/spreadsheets?fystart=${spreadsheet.fystart}&amp;fyend=${spreadsheet.fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
   </si>
   <si>
     <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and Invalid parameters )</t>
   </si>
   <si>
-    <t>${api.baseUrl}account/spreadsheet?fystart=${openingbal}&amp;fyend=${openingbal}&amp;orgname=${groupcode}&amp;orgtype=${groupcode}</t>
+    <t>${api.baseUrl}accounts/spreadsheet?fystart=${openingbal}&amp;fyend=${openingbal}&amp;orgname=${groupcode}&amp;orgtype=${groupcode}</t>
   </si>
   <si>
     <t>Negative - accounts/Spreadsheet (Invalid (POST) Req)</t>
@@ -2621,7 +2614,7 @@
     <t>$(array|item|${Negative.fystart}|${counter})</t>
   </si>
   <si>
-    <t>${api.baseUrl}account/spreadsheet?fystart=${fy.start}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
+    <t>${api.baseUrl}accounts/spreadsheet?fystart=${fy.start}&amp;fyend=${spreadsheet.fyend}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
   </si>
   <si>
     <t>actualReturnCode=${response}.returnCode
@@ -2630,7 +2623,7 @@
 responseBody=${response}.body
 expectedReturnCode=200
 expectedResponseTime=3000
-expectedContentType=application/json
+expectedContentType=application/vnd.openxmlformats-officedocument.spreadsheetml.sheet
 schema=null</t>
   </si>
   <si>
@@ -2649,7 +2642,7 @@
     <t>And we can able to save the fyend value</t>
   </si>
   <si>
-    <t>${api.baseUrl}account/spreadsheet?fystart=${fystart}&amp;fyend=${fy.start}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
+    <t>${api.baseUrl}accounts/spreadsheet?fystart=${spreadsheet.fystart}&amp;fyend=${fy.start}&amp;orgname=${orgname}&amp;orgtype=${orgtype}</t>
   </si>
   <si>
     <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid orgname)</t>
@@ -2670,7 +2663,7 @@
     <t>$(array|item|${Negative.org}|${counter})</t>
   </si>
   <si>
-    <t>${api.baseUrl}account/spreadsheet?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${org.name}&amp;orgtype=${orgtype}</t>
+    <t>${api.baseUrl}accounts/spreadsheet?fystart=${spreadsheet.fystart}&amp;fyend=${spreadsheet.fyend}&amp;orgname=${org.name}&amp;orgtype=${orgtype}</t>
   </si>
   <si>
     <t>Negative - accounts/Spreadsheet(Valid token with valid endpoint and invalid orgtype)</t>
@@ -2682,7 +2675,7 @@
     <t>And we can able to save the orgtype value</t>
   </si>
   <si>
-    <t>${api.baseUrl}account/spreadsheet?fystart=${fystart}&amp;fyend=${fyend}&amp;orgname=${orgname}&amp;orgtype=${org.name}</t>
+    <t>${api.baseUrl}accounts/spreadsheet?fystart=${spreadsheet.fystart}&amp;fyend=${spreadsheet.fyend}&amp;orgname=${orgname}&amp;orgtype=${org.name}</t>
   </si>
   <si>
     <t>Negtive API's of POST Request  in Account Module</t>
@@ -2708,9 +2701,6 @@
   </si>
   <si>
     <t>Negative - accounts (Invalid PUT Request )</t>
-  </si>
-  <si>
-    <t>I will get the response using PUT Method</t>
   </si>
   <si>
     <t>Negative - accounts(Valid token with Invalid endpoint and valid parameters)</t>
@@ -26608,7 +26598,7 @@
   <sheetPr/>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D2"/>
     </sheetView>
   </sheetViews>
@@ -27405,7 +27395,7 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:D2"/>
     </sheetView>
@@ -29945,10 +29935,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O76"/>
+  <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -30634,7 +30624,7 @@
         <v>763</v>
       </c>
       <c r="F25" s="28" t="s">
-        <v>777</v>
+        <v>813</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
@@ -30686,7 +30676,7 @@
         <v>771</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="G27" s="30"/>
       <c r="H27" s="27"/>
@@ -30700,7 +30690,7 @@
     </row>
     <row r="28" s="2" customFormat="1" ht="70" spans="1:15">
       <c r="A28" s="20" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B28" s="31" t="s">
         <v>804</v>
@@ -30741,7 +30731,7 @@
         <v>763</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>777</v>
+        <v>813</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="27"/>
@@ -30792,8 +30782,8 @@
       <c r="E31" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F31" s="28" t="s">
-        <v>813</v>
+      <c r="F31" s="32" t="s">
+        <v>814</v>
       </c>
       <c r="G31" s="30"/>
       <c r="H31" s="27"/>
@@ -30832,7 +30822,7 @@
     </row>
     <row r="33" s="2" customFormat="1" ht="70" spans="1:15">
       <c r="A33" s="20" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B33" s="31" t="s">
         <v>782</v>
@@ -30873,7 +30863,7 @@
         <v>763</v>
       </c>
       <c r="F34" s="28" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="G34" s="27"/>
       <c r="H34" s="27"/>
@@ -30924,8 +30914,8 @@
       <c r="E36" s="30" t="s">
         <v>771</v>
       </c>
-      <c r="F36" s="32" t="s">
-        <v>817</v>
+      <c r="F36" s="28" t="s">
+        <v>809</v>
       </c>
       <c r="G36" s="30"/>
       <c r="H36" s="27"/>
@@ -30941,20 +30931,20 @@
       <c r="A37" s="20" t="s">
         <v>818</v>
       </c>
-      <c r="B37" s="31" t="s">
-        <v>782</v>
-      </c>
-      <c r="C37" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D37" s="30" t="s">
-        <v>263</v>
-      </c>
-      <c r="E37" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F37" s="30" t="s">
-        <v>761</v>
+      <c r="B37" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F37" s="28" t="s">
+        <v>819</v>
       </c>
       <c r="G37" s="27"/>
       <c r="H37" s="27"/>
@@ -30966,23 +30956,24 @@
       <c r="N37" s="24"/>
       <c r="O37" s="23"/>
     </row>
-    <row r="38" s="2" customFormat="1" ht="29" spans="2:15">
-      <c r="B38" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C38" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F38" s="28" t="s">
-        <v>819</v>
-      </c>
-      <c r="G38" s="27"/>
+    <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A38" s="20"/>
+      <c r="B38" s="31" t="s">
+        <v>800</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D38" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="E38" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H38" s="27"/>
       <c r="I38" s="27"/>
       <c r="J38" s="28"/>
@@ -30992,24 +30983,22 @@
       <c r="N38" s="24"/>
       <c r="O38" s="23"/>
     </row>
-    <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="39" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
       <c r="A39" s="20"/>
-      <c r="B39" s="31" t="s">
-        <v>800</v>
-      </c>
+      <c r="B39" s="31"/>
       <c r="C39" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D39" s="30" t="s">
-        <v>197</v>
+        <v>447</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30" t="s">
-        <v>767</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="F39" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="G39" s="30"/>
       <c r="H39" s="27"/>
       <c r="I39" s="27"/>
       <c r="J39" s="28"/>
@@ -31019,22 +31008,26 @@
       <c r="N39" s="24"/>
       <c r="O39" s="23"/>
     </row>
-    <row r="40" s="2" customFormat="1" ht="141" customHeight="1" spans="1:15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="29" t="s">
+    <row r="40" s="2" customFormat="1" ht="42" spans="1:15">
+      <c r="A40" s="20" t="s">
+        <v>820</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C40" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D40" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F40" s="32" t="s">
-        <v>817</v>
-      </c>
-      <c r="G40" s="30"/>
+      <c r="D40" s="27" t="s">
+        <v>471</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F40" s="28" t="s">
+        <v>813</v>
+      </c>
+      <c r="G40" s="43"/>
       <c r="H40" s="27"/>
       <c r="I40" s="27"/>
       <c r="J40" s="28"/>
@@ -31044,26 +31037,24 @@
       <c r="N40" s="24"/>
       <c r="O40" s="23"/>
     </row>
-    <row r="41" s="2" customFormat="1" ht="42" spans="1:15">
-      <c r="A41" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="B41" s="21" t="s">
-        <v>762</v>
-      </c>
-      <c r="C41" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" s="27" t="s">
-        <v>471</v>
-      </c>
-      <c r="E41" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F41" s="28" t="s">
-        <v>777</v>
-      </c>
-      <c r="G41" s="43"/>
+    <row r="41" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+      <c r="A41" s="20"/>
+      <c r="B41" s="31" t="s">
+        <v>821</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>356</v>
+      </c>
+      <c r="E41" s="30" t="s">
+        <v>766</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30" t="s">
+        <v>767</v>
+      </c>
       <c r="H41" s="27"/>
       <c r="I41" s="27"/>
       <c r="J41" s="28"/>
@@ -31073,24 +31064,22 @@
       <c r="N41" s="24"/>
       <c r="O41" s="23"/>
     </row>
-    <row r="42" s="2" customFormat="1" ht="32" customHeight="1" spans="1:15">
+    <row r="42" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A42" s="20"/>
-      <c r="B42" s="31" t="s">
-        <v>821</v>
-      </c>
+      <c r="B42" s="21"/>
       <c r="C42" s="29" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="D42" s="30" t="s">
-        <v>356</v>
+        <v>447</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>766</v>
-      </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30" t="s">
-        <v>767</v>
-      </c>
+        <v>771</v>
+      </c>
+      <c r="F42" s="28" t="s">
+        <v>809</v>
+      </c>
+      <c r="G42" s="27"/>
       <c r="H42" s="27"/>
       <c r="I42" s="27"/>
       <c r="J42" s="28"/>
@@ -31100,22 +31089,26 @@
       <c r="N42" s="24"/>
       <c r="O42" s="23"/>
     </row>
-    <row r="43" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="21"/>
+    <row r="43" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A43" s="20" t="s">
+        <v>822</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>823</v>
+      </c>
       <c r="C43" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D43" s="30" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F43" s="28" t="s">
-        <v>809</v>
-      </c>
-      <c r="G43" s="27"/>
+        <v>824</v>
+      </c>
+      <c r="F43" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G43" s="30"/>
       <c r="H43" s="27"/>
       <c r="I43" s="27"/>
       <c r="J43" s="28"/>
@@ -31125,34 +31118,30 @@
       <c r="N43" s="24"/>
       <c r="O43" s="23"/>
     </row>
-    <row r="44" s="4" customFormat="1" ht="70" spans="1:15">
-      <c r="A44" s="20" t="s">
-        <v>822</v>
-      </c>
-      <c r="B44" s="21" t="s">
-        <v>823</v>
-      </c>
-      <c r="C44" s="29" t="s">
+    <row r="44" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E44" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="F44" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G44" s="30"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="28"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="23"/>
+      <c r="D44" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E44" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F44" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="G44" s="27"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="45"/>
+      <c r="L44" s="46"/>
+      <c r="M44" s="47"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="45"/>
     </row>
     <row r="45" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A45" s="20"/>
@@ -31160,14 +31149,14 @@
       <c r="C45" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D45" s="27" t="s">
-        <v>465</v>
+      <c r="D45" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="E45" s="27" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F45" s="28" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G45" s="27"/>
       <c r="H45" s="43"/>
@@ -31179,75 +31168,77 @@
       <c r="N45" s="46"/>
       <c r="O45" s="45"/>
     </row>
-    <row r="46" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A46" s="20"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="26" t="s">
+      <c r="B46" s="31" t="s">
+        <v>829</v>
+      </c>
+      <c r="C46" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>828</v>
+      <c r="D46" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E46" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="F46" s="27" t="s">
+        <v>831</v>
       </c>
       <c r="G46" s="27"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="44"/>
-      <c r="K46" s="45"/>
-      <c r="L46" s="46"/>
-      <c r="M46" s="47"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="45"/>
-    </row>
-    <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A47" s="20"/>
-      <c r="B47" s="31" t="s">
-        <v>829</v>
-      </c>
-      <c r="C47" s="29" t="s">
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="28"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="23"/>
+    </row>
+    <row r="47" s="42" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B47" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C47" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E47" s="30" t="s">
-        <v>830</v>
-      </c>
-      <c r="F47" s="27" t="s">
-        <v>831</v>
+      <c r="E47" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F47" s="28" t="s">
+        <v>832</v>
       </c>
       <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="23"/>
-    </row>
-    <row r="48" s="42" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B48" s="21" t="s">
-        <v>762</v>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="45"/>
+      <c r="L47" s="46"/>
+      <c r="M47" s="47"/>
+      <c r="N47" s="46"/>
+      <c r="O47" s="45"/>
+    </row>
+    <row r="48" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A48" s="20"/>
+      <c r="B48" s="31" t="s">
+        <v>800</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="D48" s="34" t="s">
-        <v>471</v>
+        <v>197</v>
       </c>
       <c r="E48" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F48" s="28" t="s">
-        <v>832</v>
-      </c>
-      <c r="G48" s="27"/>
+        <v>766</v>
+      </c>
+      <c r="F48" s="27"/>
+      <c r="G48" s="27" t="s">
+        <v>767</v>
+      </c>
       <c r="H48" s="43"/>
       <c r="I48" s="43"/>
       <c r="J48" s="44"/>
@@ -31257,47 +31248,47 @@
       <c r="N48" s="46"/>
       <c r="O48" s="45"/>
     </row>
-    <row r="49" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="49" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A49" s="20"/>
-      <c r="B49" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="C49" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="E49" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="43"/>
-      <c r="J49" s="44"/>
-      <c r="K49" s="45"/>
-      <c r="L49" s="46"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="46"/>
-      <c r="O49" s="45"/>
-    </row>
-    <row r="50" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="B49" s="21"/>
+      <c r="C49" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E49" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F49" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="23"/>
+    </row>
+    <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>833</v>
+      <c r="B50" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C50" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D50" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E50" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>835</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -31309,24 +31300,26 @@
       <c r="N50" s="24"/>
       <c r="O50" s="23"/>
     </row>
-    <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A51" s="20"/>
+    <row r="51" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A51" s="20" t="s">
+        <v>836</v>
+      </c>
       <c r="B51" s="21" t="s">
-        <v>834</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E51" s="27" t="s">
+        <v>837</v>
+      </c>
+      <c r="C51" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E51" s="30" t="s">
         <v>824</v>
       </c>
-      <c r="F51" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="G51" s="27"/>
+      <c r="F51" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G51" s="30"/>
       <c r="H51" s="27"/>
       <c r="I51" s="27"/>
       <c r="J51" s="28"/>
@@ -31336,34 +31329,30 @@
       <c r="N51" s="24"/>
       <c r="O51" s="23"/>
     </row>
-    <row r="52" s="4" customFormat="1" ht="70" spans="1:15">
-      <c r="A52" s="20" t="s">
-        <v>836</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>837</v>
-      </c>
-      <c r="C52" s="29" t="s">
+    <row r="52" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A52" s="20"/>
+      <c r="B52" s="21"/>
+      <c r="C52" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D52" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E52" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="F52" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G52" s="30"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="28"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="23"/>
+      <c r="D52" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="G52" s="27"/>
+      <c r="H52" s="43"/>
+      <c r="I52" s="43"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="45"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="47"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="45"/>
     </row>
     <row r="53" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A53" s="20"/>
@@ -31371,14 +31360,14 @@
       <c r="C53" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="27" t="s">
-        <v>465</v>
+      <c r="D53" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="E53" s="27" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F53" s="28" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="G53" s="27"/>
       <c r="H53" s="43"/>
@@ -31390,47 +31379,48 @@
       <c r="N53" s="46"/>
       <c r="O53" s="45"/>
     </row>
-    <row r="54" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A54" s="20"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="26" t="s">
+      <c r="B54" s="31" t="s">
+        <v>838</v>
+      </c>
+      <c r="C54" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D54" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>828</v>
+      <c r="D54" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E54" s="30" t="s">
+        <v>830</v>
+      </c>
+      <c r="F54" s="27" t="s">
+        <v>831</v>
       </c>
       <c r="G54" s="27"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="44"/>
-      <c r="K54" s="45"/>
-      <c r="L54" s="46"/>
-      <c r="M54" s="47"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="45"/>
-    </row>
-    <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A55" s="20"/>
-      <c r="B55" s="31" t="s">
-        <v>838</v>
-      </c>
-      <c r="C55" s="29" t="s">
+      <c r="H54" s="27"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="28"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="24"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="24"/>
+      <c r="O54" s="23"/>
+    </row>
+    <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B55" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C55" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E55" s="30" t="s">
-        <v>830</v>
-      </c>
-      <c r="F55" s="27" t="s">
-        <v>831</v>
+      <c r="E55" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F55" s="28" t="s">
+        <v>839</v>
       </c>
       <c r="G55" s="27"/>
       <c r="H55" s="27"/>
@@ -31442,73 +31432,74 @@
       <c r="N55" s="24"/>
       <c r="O55" s="23"/>
     </row>
-    <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B56" s="21" t="s">
-        <v>762</v>
+    <row r="56" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A56" s="20"/>
+      <c r="B56" s="31" t="s">
+        <v>800</v>
       </c>
       <c r="C56" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E56" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="F56" s="27"/>
+      <c r="G56" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="H56" s="43"/>
+      <c r="I56" s="43"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="45"/>
+      <c r="L56" s="46"/>
+      <c r="M56" s="47"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="45"/>
+    </row>
+    <row r="57" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A57" s="20"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>839</v>
-      </c>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="23"/>
-    </row>
-    <row r="57" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A57" s="20"/>
-      <c r="B57" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="E57" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="H57" s="43"/>
-      <c r="I57" s="43"/>
-      <c r="J57" s="44"/>
-      <c r="K57" s="45"/>
-      <c r="L57" s="46"/>
-      <c r="M57" s="47"/>
-      <c r="N57" s="46"/>
-      <c r="O57" s="45"/>
-    </row>
-    <row r="58" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="D57" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E57" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F57" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="G57" s="27"/>
+      <c r="H57" s="27"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="28"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="24"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="23"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A58" s="20"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F58" s="28" t="s">
-        <v>833</v>
+      <c r="B58" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C58" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E58" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="F58" s="27" t="s">
+        <v>835</v>
       </c>
       <c r="G58" s="27"/>
       <c r="H58" s="27"/>
@@ -31520,24 +31511,26 @@
       <c r="N58" s="24"/>
       <c r="O58" s="23"/>
     </row>
-    <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A59" s="20"/>
+    <row r="59" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A59" s="20" t="s">
+        <v>840</v>
+      </c>
       <c r="B59" s="21" t="s">
-        <v>834</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E59" s="27" t="s">
+        <v>841</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E59" s="30" t="s">
         <v>824</v>
       </c>
-      <c r="F59" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="G59" s="27"/>
+      <c r="F59" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G59" s="30"/>
       <c r="H59" s="27"/>
       <c r="I59" s="27"/>
       <c r="J59" s="28"/>
@@ -31547,34 +31540,30 @@
       <c r="N59" s="24"/>
       <c r="O59" s="23"/>
     </row>
-    <row r="60" s="4" customFormat="1" ht="70" spans="1:15">
-      <c r="A60" s="20" t="s">
-        <v>840</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>841</v>
-      </c>
-      <c r="C60" s="29" t="s">
+    <row r="60" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A60" s="20"/>
+      <c r="B60" s="21"/>
+      <c r="C60" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E60" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G60" s="30"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="28"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="23"/>
+      <c r="D60" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E60" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="G60" s="27"/>
+      <c r="H60" s="43"/>
+      <c r="I60" s="43"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="47"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="45"/>
     </row>
     <row r="61" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A61" s="20"/>
@@ -31582,14 +31571,14 @@
       <c r="C61" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="27" t="s">
-        <v>465</v>
+      <c r="D61" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="E61" s="27" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F61" s="28" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="43"/>
@@ -31601,47 +31590,48 @@
       <c r="N61" s="46"/>
       <c r="O61" s="45"/>
     </row>
-    <row r="62" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A62" s="20"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="26" t="s">
+      <c r="B62" s="31" t="s">
+        <v>843</v>
+      </c>
+      <c r="C62" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D62" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>842</v>
+      <c r="D62" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E62" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>845</v>
       </c>
       <c r="G62" s="27"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="46"/>
-      <c r="M62" s="47"/>
-      <c r="N62" s="46"/>
-      <c r="O62" s="45"/>
-    </row>
-    <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A63" s="20"/>
-      <c r="B63" s="31" t="s">
-        <v>843</v>
-      </c>
-      <c r="C63" s="29" t="s">
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="28"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="23"/>
+    </row>
+    <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B63" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C63" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E63" s="30" t="s">
-        <v>844</v>
-      </c>
-      <c r="F63" s="27" t="s">
-        <v>845</v>
+      <c r="E63" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F63" s="28" t="s">
+        <v>846</v>
       </c>
       <c r="G63" s="27"/>
       <c r="H63" s="27"/>
@@ -31653,73 +31643,74 @@
       <c r="N63" s="24"/>
       <c r="O63" s="23"/>
     </row>
-    <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B64" s="21" t="s">
-        <v>762</v>
+    <row r="64" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A64" s="20"/>
+      <c r="B64" s="31" t="s">
+        <v>800</v>
       </c>
       <c r="C64" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="F64" s="27"/>
+      <c r="G64" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="H64" s="43"/>
+      <c r="I64" s="43"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="45"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="47"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="45"/>
+    </row>
+    <row r="65" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A65" s="20"/>
+      <c r="B65" s="21"/>
+      <c r="C65" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D64" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E64" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F64" s="28" t="s">
-        <v>846</v>
-      </c>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="23"/>
-    </row>
-    <row r="65" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A65" s="20"/>
-      <c r="B65" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="C65" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="E65" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="H65" s="43"/>
-      <c r="I65" s="43"/>
-      <c r="J65" s="44"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="46"/>
-      <c r="M65" s="47"/>
-      <c r="N65" s="46"/>
-      <c r="O65" s="45"/>
-    </row>
-    <row r="66" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="D65" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E65" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F65" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="G65" s="27"/>
+      <c r="H65" s="27"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="28"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="23"/>
+    </row>
+    <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A66" s="20"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D66" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E66" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F66" s="28" t="s">
-        <v>833</v>
+      <c r="B66" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C66" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E66" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>835</v>
       </c>
       <c r="G66" s="27"/>
       <c r="H66" s="27"/>
@@ -31731,24 +31722,26 @@
       <c r="N66" s="24"/>
       <c r="O66" s="23"/>
     </row>
-    <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A67" s="20"/>
+    <row r="67" s="4" customFormat="1" ht="70" spans="1:15">
+      <c r="A67" s="20" t="s">
+        <v>847</v>
+      </c>
       <c r="B67" s="21" t="s">
-        <v>834</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E67" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="C67" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="30" t="s">
+        <v>471</v>
+      </c>
+      <c r="E67" s="30" t="s">
         <v>824</v>
       </c>
-      <c r="F67" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="G67" s="27"/>
+      <c r="F67" s="32" t="s">
+        <v>774</v>
+      </c>
+      <c r="G67" s="30"/>
       <c r="H67" s="27"/>
       <c r="I67" s="27"/>
       <c r="J67" s="28"/>
@@ -31758,34 +31751,30 @@
       <c r="N67" s="24"/>
       <c r="O67" s="23"/>
     </row>
-    <row r="68" s="4" customFormat="1" ht="70" spans="1:15">
-      <c r="A68" s="20" t="s">
-        <v>847</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>848</v>
-      </c>
-      <c r="C68" s="29" t="s">
+    <row r="68" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A68" s="20"/>
+      <c r="B68" s="21"/>
+      <c r="C68" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D68" s="30" t="s">
-        <v>471</v>
-      </c>
-      <c r="E68" s="30" t="s">
-        <v>824</v>
-      </c>
-      <c r="F68" s="32" t="s">
-        <v>774</v>
-      </c>
-      <c r="G68" s="30"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="28"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="23"/>
+      <c r="D68" s="27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E68" s="27" t="s">
+        <v>825</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>826</v>
+      </c>
+      <c r="G68" s="27"/>
+      <c r="H68" s="43"/>
+      <c r="I68" s="43"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="45"/>
+      <c r="L68" s="46"/>
+      <c r="M68" s="47"/>
+      <c r="N68" s="46"/>
+      <c r="O68" s="45"/>
     </row>
     <row r="69" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A69" s="20"/>
@@ -31793,14 +31782,14 @@
       <c r="C69" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D69" s="27" t="s">
-        <v>465</v>
+      <c r="D69" s="34" t="s">
+        <v>49</v>
       </c>
       <c r="E69" s="27" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F69" s="28" t="s">
-        <v>826</v>
+        <v>842</v>
       </c>
       <c r="G69" s="27"/>
       <c r="H69" s="43"/>
@@ -31812,47 +31801,48 @@
       <c r="N69" s="46"/>
       <c r="O69" s="45"/>
     </row>
-    <row r="70" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A70" s="20"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="26" t="s">
+      <c r="B70" s="31" t="s">
+        <v>849</v>
+      </c>
+      <c r="C70" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D70" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="E70" s="27" t="s">
-        <v>827</v>
-      </c>
-      <c r="F70" s="28" t="s">
-        <v>842</v>
+      <c r="D70" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="E70" s="30" t="s">
+        <v>844</v>
+      </c>
+      <c r="F70" s="27" t="s">
+        <v>845</v>
       </c>
       <c r="G70" s="27"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="43"/>
-      <c r="J70" s="44"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="46"/>
-      <c r="M70" s="47"/>
-      <c r="N70" s="46"/>
-      <c r="O70" s="45"/>
-    </row>
-    <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A71" s="20"/>
-      <c r="B71" s="31" t="s">
-        <v>849</v>
-      </c>
-      <c r="C71" s="29" t="s">
+      <c r="H70" s="27"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="28"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="24"/>
+      <c r="O70" s="23"/>
+    </row>
+    <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
+      <c r="B71" s="21" t="s">
+        <v>762</v>
+      </c>
+      <c r="C71" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="34" t="s">
         <v>471</v>
       </c>
-      <c r="E71" s="30" t="s">
-        <v>844</v>
-      </c>
-      <c r="F71" s="27" t="s">
-        <v>845</v>
+      <c r="E71" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>850</v>
       </c>
       <c r="G71" s="27"/>
       <c r="H71" s="27"/>
@@ -31864,73 +31854,74 @@
       <c r="N71" s="24"/>
       <c r="O71" s="23"/>
     </row>
-    <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="2:15">
-      <c r="B72" s="21" t="s">
-        <v>762</v>
+    <row r="72" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A72" s="20"/>
+      <c r="B72" s="31" t="s">
+        <v>800</v>
       </c>
       <c r="C72" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D72" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="E72" s="27" t="s">
+        <v>766</v>
+      </c>
+      <c r="F72" s="27"/>
+      <c r="G72" s="27" t="s">
+        <v>767</v>
+      </c>
+      <c r="H72" s="43"/>
+      <c r="I72" s="43"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="45"/>
+      <c r="L72" s="46"/>
+      <c r="M72" s="47"/>
+      <c r="N72" s="46"/>
+      <c r="O72" s="45"/>
+    </row>
+    <row r="73" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="A73" s="20"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="34" t="s">
-        <v>471</v>
-      </c>
-      <c r="E72" s="27" t="s">
-        <v>763</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>850</v>
-      </c>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="28"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="23"/>
-    </row>
-    <row r="73" s="42" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A73" s="20"/>
-      <c r="B73" s="31" t="s">
-        <v>800</v>
-      </c>
-      <c r="C73" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="D73" s="34" t="s">
-        <v>197</v>
-      </c>
-      <c r="E73" s="27" t="s">
-        <v>766</v>
-      </c>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27" t="s">
-        <v>767</v>
-      </c>
-      <c r="H73" s="43"/>
-      <c r="I73" s="43"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="45"/>
-      <c r="L73" s="46"/>
-      <c r="M73" s="47"/>
-      <c r="N73" s="46"/>
-      <c r="O73" s="45"/>
-    </row>
-    <row r="74" s="2" customFormat="1" ht="134" customHeight="1" spans="1:15">
+      <c r="D73" s="30" t="s">
+        <v>447</v>
+      </c>
+      <c r="E73" s="30" t="s">
+        <v>771</v>
+      </c>
+      <c r="F73" s="28" t="s">
+        <v>833</v>
+      </c>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="28"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="24"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="24"/>
+      <c r="O73" s="23"/>
+    </row>
+    <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A74" s="20"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="D74" s="30" t="s">
-        <v>447</v>
-      </c>
-      <c r="E74" s="30" t="s">
-        <v>771</v>
-      </c>
-      <c r="F74" s="28" t="s">
-        <v>833</v>
+      <c r="B74" s="21" t="s">
+        <v>834</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D74" s="34" t="s">
+        <v>302</v>
+      </c>
+      <c r="E74" s="27" t="s">
+        <v>824</v>
+      </c>
+      <c r="F74" s="27" t="s">
+        <v>835</v>
       </c>
       <c r="G74" s="27"/>
       <c r="H74" s="27"/>
@@ -31942,24 +31933,22 @@
       <c r="N74" s="24"/>
       <c r="O74" s="23"/>
     </row>
-    <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+    <row r="75" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
       <c r="A75" s="20"/>
-      <c r="B75" s="21" t="s">
-        <v>834</v>
-      </c>
-      <c r="C75" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="D75" s="34" t="s">
-        <v>302</v>
-      </c>
-      <c r="E75" s="27" t="s">
-        <v>824</v>
-      </c>
-      <c r="F75" s="27" t="s">
-        <v>835</v>
-      </c>
-      <c r="G75" s="27"/>
+      <c r="B75" s="31" t="s">
+        <v>779</v>
+      </c>
+      <c r="C75" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="30" t="s">
+        <v>756</v>
+      </c>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
       <c r="H75" s="27"/>
       <c r="I75" s="27"/>
       <c r="J75" s="28"/>
@@ -31969,31 +31958,6 @@
       <c r="N75" s="24"/>
       <c r="O75" s="23"/>
     </row>
-    <row r="76" s="2" customFormat="1" ht="27" customHeight="1" spans="1:15">
-      <c r="A76" s="20"/>
-      <c r="B76" s="31" t="s">
-        <v>779</v>
-      </c>
-      <c r="C76" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="E76" s="30" t="s">
-        <v>756</v>
-      </c>
-      <c r="F76" s="30"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="28"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
-      <c r="M76" s="22"/>
-      <c r="N76" s="24"/>
-      <c r="O76" s="23"/>
-    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -32002,406 +31966,395 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N10">
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N10,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N10,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N10,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="beginsWith" dxfId="0" priority="118" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="130" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="112" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="114" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="121" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="123" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N32">
-    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N32,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N32,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N32,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N33">
-    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N37">
-    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N37,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N43">
+    <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N43,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N37,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N43,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N37,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N43,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N44">
+  <conditionalFormatting sqref="N46">
+    <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49">
+    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N49,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N49,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N49,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N51">
     <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N51,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N51,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N51,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N47">
+  <conditionalFormatting sqref="N54">
     <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N47,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N47,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N47,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N50">
+  <conditionalFormatting sqref="N57">
     <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N52">
+  <conditionalFormatting sqref="N59">
     <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N52,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N59,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N52,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N59,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N52,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N59,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N55">
+  <conditionalFormatting sqref="N62">
     <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N55,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N62,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N55,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N62,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N55,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N62,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N58">
+  <conditionalFormatting sqref="N65">
     <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N58,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N58,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N58,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N60">
+  <conditionalFormatting sqref="N67">
     <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N67,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N67,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N67,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N63">
+  <conditionalFormatting sqref="N70">
     <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N63,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N70,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N63,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N70,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N63,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N70,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N66">
+  <conditionalFormatting sqref="N73">
     <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N73,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N73,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N73,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N68">
-    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N75">
+    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N71">
-    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N71,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N71,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N71,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N74">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N74,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N74,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N74,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N76">
-    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N76,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N76,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N76,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N18:N20">
-    <cfRule type="beginsWith" dxfId="0" priority="130" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="142" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N18,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="143" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N18,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="144" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N18,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N23">
-    <cfRule type="beginsWith" dxfId="0" priority="127" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="139" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="140" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="129" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="141" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N29:N31">
-    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="118" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N34:N36">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:N40">
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N37:N39">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N37,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N37,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N37,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N41:N43">
-    <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N41,LEN("WARN"))="WARN"</formula>
+  <conditionalFormatting sqref="N40:N42">
+    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N41,LEN("FAIL"))="FAIL"</formula>
+    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N41,LEN("PASS"))="PASS"</formula>
+    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N4">
-    <cfRule type="beginsWith" dxfId="2" priority="144" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="156" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="143" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="155" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="142" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="154" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5:N9 N25:N27">
-    <cfRule type="beginsWith" dxfId="0" priority="136" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="148" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="137" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="149" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="138" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="150" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N12 N14">
-    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N11,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N11,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N11,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N45:N46 N48:N49 N51">
+  <conditionalFormatting sqref="N44:N45 N50 N47:N48">
+    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N44,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N44,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N44,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N52:N53 N58 N55:N56">
     <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N45,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N52,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N45,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N52,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N45,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N52,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N53:N54 N56:N57 N59">
+  <conditionalFormatting sqref="N60:N61 N66 N63:N64">
     <cfRule type="beginsWith" dxfId="0" priority="64" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N60,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="65" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N60,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="66" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N60,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N61:N62 N64:N65 N67">
+  <conditionalFormatting sqref="N68:N69 N74 N71:N72">
     <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N69:N70 N72:N73 N75">
-    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N69,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N69,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N69,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C44 C47 C48 C49 C50 C51 C52 C55 C56 C57 C58 C59 C60 C63 C64 C65 C66 C67 C68 C71 C72 C73 C74 C75 C76 C6:C7 C45:C46 C53:C54 C61:C62 C69:C70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C8 C9 C10 C11 C12 C13 C14 C15 C16 C17 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C43 C46 C47 C48 C49 C50 C51 C54 C55 C56 C57 C58 C59 C62 C63 C64 C65 C66 C67 C70 C71 C72 C73 C74 C75 C6:C7 C44:C45 C52:C53 C60:C61 C68:C69">
       <formula1>target</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D47 D48 D49 D50 D51 D52 D55 D56 D57 D58 D59 D60 D63 D64 D65 D66 D67 D68 D71 D72 D73 D74 D75 D76 D6:D7 D45:D46 D53:D54 D61:D62 D69:D70">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D46 D47 D48 D49 D50 D51 D54 D55 D56 D57 D58 D59 D62 D63 D64 D65 D66 D67 D70 D71 D72 D73 D74 D75 D6:D7 D44:D45 D52:D53 D60:D61 D68:D69">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
   </dataValidations>
@@ -32415,10 +32368,10 @@
   <sheetPr/>
   <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -33235,7 +33188,7 @@
     <row r="30" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="20"/>
       <c r="B30" s="31" t="s">
-        <v>857</v>
+        <v>811</v>
       </c>
       <c r="C30" s="26" t="s">
         <v>35</v>
@@ -33342,7 +33295,7 @@
     </row>
     <row r="34" s="2" customFormat="1" ht="70" spans="1:15">
       <c r="A34" s="20" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B34" s="21" t="s">
         <v>784</v>
@@ -33475,7 +33428,7 @@
     </row>
     <row r="39" s="2" customFormat="1" ht="56" spans="1:15">
       <c r="A39" s="20" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B39" s="21" t="s">
         <v>784</v>
@@ -33517,7 +33470,7 @@
         <v>792</v>
       </c>
       <c r="F40" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G40" s="27"/>
       <c r="H40" s="27"/>
@@ -33639,10 +33592,10 @@
     </row>
     <row r="45" ht="70" spans="1:6">
       <c r="A45" s="20" t="s">
+        <v>860</v>
+      </c>
+      <c r="B45" s="21" t="s">
         <v>861</v>
-      </c>
-      <c r="B45" s="21" t="s">
-        <v>862</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>5</v>
@@ -33690,7 +33643,7 @@
         <v>465</v>
       </c>
       <c r="E47" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F47" s="32" t="s">
         <v>826</v>
@@ -33718,7 +33671,7 @@
         <v>827</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G48" s="30"/>
       <c r="H48" s="27"/>
@@ -33733,7 +33686,7 @@
     <row r="49" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A49" s="20"/>
       <c r="B49" s="21" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>5</v>
@@ -33742,10 +33695,10 @@
         <v>471</v>
       </c>
       <c r="E49" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="F49" s="32" t="s">
         <v>866</v>
-      </c>
-      <c r="F49" s="32" t="s">
-        <v>867</v>
       </c>
       <c r="G49" s="30"/>
       <c r="H49" s="27"/>
@@ -33772,7 +33725,7 @@
         <v>789</v>
       </c>
       <c r="F50" s="30" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G50" s="27"/>
       <c r="H50" s="27"/>
@@ -33799,7 +33752,7 @@
         <v>792</v>
       </c>
       <c r="F51" s="28" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G51" s="30"/>
       <c r="H51" s="27"/>
@@ -33946,10 +33899,10 @@
     </row>
     <row r="57" s="4" customFormat="1" ht="70" spans="1:15">
       <c r="A57" s="20" t="s">
+        <v>869</v>
+      </c>
+      <c r="B57" s="21" t="s">
         <v>870</v>
-      </c>
-      <c r="B57" s="21" t="s">
-        <v>871</v>
       </c>
       <c r="C57" s="29" t="s">
         <v>5</v>
@@ -33983,7 +33936,7 @@
         <v>465</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F58" s="32" t="s">
         <v>826</v>
@@ -34011,7 +33964,7 @@
         <v>827</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="G59" s="30"/>
       <c r="H59" s="27"/>
@@ -34026,7 +33979,7 @@
     <row r="60" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A60" s="20"/>
       <c r="B60" s="21" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C60" s="29" t="s">
         <v>5</v>
@@ -34035,10 +33988,10 @@
         <v>471</v>
       </c>
       <c r="E60" s="30" t="s">
+        <v>873</v>
+      </c>
+      <c r="F60" s="32" t="s">
         <v>874</v>
-      </c>
-      <c r="F60" s="32" t="s">
-        <v>875</v>
       </c>
       <c r="G60" s="30"/>
       <c r="H60" s="27"/>
@@ -34065,7 +34018,7 @@
         <v>789</v>
       </c>
       <c r="F61" s="30" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G61" s="27"/>
       <c r="H61" s="27"/>
@@ -34092,7 +34045,7 @@
         <v>792</v>
       </c>
       <c r="F62" s="28" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="G62" s="30"/>
       <c r="H62" s="27"/>
@@ -34239,10 +34192,10 @@
     </row>
     <row r="68" s="4" customFormat="1" ht="70" spans="1:15">
       <c r="A68" s="20" t="s">
+        <v>876</v>
+      </c>
+      <c r="B68" s="21" t="s">
         <v>877</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>878</v>
       </c>
       <c r="C68" s="29" t="s">
         <v>5</v>
@@ -34276,7 +34229,7 @@
         <v>465</v>
       </c>
       <c r="E69" s="30" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F69" s="32" t="s">
         <v>826</v>
@@ -34304,7 +34257,7 @@
         <v>827</v>
       </c>
       <c r="F70" s="32" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="G70" s="30"/>
       <c r="H70" s="27"/>
@@ -34319,7 +34272,7 @@
     <row r="71" customFormat="1" ht="20" customHeight="1" spans="1:15">
       <c r="A71" s="20"/>
       <c r="B71" s="21" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C71" s="29" t="s">
         <v>5</v>
@@ -34328,10 +34281,10 @@
         <v>471</v>
       </c>
       <c r="E71" s="30" t="s">
+        <v>880</v>
+      </c>
+      <c r="F71" s="32" t="s">
         <v>881</v>
-      </c>
-      <c r="F71" s="32" t="s">
-        <v>882</v>
       </c>
       <c r="G71" s="30"/>
       <c r="H71" s="27"/>
@@ -34358,7 +34311,7 @@
         <v>789</v>
       </c>
       <c r="F72" s="30" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G72" s="27"/>
       <c r="H72" s="27"/>
@@ -34385,7 +34338,7 @@
         <v>792</v>
       </c>
       <c r="F73" s="28" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="G73" s="30"/>
       <c r="H73" s="27"/>
@@ -36281,376 +36234,398 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N5">
-    <cfRule type="beginsWith" dxfId="0" priority="118" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="124" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N5,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N5,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="126" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N5,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N13">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N13,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N13,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N13,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="46" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N14,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="47" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N14,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="48" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N14,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N17,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N17,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N17,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N19">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N19,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N19,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N19,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="67" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="68" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="69" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22">
-    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N28">
-    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N31">
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N31,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N31,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N31,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N34">
-    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="61" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="62" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="63" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N39">
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N39,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N39,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N39,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N50">
-    <cfRule type="beginsWith" dxfId="0" priority="106" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="112" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N50,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="107" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N50,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="108" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="114" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N50,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N53">
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="31" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N53,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="32" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N53,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="33" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N53,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N54">
-    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="100" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N54,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="101" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N54,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="102" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N54,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N55">
-    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N55,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N55,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N55,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N61">
-    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="94" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N61,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="95" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N61,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="96" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N61,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N64">
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N64,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N64,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N64,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N65">
-    <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="88" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N65,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="89" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N65,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="90" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N65,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N66">
-    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N66,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N66,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N66,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N72">
-    <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="82" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N72,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="83" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N72,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="84" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N72,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N75">
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N75,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N75,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N75,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N76">
-    <cfRule type="beginsWith" dxfId="0" priority="70" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="76" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N76,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="71" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="77" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N76,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="72" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="78" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N76,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N77">
-    <cfRule type="beginsWith" dxfId="0" priority="73" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N77,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="74" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N77,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="75" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N77,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N12">
-    <cfRule type="beginsWith" dxfId="0" priority="112" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="118" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N6,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="113" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="119" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N6,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="114" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="120" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N6,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23:N27">
-    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="103" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="104" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="105" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N29:N33">
-    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N35:N37">
-    <cfRule type="beginsWith" dxfId="0" priority="52" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="58" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="53" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="59" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="54" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="60" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N40:N44">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N40,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N40,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N40,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N81:N180">
-    <cfRule type="beginsWith" dxfId="0" priority="121" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="127" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N81,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="122" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="128" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N81,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="123" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="129" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N81,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N4 N80">
-    <cfRule type="beginsWith" dxfId="0" priority="124" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="130" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="125" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="131" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="126" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="132" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15:N16 N18">
-    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N15,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N15,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N15,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N29:N30 N32">
+    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N29,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N29,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N29,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N38 N79">
-    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="55" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N38,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="56" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N38,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="57" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N38,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:N49 N51:N52 N56">
-    <cfRule type="beginsWith" dxfId="0" priority="109" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="115" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N46,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="110" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="116" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N46,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="111" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="117" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N46,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N57:N60 N62:N63 N67">
-    <cfRule type="beginsWith" dxfId="0" priority="91" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="97" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N57,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="92" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="98" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N57,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="93" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="99" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N57,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N68:N71 N73:N74 N78">
-    <cfRule type="beginsWith" dxfId="0" priority="79" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="85" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N68,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="80" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="86" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N68,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="81" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="87" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N68,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/tests/artifact/script/Account.xlsx
+++ b/tests/artifact/script/Account.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6910" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="18350" windowHeight="6800" tabRatio="500" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -58,12 +58,25 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="982" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="799">
   <si>
     <t>target</t>
   </si>
@@ -2378,6 +2391,9 @@
   </si>
   <si>
     <t>[JSON(${response}.body) =&gt; extract(gkstatus)]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validating the response </t>
   </si>
   <si>
     <t>$(projectfile|macro|${gnukhata.path}|MacroLibrary|validateResponse)</t>
@@ -2473,6 +2489,9 @@
     <t>${body}</t>
   </si>
   <si>
+    <t>Validating the response</t>
+  </si>
+  <si>
     <t>actualReturnCode=${response}.returnCode
 actualResponseTime=${response}.elapsedTime
 actualContentType=${response}.headers.[Content-Type]
@@ -2489,7 +2508,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -26265,8 +26284,8 @@
   <sheetPr/>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -26513,7 +26532,9 @@
     </row>
     <row r="9" s="10" customFormat="1" ht="134" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>771</v>
+      </c>
       <c r="C9" s="25" t="s">
         <v>5</v>
       </c>
@@ -26521,10 +26542,10 @@
         <v>447</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F9" s="30" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -26539,7 +26560,7 @@
     <row r="10" s="10" customFormat="1" ht="24" customHeight="1" spans="1:15">
       <c r="A10" s="18"/>
       <c r="B10" s="24" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>5</v>
@@ -26548,10 +26569,10 @@
         <v>49</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G10" s="27"/>
       <c r="H10" s="27"/>
@@ -26566,7 +26587,7 @@
     <row r="11" s="10" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C11" s="28" t="s">
         <v>35</v>
@@ -26590,7 +26611,7 @@
     </row>
     <row r="12" s="10" customFormat="1" ht="28" spans="1:15">
       <c r="A12" s="18" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>760</v>
@@ -26632,7 +26653,7 @@
         <v>763</v>
       </c>
       <c r="F13" s="29" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G13" s="27"/>
       <c r="H13" s="27"/>
@@ -26673,7 +26694,9 @@
     </row>
     <row r="15" s="10" customFormat="1" ht="141" customHeight="1" spans="1:15">
       <c r="A15" s="18"/>
-      <c r="B15" s="24"/>
+      <c r="B15" s="24" t="s">
+        <v>771</v>
+      </c>
       <c r="C15" s="25" t="s">
         <v>5</v>
       </c>
@@ -26681,10 +26704,10 @@
         <v>447</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G15" s="26"/>
       <c r="H15" s="27"/>
@@ -26699,7 +26722,7 @@
     <row r="16" s="10" customFormat="1" ht="40" customHeight="1" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="24" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C16" s="25" t="s">
         <v>5</v>
@@ -26708,10 +26731,10 @@
         <v>49</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F16" s="26" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G16" s="26"/>
       <c r="H16" s="27"/>
@@ -26726,7 +26749,7 @@
     <row r="17" s="10" customFormat="1" ht="123" customHeight="1" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="24" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C17" s="25" t="s">
         <v>35</v>
@@ -27170,9 +27193,9 @@
   <dimension ref="A1:O136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D15" sqref="D15"/>
+      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -27309,10 +27332,10 @@
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:15">
       <c r="A5" s="18" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>35</v>
@@ -27338,10 +27361,10 @@
     </row>
     <row r="6" ht="34" customHeight="1" spans="1:15">
       <c r="A6" s="18" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>5</v>
@@ -27368,7 +27391,7 @@
     <row r="7" ht="30" customHeight="1" spans="1:15">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="C7" s="25" t="s">
         <v>5</v>
@@ -27377,10 +27400,10 @@
         <v>471</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F7" s="26" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27"/>
@@ -27395,7 +27418,7 @@
     <row r="8" ht="30" customHeight="1" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C8" s="25" t="s">
         <v>5</v>
@@ -27404,10 +27427,10 @@
         <v>471</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="F8" s="26" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="G8" s="27"/>
       <c r="H8" s="27"/>
@@ -27422,7 +27445,7 @@
     <row r="9" ht="172" customHeight="1" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="19" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>5</v>
@@ -27431,10 +27454,10 @@
         <v>471</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="27"/>
@@ -27449,7 +27472,7 @@
     <row r="10" ht="23" customHeight="1" spans="1:15">
       <c r="A10" s="18"/>
       <c r="B10" s="24" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>35</v>
@@ -27461,7 +27484,7 @@
         <v>766</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="G10" s="27" t="s">
         <v>767</v>
@@ -27504,7 +27527,9 @@
     </row>
     <row r="12" ht="181" customHeight="1" spans="1:15">
       <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>796</v>
+      </c>
       <c r="C12" s="25" t="s">
         <v>5</v>
       </c>
@@ -27512,10 +27537,10 @@
         <v>447</v>
       </c>
       <c r="E12" s="26" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="G12" s="27"/>
       <c r="H12" s="27"/>
@@ -27530,7 +27555,7 @@
     <row r="13" ht="23" customHeight="1" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="24" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C13" s="28" t="s">
         <v>5</v>
@@ -27539,10 +27564,10 @@
         <v>49</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="G13" s="26"/>
       <c r="H13" s="27"/>
@@ -27557,7 +27582,7 @@
     <row r="14" ht="23" customHeight="1" spans="1:15">
       <c r="A14" s="18"/>
       <c r="B14" s="24" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C14" s="25" t="s">
         <v>35</v>
